--- a/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
+++ b/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/import-test/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/processing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAE807-D361-F443-8C8D-56A01DE1F771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0225BB24-FD7A-614E-8855-3F49C40E9F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="9760" windowWidth="38000" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7300" yWindow="1900" windowWidth="38000" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="307">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -1704,29 +1704,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD991"/>
+  <dimension ref="A1:AC991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="17" style="6" customWidth="1"/>
-    <col min="4" max="8" width="14.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="6" customWidth="1"/>
-    <col min="11" max="14" width="14.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19" style="6" customWidth="1"/>
-    <col min="19" max="26" width="11.28515625" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="11.28515625" style="6"/>
+    <col min="4" max="7" width="14.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="6" customWidth="1"/>
+    <col min="10" max="13" width="14.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19" style="6" customWidth="1"/>
+    <col min="18" max="25" width="11.28515625" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="11.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1740,54 +1740,51 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>199</v>
       </c>
@@ -1800,29 +1797,26 @@
       <c r="D2" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="6">
-        <v>5414</v>
+      <c r="F2" s="5">
+        <v>55.185000000000002</v>
       </c>
       <c r="G2" s="5">
-        <v>55.185000000000002</v>
-      </c>
-      <c r="H2" s="5">
         <v>13.791</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>213</v>
+      </c>
+      <c r="P2" s="5">
+        <v>3</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
       </c>
-      <c r="R2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>198</v>
       </c>
@@ -1835,27 +1829,25 @@
       <c r="D3" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="6">
-        <v>37676</v>
+      <c r="F3" s="5">
+        <v>55.433999999999997</v>
       </c>
       <c r="G3" s="5">
-        <v>55.433999999999997</v>
-      </c>
-      <c r="H3" s="5">
         <v>14.813000000000001</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="P3" s="5">
+        <v>3</v>
       </c>
       <c r="Q3" s="5">
         <v>3</v>
       </c>
-      <c r="R3" s="5">
-        <v>3</v>
-      </c>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1866,9 +1858,8 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>197</v>
       </c>
@@ -1881,27 +1872,25 @@
       <c r="D4" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="6">
-        <v>41973</v>
+      <c r="F4" s="5">
+        <v>56.031999999999996</v>
       </c>
       <c r="G4" s="5">
-        <v>56.031999999999996</v>
-      </c>
-      <c r="H4" s="5">
         <v>16.649999999999999</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
       </c>
       <c r="Q4" s="5">
         <v>3</v>
       </c>
-      <c r="R4" s="5">
-        <v>3</v>
-      </c>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1912,9 +1901,9 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -1925,9 +1914,9 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -1938,9 +1927,9 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1951,9 +1940,9 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1964,9 +1953,9 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -1977,407 +1966,385 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="14"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="14"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="14"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="14"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="14"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="14"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="14"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="14"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5210,7 +5177,7 @@
       <c r="C991" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U9">
     <sortCondition ref="A3:A9"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5223,7 +5190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -9687,7 +9654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221FF7C6-E74E-E14F-A681-9750CC4E526F}">
   <dimension ref="A1:E973"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
+++ b/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/processing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE5F3F5-E5C7-BD47-B5E5-A1714A176045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A47B6-38E5-5A4A-A8DC-43CF61BF89DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8140" yWindow="7300" windowWidth="38000" windowHeight="14600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="9960" windowWidth="40640" windowHeight="9440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
-  <si>
-    <t>event_id_alias</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="142">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -409,16 +406,55 @@
     <t>https://www.ebi.ac.uk/ena/browser/view/ERR1202034</t>
   </si>
   <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/SAMEA3724522</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/ERR1202025</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/SAMEA3724523</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/ERR1202026</t>
+    <t>eventID</t>
+  </si>
+  <si>
+    <t>datasetID</t>
+  </si>
+  <si>
+    <t>institutionCode</t>
+  </si>
+  <si>
+    <t>institutionID</t>
+  </si>
+  <si>
+    <t>collectionCode</t>
+  </si>
+  <si>
+    <t>fieldNumber</t>
+  </si>
+  <si>
+    <t>catalogueNumber</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>SBDI-ASV-KTH-2013-Baltic-16S</t>
+  </si>
+  <si>
+    <t>KTH</t>
+  </si>
+  <si>
+    <t>https://ror.org/026vcq606</t>
+  </si>
+  <si>
+    <t>some-catalogue-no</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/SAMEA3724535</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/ERR1202038</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/SAMEA3724536</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ena/browser/view/ERR1202039</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2016.00679</t>
   </si>
 </sst>
 </file>
@@ -426,7 +462,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -516,7 +552,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,16 +564,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{0713BF38-484B-6D40-93B4-5D3280F138BB}"/>
@@ -758,214 +797,250 @@
   <dimension ref="A1:AD991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="8" width="14.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="5" customWidth="1"/>
-    <col min="11" max="14" width="14.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.5703125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19" style="5" customWidth="1"/>
-    <col min="19" max="26" width="11.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="11.28515625" style="5" customWidth="1"/>
     <col min="27" max="16384" width="11.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="4">
+        <v>55.185000000000002</v>
+      </c>
+      <c r="O2" s="4">
+        <v>13.791</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="4">
+        <v>55.433999999999997</v>
+      </c>
+      <c r="O3" s="4">
+        <v>14.813000000000001</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="L4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="4">
-        <v>55.185000000000002</v>
-      </c>
-      <c r="H2" s="4">
-        <v>13.791</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="N4" s="4">
+        <v>56.031999999999996</v>
+      </c>
+      <c r="O4" s="4">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="4">
         <v>3</v>
       </c>
-      <c r="R2" s="4">
+      <c r="Y4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="4">
-        <v>55.433999999999997</v>
-      </c>
-      <c r="H3" s="4">
-        <v>14.813000000000001</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>3</v>
-      </c>
-      <c r="R3" s="4">
-        <v>3</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-    </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="4">
-        <v>56.031999999999996</v>
-      </c>
-      <c r="H4" s="4">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>3</v>
-      </c>
-      <c r="R4" s="4">
-        <v>3</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="T5" s="4"/>
@@ -4268,6 +4343,14 @@
     <sortCondition ref="A3:A9"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{FFFF4A6B-6141-EF4A-A005-C49E89BAFB32}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{583900EC-E5D8-5D4F-8990-983F3A0FDBB0}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{63C3E05A-0F2B-3047-83ED-EB6662AE8536}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{C93DDD53-A427-244F-AFAE-EC2D1D133CB4}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{EF449516-CEFE-D348-A22E-CEAB05BE759C}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{B489066E-4E53-064D-A2EF-B5F017B39947}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4277,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4297,171 +4380,180 @@
     <col min="27" max="16384" width="11.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5439,6 +5531,11 @@
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{319505E9-C3E1-BB4C-A494-AEC4193AD797}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{207843E3-4BA7-B746-8BE2-6D21F5AC5455}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E72F4321-A306-8347-80DE-44CF129FCF36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5446,10 +5543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M982"/>
+  <dimension ref="A1:L982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5459,152 +5556,133 @@
     <col min="14" max="16384" width="11.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D2" s="4">
         <v>7.25</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="4">
         <v>7.23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D4" s="4">
         <v>6.97</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D6" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5616,8 +5694,8 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5629,8 +5707,8 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5642,8 +5720,8 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5655,8 +5733,8 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5668,8 +5746,8 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5681,8 +5759,8 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -5694,8 +5772,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -5707,8 +5785,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5721,7 +5799,7 @@
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5734,7 +5812,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5747,7 +5825,7 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5760,7 +5838,7 @@
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5773,7 +5851,7 @@
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5786,7 +5864,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5799,7 +5877,7 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5812,7 +5890,7 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5825,7 +5903,7 @@
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5838,7 +5916,7 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5851,7 +5929,7 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5864,2869 +5942,2869 @@
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="16"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="16"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="16"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="16"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="16"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="16"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="16"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="16"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="16"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="16"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="16"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="16"/>
+      <c r="B66" s="15"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="16"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="16"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="16"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="16"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="16"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="16"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="16"/>
+      <c r="B79" s="15"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="16"/>
+      <c r="B83" s="15"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="16"/>
+      <c r="B84" s="15"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="16"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="16"/>
+      <c r="B87" s="15"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="16"/>
+      <c r="B88" s="15"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="16"/>
+      <c r="B89" s="15"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="16"/>
+      <c r="B90" s="15"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="16"/>
+      <c r="B91" s="15"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
+      <c r="B92" s="15"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="16"/>
+      <c r="B93" s="15"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="16"/>
+      <c r="B94" s="15"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="16"/>
+      <c r="B95" s="15"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="16"/>
+      <c r="B96" s="15"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="16"/>
+      <c r="B97" s="15"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="16"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="16"/>
+      <c r="B99" s="15"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="16"/>
+      <c r="B100" s="15"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="16"/>
+      <c r="B101" s="15"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="16"/>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="16"/>
+      <c r="B103" s="15"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="16"/>
+      <c r="B104" s="15"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="16"/>
+      <c r="B105" s="15"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="16"/>
+      <c r="B106" s="15"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="16"/>
+      <c r="B107" s="15"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="16"/>
+      <c r="B108" s="15"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="16"/>
+      <c r="B109" s="15"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="16"/>
+      <c r="B110" s="15"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="16"/>
+      <c r="B111" s="15"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="16"/>
+      <c r="B112" s="15"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="16"/>
+      <c r="B113" s="15"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="16"/>
+      <c r="B114" s="15"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="16"/>
+      <c r="B115" s="15"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="16"/>
+      <c r="B116" s="15"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="16"/>
+      <c r="B117" s="15"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="16"/>
+      <c r="B118" s="15"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="16"/>
+      <c r="B119" s="15"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="16"/>
+      <c r="B120" s="15"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="16"/>
+      <c r="B121" s="15"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="16"/>
+      <c r="B122" s="15"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="16"/>
+      <c r="B123" s="15"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="16"/>
+      <c r="B124" s="15"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="16"/>
+      <c r="B125" s="15"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="16"/>
+      <c r="B126" s="15"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="16"/>
+      <c r="B127" s="15"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="16"/>
+      <c r="B128" s="15"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="16"/>
+      <c r="B129" s="15"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="16"/>
+      <c r="B130" s="15"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="16"/>
+      <c r="B131" s="15"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="16"/>
+      <c r="B132" s="15"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="16"/>
+      <c r="B133" s="15"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="16"/>
+      <c r="B134" s="15"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="16"/>
+      <c r="B135" s="15"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="16"/>
+      <c r="B136" s="15"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="16"/>
+      <c r="B137" s="15"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="16"/>
+      <c r="B138" s="15"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="16"/>
+      <c r="B139" s="15"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="16"/>
+      <c r="B140" s="15"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="16"/>
+      <c r="B141" s="15"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="16"/>
+      <c r="B142" s="15"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="16"/>
+      <c r="B143" s="15"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="16"/>
+      <c r="B144" s="15"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="16"/>
+      <c r="B145" s="15"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="16"/>
+      <c r="B146" s="15"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="16"/>
+      <c r="B147" s="15"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="16"/>
+      <c r="B148" s="15"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="16"/>
+      <c r="B150" s="15"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="16"/>
+      <c r="B151" s="15"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="16"/>
+      <c r="B152" s="15"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="16"/>
+      <c r="B153" s="15"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="16"/>
+      <c r="B154" s="15"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="16"/>
+      <c r="B155" s="15"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="16"/>
+      <c r="B156" s="15"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="16"/>
+      <c r="B157" s="15"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="16"/>
+      <c r="B158" s="15"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="16"/>
+      <c r="B159" s="15"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="16"/>
+      <c r="B160" s="15"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="16"/>
+      <c r="B161" s="15"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="16"/>
+      <c r="B162" s="15"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="16"/>
+      <c r="B163" s="15"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="16"/>
+      <c r="B164" s="15"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="16"/>
+      <c r="B165" s="15"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="16"/>
+      <c r="B166" s="15"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="16"/>
+      <c r="B167" s="15"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="16"/>
+      <c r="B168" s="15"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="16"/>
+      <c r="B169" s="15"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="16"/>
+      <c r="B170" s="15"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="16"/>
+      <c r="B171" s="15"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="16"/>
+      <c r="B172" s="15"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="16"/>
+      <c r="B173" s="15"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="16"/>
+      <c r="B174" s="15"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="16"/>
+      <c r="B175" s="15"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="16"/>
+      <c r="B176" s="15"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="16"/>
+      <c r="B177" s="15"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="16"/>
+      <c r="B178" s="15"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="16"/>
+      <c r="B179" s="15"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="16"/>
+      <c r="B180" s="15"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="16"/>
+      <c r="B181" s="15"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="16"/>
+      <c r="B182" s="15"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="16"/>
+      <c r="B183" s="15"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="16"/>
+      <c r="B184" s="15"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="16"/>
+      <c r="B185" s="15"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="16"/>
+      <c r="B186" s="15"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="16"/>
+      <c r="B187" s="15"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="16"/>
+      <c r="B188" s="15"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="16"/>
+      <c r="B189" s="15"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="16"/>
+      <c r="B190" s="15"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="16"/>
+      <c r="B191" s="15"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="16"/>
+      <c r="B192" s="15"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="16"/>
+      <c r="B193" s="15"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="16"/>
+      <c r="B194" s="15"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="16"/>
+      <c r="B195" s="15"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="16"/>
+      <c r="B196" s="15"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="16"/>
+      <c r="B197" s="15"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="16"/>
+      <c r="B198" s="15"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="16"/>
+      <c r="B199" s="15"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="16"/>
+      <c r="B200" s="15"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="16"/>
+      <c r="B201" s="15"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="16"/>
+      <c r="B202" s="15"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="16"/>
+      <c r="B203" s="15"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="16"/>
+      <c r="B204" s="15"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="16"/>
+      <c r="B205" s="15"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="16"/>
+      <c r="B206" s="15"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="16"/>
+      <c r="B207" s="15"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="16"/>
+      <c r="B208" s="15"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="16"/>
+      <c r="B209" s="15"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="16"/>
+      <c r="B210" s="15"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="16"/>
+      <c r="B211" s="15"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="16"/>
+      <c r="B212" s="15"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="16"/>
+      <c r="B213" s="15"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="16"/>
+      <c r="B214" s="15"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="16"/>
+      <c r="B215" s="15"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="16"/>
+      <c r="B216" s="15"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="16"/>
+      <c r="B217" s="15"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="16"/>
+      <c r="B218" s="15"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="16"/>
+      <c r="B219" s="15"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="16"/>
+      <c r="B221" s="15"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="16"/>
+      <c r="B222" s="15"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="16"/>
+      <c r="B223" s="15"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="16"/>
+      <c r="B224" s="15"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="16"/>
+      <c r="B225" s="15"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="16"/>
+      <c r="B226" s="15"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="16"/>
+      <c r="B227" s="15"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="16"/>
+      <c r="B228" s="15"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="16"/>
+      <c r="B229" s="15"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="16"/>
+      <c r="B230" s="15"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="16"/>
+      <c r="B231" s="15"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="16"/>
+      <c r="B232" s="15"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="16"/>
+      <c r="B233" s="15"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="16"/>
+      <c r="B234" s="15"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="16"/>
+      <c r="B235" s="15"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="16"/>
+      <c r="B236" s="15"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="16"/>
+      <c r="B237" s="15"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="16"/>
+      <c r="B238" s="15"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="16"/>
+      <c r="B239" s="15"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="16"/>
+      <c r="B240" s="15"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="16"/>
+      <c r="B241" s="15"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="16"/>
+      <c r="B242" s="15"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="16"/>
+      <c r="B243" s="15"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="16"/>
+      <c r="B244" s="15"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="16"/>
+      <c r="B245" s="15"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="16"/>
+      <c r="B246" s="15"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="16"/>
+      <c r="B247" s="15"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="16"/>
+      <c r="B248" s="15"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="16"/>
+      <c r="B249" s="15"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="16"/>
+      <c r="B252" s="15"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="16"/>
+      <c r="B253" s="15"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="16"/>
+      <c r="B254" s="15"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="16"/>
+      <c r="B255" s="15"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="16"/>
+      <c r="B256" s="15"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="16"/>
+      <c r="B267" s="15"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="16"/>
+      <c r="B268" s="15"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="16"/>
+      <c r="B269" s="15"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="16"/>
+      <c r="B270" s="15"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="16"/>
+      <c r="B271" s="15"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="16"/>
+      <c r="B272" s="15"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="16"/>
+      <c r="B273" s="15"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="16"/>
+      <c r="B274" s="15"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="16"/>
+      <c r="B275" s="15"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="16"/>
+      <c r="B276" s="15"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="16"/>
+      <c r="B277" s="15"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="16"/>
+      <c r="B278" s="15"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="16"/>
+      <c r="B279" s="15"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="16"/>
+      <c r="B280" s="15"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="16"/>
+      <c r="B281" s="15"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="16"/>
+      <c r="B282" s="15"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="16"/>
+      <c r="B283" s="15"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="16"/>
+      <c r="B284" s="15"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="16"/>
+      <c r="B285" s="15"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="16"/>
+      <c r="B286" s="15"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="16"/>
+      <c r="B287" s="15"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="16"/>
+      <c r="B288" s="15"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="16"/>
+      <c r="B289" s="15"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="16"/>
+      <c r="B290" s="15"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="16"/>
+      <c r="B291" s="15"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="16"/>
+      <c r="B292" s="15"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="16"/>
+      <c r="B293" s="15"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="16"/>
+      <c r="B294" s="15"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="16"/>
+      <c r="B295" s="15"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="16"/>
+      <c r="B296" s="15"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="16"/>
+      <c r="B297" s="15"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="16"/>
+      <c r="B298" s="15"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="16"/>
+      <c r="B299" s="15"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="16"/>
+      <c r="B300" s="15"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="16"/>
+      <c r="B301" s="15"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="16"/>
+      <c r="B302" s="15"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="16"/>
+      <c r="B303" s="15"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="16"/>
+      <c r="B304" s="15"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="16"/>
+      <c r="B305" s="15"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="16"/>
+      <c r="B306" s="15"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="16"/>
+      <c r="B307" s="15"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="16"/>
+      <c r="B308" s="15"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="16"/>
+      <c r="B309" s="15"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="16"/>
+      <c r="B310" s="15"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="16"/>
+      <c r="B311" s="15"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="16"/>
+      <c r="B312" s="15"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="16"/>
+      <c r="B313" s="15"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="16"/>
+      <c r="B314" s="15"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="16"/>
+      <c r="B315" s="15"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="16"/>
+      <c r="B316" s="15"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="16"/>
+      <c r="B317" s="15"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="16"/>
+      <c r="B318" s="15"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="16"/>
+      <c r="B319" s="15"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="16"/>
+      <c r="B320" s="15"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="16"/>
+      <c r="B321" s="15"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="16"/>
+      <c r="B322" s="15"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="16"/>
+      <c r="B323" s="15"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="16"/>
+      <c r="B324" s="15"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="16"/>
+      <c r="B325" s="15"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B326" s="16"/>
+      <c r="B326" s="15"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B327" s="16"/>
+      <c r="B327" s="15"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B328" s="16"/>
+      <c r="B328" s="15"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="16"/>
+      <c r="B329" s="15"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="16"/>
+      <c r="B330" s="15"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="16"/>
+      <c r="B331" s="15"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="16"/>
+      <c r="B332" s="15"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="16"/>
+      <c r="B333" s="15"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="16"/>
+      <c r="B334" s="15"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="16"/>
+      <c r="B335" s="15"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="16"/>
+      <c r="B336" s="15"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="16"/>
+      <c r="B337" s="15"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="16"/>
+      <c r="B338" s="15"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="16"/>
+      <c r="B339" s="15"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B340" s="16"/>
+      <c r="B340" s="15"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B341" s="16"/>
+      <c r="B341" s="15"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="16"/>
+      <c r="B342" s="15"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B343" s="16"/>
+      <c r="B343" s="15"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B344" s="16"/>
+      <c r="B344" s="15"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="16"/>
+      <c r="B345" s="15"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="16"/>
+      <c r="B346" s="15"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="16"/>
+      <c r="B347" s="15"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="16"/>
+      <c r="B348" s="15"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="16"/>
+      <c r="B349" s="15"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B350" s="16"/>
+      <c r="B350" s="15"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B351" s="16"/>
+      <c r="B351" s="15"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="16"/>
+      <c r="B352" s="15"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="16"/>
+      <c r="B353" s="15"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="16"/>
+      <c r="B354" s="15"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="16"/>
+      <c r="B355" s="15"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="16"/>
+      <c r="B356" s="15"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="16"/>
+      <c r="B357" s="15"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="16"/>
+      <c r="B358" s="15"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="16"/>
+      <c r="B359" s="15"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="16"/>
+      <c r="B360" s="15"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="16"/>
+      <c r="B361" s="15"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B362" s="16"/>
+      <c r="B362" s="15"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="16"/>
+      <c r="B363" s="15"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="16"/>
+      <c r="B364" s="15"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B365" s="16"/>
+      <c r="B365" s="15"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="16"/>
+      <c r="B366" s="15"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="16"/>
+      <c r="B367" s="15"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B368" s="16"/>
+      <c r="B368" s="15"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="16"/>
+      <c r="B369" s="15"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B370" s="16"/>
+      <c r="B370" s="15"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="16"/>
+      <c r="B371" s="15"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="16"/>
+      <c r="B372" s="15"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="16"/>
+      <c r="B373" s="15"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="16"/>
+      <c r="B374" s="15"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B375" s="16"/>
+      <c r="B375" s="15"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="16"/>
+      <c r="B376" s="15"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="16"/>
+      <c r="B377" s="15"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="16"/>
+      <c r="B378" s="15"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="16"/>
+      <c r="B379" s="15"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B380" s="16"/>
+      <c r="B380" s="15"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="16"/>
+      <c r="B381" s="15"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="16"/>
+      <c r="B382" s="15"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="16"/>
+      <c r="B383" s="15"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="16"/>
+      <c r="B384" s="15"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="16"/>
+      <c r="B385" s="15"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="16"/>
+      <c r="B386" s="15"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="16"/>
+      <c r="B387" s="15"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="16"/>
+      <c r="B388" s="15"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="16"/>
+      <c r="B389" s="15"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="16"/>
+      <c r="B390" s="15"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="16"/>
+      <c r="B391" s="15"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="16"/>
+      <c r="B392" s="15"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="16"/>
+      <c r="B393" s="15"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="16"/>
+      <c r="B394" s="15"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="16"/>
+      <c r="B395" s="15"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="16"/>
+      <c r="B396" s="15"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="16"/>
+      <c r="B397" s="15"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="16"/>
+      <c r="B398" s="15"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="16"/>
+      <c r="B399" s="15"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="16"/>
+      <c r="B400" s="15"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="16"/>
+      <c r="B401" s="15"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="16"/>
+      <c r="B402" s="15"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="16"/>
+      <c r="B403" s="15"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="16"/>
+      <c r="B404" s="15"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="16"/>
+      <c r="B405" s="15"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="16"/>
+      <c r="B406" s="15"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="16"/>
+      <c r="B407" s="15"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="16"/>
+      <c r="B408" s="15"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="16"/>
+      <c r="B409" s="15"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="16"/>
+      <c r="B410" s="15"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="16"/>
+      <c r="B411" s="15"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="16"/>
+      <c r="B412" s="15"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="16"/>
+      <c r="B413" s="15"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="16"/>
+      <c r="B414" s="15"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="16"/>
+      <c r="B415" s="15"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="16"/>
+      <c r="B416" s="15"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="16"/>
+      <c r="B417" s="15"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="16"/>
+      <c r="B418" s="15"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="16"/>
+      <c r="B419" s="15"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="16"/>
+      <c r="B420" s="15"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="16"/>
+      <c r="B421" s="15"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="16"/>
+      <c r="B422" s="15"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="16"/>
+      <c r="B423" s="15"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="16"/>
+      <c r="B424" s="15"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="16"/>
+      <c r="B425" s="15"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="16"/>
+      <c r="B426" s="15"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="16"/>
+      <c r="B427" s="15"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="16"/>
+      <c r="B428" s="15"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="16"/>
+      <c r="B429" s="15"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="16"/>
+      <c r="B430" s="15"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="16"/>
+      <c r="B431" s="15"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="16"/>
+      <c r="B432" s="15"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="16"/>
+      <c r="B433" s="15"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="16"/>
+      <c r="B434" s="15"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="16"/>
+      <c r="B435" s="15"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="16"/>
+      <c r="B436" s="15"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="16"/>
+      <c r="B437" s="15"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="16"/>
+      <c r="B438" s="15"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="16"/>
+      <c r="B439" s="15"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="16"/>
+      <c r="B440" s="15"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="16"/>
+      <c r="B441" s="15"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B442" s="16"/>
+      <c r="B442" s="15"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B443" s="16"/>
+      <c r="B443" s="15"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="16"/>
+      <c r="B444" s="15"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="16"/>
+      <c r="B445" s="15"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="16"/>
+      <c r="B446" s="15"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="16"/>
+      <c r="B447" s="15"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="16"/>
+      <c r="B448" s="15"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="16"/>
+      <c r="B449" s="15"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="16"/>
+      <c r="B450" s="15"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="16"/>
+      <c r="B451" s="15"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="16"/>
+      <c r="B452" s="15"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="16"/>
+      <c r="B453" s="15"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="16"/>
+      <c r="B454" s="15"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="16"/>
+      <c r="B455" s="15"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B456" s="16"/>
+      <c r="B456" s="15"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B457" s="16"/>
+      <c r="B457" s="15"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="16"/>
+      <c r="B458" s="15"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B459" s="16"/>
+      <c r="B459" s="15"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="16"/>
+      <c r="B460" s="15"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B461" s="16"/>
+      <c r="B461" s="15"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="16"/>
+      <c r="B462" s="15"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B463" s="16"/>
+      <c r="B463" s="15"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B464" s="16"/>
+      <c r="B464" s="15"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B465" s="16"/>
+      <c r="B465" s="15"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B466" s="16"/>
+      <c r="B466" s="15"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B467" s="16"/>
+      <c r="B467" s="15"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B468" s="16"/>
+      <c r="B468" s="15"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B469" s="16"/>
+      <c r="B469" s="15"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B470" s="16"/>
+      <c r="B470" s="15"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B471" s="16"/>
+      <c r="B471" s="15"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B472" s="16"/>
+      <c r="B472" s="15"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="16"/>
+      <c r="B473" s="15"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B474" s="16"/>
+      <c r="B474" s="15"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="16"/>
+      <c r="B475" s="15"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="16"/>
+      <c r="B476" s="15"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B477" s="16"/>
+      <c r="B477" s="15"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B478" s="16"/>
+      <c r="B478" s="15"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B479" s="16"/>
+      <c r="B479" s="15"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B480" s="16"/>
+      <c r="B480" s="15"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B481" s="16"/>
+      <c r="B481" s="15"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B482" s="16"/>
+      <c r="B482" s="15"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B483" s="16"/>
+      <c r="B483" s="15"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B484" s="16"/>
+      <c r="B484" s="15"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B485" s="16"/>
+      <c r="B485" s="15"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B486" s="16"/>
+      <c r="B486" s="15"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B487" s="16"/>
+      <c r="B487" s="15"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B488" s="16"/>
+      <c r="B488" s="15"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B489" s="16"/>
+      <c r="B489" s="15"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B490" s="16"/>
+      <c r="B490" s="15"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B491" s="16"/>
+      <c r="B491" s="15"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B492" s="16"/>
+      <c r="B492" s="15"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B493" s="16"/>
+      <c r="B493" s="15"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B494" s="16"/>
+      <c r="B494" s="15"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B495" s="16"/>
+      <c r="B495" s="15"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B496" s="16"/>
+      <c r="B496" s="15"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B497" s="16"/>
+      <c r="B497" s="15"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B498" s="16"/>
+      <c r="B498" s="15"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B499" s="16"/>
+      <c r="B499" s="15"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B500" s="16"/>
+      <c r="B500" s="15"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B501" s="16"/>
+      <c r="B501" s="15"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B502" s="16"/>
+      <c r="B502" s="15"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B503" s="16"/>
+      <c r="B503" s="15"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B504" s="16"/>
+      <c r="B504" s="15"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B505" s="16"/>
+      <c r="B505" s="15"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B506" s="16"/>
+      <c r="B506" s="15"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B507" s="16"/>
+      <c r="B507" s="15"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B508" s="16"/>
+      <c r="B508" s="15"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B509" s="16"/>
+      <c r="B509" s="15"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B510" s="16"/>
+      <c r="B510" s="15"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="16"/>
+      <c r="B511" s="15"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B512" s="16"/>
+      <c r="B512" s="15"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B513" s="16"/>
+      <c r="B513" s="15"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B514" s="16"/>
+      <c r="B514" s="15"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B515" s="16"/>
+      <c r="B515" s="15"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B516" s="16"/>
+      <c r="B516" s="15"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B517" s="16"/>
+      <c r="B517" s="15"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B518" s="16"/>
+      <c r="B518" s="15"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B519" s="16"/>
+      <c r="B519" s="15"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B520" s="16"/>
+      <c r="B520" s="15"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B521" s="16"/>
+      <c r="B521" s="15"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B522" s="16"/>
+      <c r="B522" s="15"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B523" s="16"/>
+      <c r="B523" s="15"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B524" s="16"/>
+      <c r="B524" s="15"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B525" s="16"/>
+      <c r="B525" s="15"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B526" s="16"/>
+      <c r="B526" s="15"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B527" s="16"/>
+      <c r="B527" s="15"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B528" s="16"/>
+      <c r="B528" s="15"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B529" s="16"/>
+      <c r="B529" s="15"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B530" s="16"/>
+      <c r="B530" s="15"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B531" s="16"/>
+      <c r="B531" s="15"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B532" s="16"/>
+      <c r="B532" s="15"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B533" s="16"/>
+      <c r="B533" s="15"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B534" s="16"/>
+      <c r="B534" s="15"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B535" s="16"/>
+      <c r="B535" s="15"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B536" s="16"/>
+      <c r="B536" s="15"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B537" s="16"/>
+      <c r="B537" s="15"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B538" s="16"/>
+      <c r="B538" s="15"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B539" s="16"/>
+      <c r="B539" s="15"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B540" s="16"/>
+      <c r="B540" s="15"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B541" s="16"/>
+      <c r="B541" s="15"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B542" s="16"/>
+      <c r="B542" s="15"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B543" s="16"/>
+      <c r="B543" s="15"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B544" s="16"/>
+      <c r="B544" s="15"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B545" s="16"/>
+      <c r="B545" s="15"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B546" s="16"/>
+      <c r="B546" s="15"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B547" s="16"/>
+      <c r="B547" s="15"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B548" s="16"/>
+      <c r="B548" s="15"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B549" s="16"/>
+      <c r="B549" s="15"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B550" s="16"/>
+      <c r="B550" s="15"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B551" s="16"/>
+      <c r="B551" s="15"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B552" s="16"/>
+      <c r="B552" s="15"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B553" s="16"/>
+      <c r="B553" s="15"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B554" s="16"/>
+      <c r="B554" s="15"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B555" s="16"/>
+      <c r="B555" s="15"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B556" s="16"/>
+      <c r="B556" s="15"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B557" s="16"/>
+      <c r="B557" s="15"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B558" s="16"/>
+      <c r="B558" s="15"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B559" s="16"/>
+      <c r="B559" s="15"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B560" s="16"/>
+      <c r="B560" s="15"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B561" s="16"/>
+      <c r="B561" s="15"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B562" s="16"/>
+      <c r="B562" s="15"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B563" s="16"/>
+      <c r="B563" s="15"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B564" s="16"/>
+      <c r="B564" s="15"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B565" s="16"/>
+      <c r="B565" s="15"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B566" s="16"/>
+      <c r="B566" s="15"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B567" s="16"/>
+      <c r="B567" s="15"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B568" s="16"/>
+      <c r="B568" s="15"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B569" s="16"/>
+      <c r="B569" s="15"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B570" s="16"/>
+      <c r="B570" s="15"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B571" s="16"/>
+      <c r="B571" s="15"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B572" s="16"/>
+      <c r="B572" s="15"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B573" s="16"/>
+      <c r="B573" s="15"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B574" s="16"/>
+      <c r="B574" s="15"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B575" s="16"/>
+      <c r="B575" s="15"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B576" s="16"/>
+      <c r="B576" s="15"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B577" s="16"/>
+      <c r="B577" s="15"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B578" s="16"/>
+      <c r="B578" s="15"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B579" s="16"/>
+      <c r="B579" s="15"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B580" s="16"/>
+      <c r="B580" s="15"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B581" s="16"/>
+      <c r="B581" s="15"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B582" s="16"/>
+      <c r="B582" s="15"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B583" s="16"/>
+      <c r="B583" s="15"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B584" s="16"/>
+      <c r="B584" s="15"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B585" s="16"/>
+      <c r="B585" s="15"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B586" s="16"/>
+      <c r="B586" s="15"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B587" s="16"/>
+      <c r="B587" s="15"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B588" s="16"/>
+      <c r="B588" s="15"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B589" s="16"/>
+      <c r="B589" s="15"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B590" s="16"/>
+      <c r="B590" s="15"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B591" s="16"/>
+      <c r="B591" s="15"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B592" s="16"/>
+      <c r="B592" s="15"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B593" s="16"/>
+      <c r="B593" s="15"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B594" s="16"/>
+      <c r="B594" s="15"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B595" s="16"/>
+      <c r="B595" s="15"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B596" s="16"/>
+      <c r="B596" s="15"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B597" s="16"/>
+      <c r="B597" s="15"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B598" s="16"/>
+      <c r="B598" s="15"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B599" s="16"/>
+      <c r="B599" s="15"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B600" s="16"/>
+      <c r="B600" s="15"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B601" s="16"/>
+      <c r="B601" s="15"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B602" s="16"/>
+      <c r="B602" s="15"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B603" s="16"/>
+      <c r="B603" s="15"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B604" s="16"/>
+      <c r="B604" s="15"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B605" s="16"/>
+      <c r="B605" s="15"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B606" s="16"/>
+      <c r="B606" s="15"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B607" s="16"/>
+      <c r="B607" s="15"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B608" s="16"/>
+      <c r="B608" s="15"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B609" s="16"/>
+      <c r="B609" s="15"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B610" s="16"/>
+      <c r="B610" s="15"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B611" s="16"/>
+      <c r="B611" s="15"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B612" s="16"/>
+      <c r="B612" s="15"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B613" s="16"/>
+      <c r="B613" s="15"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B614" s="16"/>
+      <c r="B614" s="15"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B615" s="16"/>
+      <c r="B615" s="15"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B616" s="16"/>
+      <c r="B616" s="15"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B617" s="16"/>
+      <c r="B617" s="15"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B618" s="16"/>
+      <c r="B618" s="15"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B619" s="16"/>
+      <c r="B619" s="15"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B620" s="16"/>
+      <c r="B620" s="15"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B621" s="16"/>
+      <c r="B621" s="15"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B622" s="16"/>
+      <c r="B622" s="15"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B623" s="16"/>
+      <c r="B623" s="15"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B624" s="16"/>
+      <c r="B624" s="15"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B625" s="16"/>
+      <c r="B625" s="15"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B626" s="16"/>
+      <c r="B626" s="15"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B627" s="16"/>
+      <c r="B627" s="15"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B628" s="16"/>
+      <c r="B628" s="15"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B629" s="16"/>
+      <c r="B629" s="15"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B630" s="16"/>
+      <c r="B630" s="15"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B631" s="16"/>
+      <c r="B631" s="15"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B632" s="16"/>
+      <c r="B632" s="15"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B633" s="16"/>
+      <c r="B633" s="15"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B634" s="16"/>
+      <c r="B634" s="15"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B635" s="16"/>
+      <c r="B635" s="15"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B636" s="16"/>
+      <c r="B636" s="15"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B637" s="16"/>
+      <c r="B637" s="15"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B638" s="16"/>
+      <c r="B638" s="15"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B639" s="16"/>
+      <c r="B639" s="15"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B640" s="16"/>
+      <c r="B640" s="15"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B641" s="16"/>
+      <c r="B641" s="15"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B642" s="16"/>
+      <c r="B642" s="15"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B643" s="16"/>
+      <c r="B643" s="15"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B644" s="16"/>
+      <c r="B644" s="15"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B645" s="16"/>
+      <c r="B645" s="15"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B646" s="16"/>
+      <c r="B646" s="15"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B647" s="16"/>
+      <c r="B647" s="15"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B648" s="16"/>
+      <c r="B648" s="15"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B649" s="16"/>
+      <c r="B649" s="15"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B650" s="16"/>
+      <c r="B650" s="15"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B651" s="16"/>
+      <c r="B651" s="15"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B652" s="16"/>
+      <c r="B652" s="15"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B653" s="16"/>
+      <c r="B653" s="15"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B654" s="16"/>
+      <c r="B654" s="15"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B655" s="16"/>
+      <c r="B655" s="15"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B656" s="16"/>
+      <c r="B656" s="15"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B657" s="16"/>
+      <c r="B657" s="15"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B658" s="16"/>
+      <c r="B658" s="15"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B659" s="16"/>
+      <c r="B659" s="15"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B660" s="16"/>
+      <c r="B660" s="15"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B661" s="16"/>
+      <c r="B661" s="15"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B662" s="16"/>
+      <c r="B662" s="15"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B663" s="16"/>
+      <c r="B663" s="15"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B664" s="16"/>
+      <c r="B664" s="15"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B665" s="16"/>
+      <c r="B665" s="15"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B666" s="16"/>
+      <c r="B666" s="15"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B667" s="16"/>
+      <c r="B667" s="15"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B668" s="16"/>
+      <c r="B668" s="15"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B669" s="16"/>
+      <c r="B669" s="15"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B670" s="16"/>
+      <c r="B670" s="15"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B671" s="16"/>
+      <c r="B671" s="15"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B672" s="16"/>
+      <c r="B672" s="15"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B673" s="16"/>
+      <c r="B673" s="15"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B674" s="16"/>
+      <c r="B674" s="15"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B675" s="16"/>
+      <c r="B675" s="15"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B676" s="16"/>
+      <c r="B676" s="15"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B677" s="16"/>
+      <c r="B677" s="15"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B678" s="16"/>
+      <c r="B678" s="15"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B679" s="16"/>
+      <c r="B679" s="15"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B680" s="16"/>
+      <c r="B680" s="15"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B681" s="16"/>
+      <c r="B681" s="15"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B682" s="16"/>
+      <c r="B682" s="15"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B683" s="16"/>
+      <c r="B683" s="15"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B684" s="16"/>
+      <c r="B684" s="15"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B685" s="16"/>
+      <c r="B685" s="15"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B686" s="16"/>
+      <c r="B686" s="15"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B687" s="16"/>
+      <c r="B687" s="15"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B688" s="16"/>
+      <c r="B688" s="15"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B689" s="16"/>
+      <c r="B689" s="15"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B690" s="16"/>
+      <c r="B690" s="15"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B691" s="16"/>
+      <c r="B691" s="15"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B692" s="16"/>
+      <c r="B692" s="15"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B693" s="16"/>
+      <c r="B693" s="15"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B694" s="16"/>
+      <c r="B694" s="15"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B695" s="16"/>
+      <c r="B695" s="15"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B696" s="16"/>
+      <c r="B696" s="15"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B697" s="16"/>
+      <c r="B697" s="15"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B698" s="16"/>
+      <c r="B698" s="15"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B699" s="16"/>
+      <c r="B699" s="15"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B700" s="16"/>
+      <c r="B700" s="15"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B701" s="16"/>
+      <c r="B701" s="15"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B702" s="16"/>
+      <c r="B702" s="15"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B703" s="16"/>
+      <c r="B703" s="15"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B704" s="16"/>
+      <c r="B704" s="15"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B705" s="16"/>
+      <c r="B705" s="15"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B706" s="16"/>
+      <c r="B706" s="15"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B707" s="16"/>
+      <c r="B707" s="15"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B708" s="16"/>
+      <c r="B708" s="15"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B709" s="16"/>
+      <c r="B709" s="15"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B710" s="16"/>
+      <c r="B710" s="15"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B711" s="16"/>
+      <c r="B711" s="15"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="16"/>
+      <c r="B712" s="15"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B713" s="16"/>
+      <c r="B713" s="15"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B714" s="16"/>
+      <c r="B714" s="15"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B715" s="16"/>
+      <c r="B715" s="15"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B716" s="16"/>
+      <c r="B716" s="15"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B717" s="16"/>
+      <c r="B717" s="15"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B718" s="16"/>
+      <c r="B718" s="15"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B719" s="16"/>
+      <c r="B719" s="15"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B720" s="16"/>
+      <c r="B720" s="15"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B721" s="16"/>
+      <c r="B721" s="15"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B722" s="16"/>
+      <c r="B722" s="15"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B723" s="16"/>
+      <c r="B723" s="15"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B724" s="16"/>
+      <c r="B724" s="15"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B725" s="16"/>
+      <c r="B725" s="15"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B726" s="16"/>
+      <c r="B726" s="15"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B727" s="16"/>
+      <c r="B727" s="15"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B728" s="16"/>
+      <c r="B728" s="15"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B729" s="16"/>
+      <c r="B729" s="15"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B730" s="16"/>
+      <c r="B730" s="15"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B731" s="16"/>
+      <c r="B731" s="15"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B732" s="16"/>
+      <c r="B732" s="15"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B733" s="16"/>
+      <c r="B733" s="15"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B734" s="16"/>
+      <c r="B734" s="15"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B735" s="16"/>
+      <c r="B735" s="15"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B736" s="16"/>
+      <c r="B736" s="15"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B737" s="16"/>
+      <c r="B737" s="15"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B738" s="16"/>
+      <c r="B738" s="15"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B739" s="16"/>
+      <c r="B739" s="15"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B740" s="16"/>
+      <c r="B740" s="15"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B741" s="16"/>
+      <c r="B741" s="15"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B742" s="16"/>
+      <c r="B742" s="15"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B743" s="16"/>
+      <c r="B743" s="15"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B744" s="16"/>
+      <c r="B744" s="15"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B745" s="16"/>
+      <c r="B745" s="15"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B746" s="16"/>
+      <c r="B746" s="15"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B747" s="16"/>
+      <c r="B747" s="15"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B748" s="16"/>
+      <c r="B748" s="15"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B749" s="16"/>
+      <c r="B749" s="15"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B750" s="16"/>
+      <c r="B750" s="15"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B751" s="16"/>
+      <c r="B751" s="15"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B752" s="16"/>
+      <c r="B752" s="15"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B753" s="16"/>
+      <c r="B753" s="15"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B754" s="16"/>
+      <c r="B754" s="15"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B755" s="16"/>
+      <c r="B755" s="15"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B756" s="16"/>
+      <c r="B756" s="15"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B757" s="16"/>
+      <c r="B757" s="15"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B758" s="16"/>
+      <c r="B758" s="15"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B759" s="16"/>
+      <c r="B759" s="15"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B760" s="16"/>
+      <c r="B760" s="15"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B761" s="16"/>
+      <c r="B761" s="15"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B762" s="16"/>
+      <c r="B762" s="15"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B763" s="16"/>
+      <c r="B763" s="15"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B764" s="16"/>
+      <c r="B764" s="15"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B765" s="16"/>
+      <c r="B765" s="15"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B766" s="16"/>
+      <c r="B766" s="15"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B767" s="16"/>
+      <c r="B767" s="15"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B768" s="16"/>
+      <c r="B768" s="15"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B769" s="16"/>
+      <c r="B769" s="15"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B770" s="16"/>
+      <c r="B770" s="15"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B771" s="16"/>
+      <c r="B771" s="15"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B772" s="16"/>
+      <c r="B772" s="15"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B773" s="16"/>
+      <c r="B773" s="15"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B774" s="16"/>
+      <c r="B774" s="15"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B775" s="16"/>
+      <c r="B775" s="15"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B776" s="16"/>
+      <c r="B776" s="15"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B777" s="16"/>
+      <c r="B777" s="15"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B778" s="16"/>
+      <c r="B778" s="15"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B779" s="16"/>
+      <c r="B779" s="15"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B780" s="16"/>
+      <c r="B780" s="15"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B781" s="16"/>
+      <c r="B781" s="15"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B782" s="16"/>
+      <c r="B782" s="15"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B783" s="16"/>
+      <c r="B783" s="15"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B784" s="16"/>
+      <c r="B784" s="15"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B785" s="16"/>
+      <c r="B785" s="15"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B786" s="16"/>
+      <c r="B786" s="15"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B787" s="16"/>
+      <c r="B787" s="15"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B788" s="16"/>
+      <c r="B788" s="15"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B789" s="16"/>
+      <c r="B789" s="15"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B790" s="16"/>
+      <c r="B790" s="15"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B791" s="16"/>
+      <c r="B791" s="15"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B792" s="16"/>
+      <c r="B792" s="15"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B793" s="16"/>
+      <c r="B793" s="15"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B794" s="16"/>
+      <c r="B794" s="15"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B795" s="16"/>
+      <c r="B795" s="15"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B796" s="16"/>
+      <c r="B796" s="15"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B797" s="16"/>
+      <c r="B797" s="15"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B798" s="16"/>
+      <c r="B798" s="15"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B799" s="16"/>
+      <c r="B799" s="15"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B800" s="16"/>
+      <c r="B800" s="15"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B801" s="16"/>
+      <c r="B801" s="15"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B802" s="16"/>
+      <c r="B802" s="15"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B803" s="16"/>
+      <c r="B803" s="15"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B804" s="16"/>
+      <c r="B804" s="15"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B805" s="16"/>
+      <c r="B805" s="15"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B806" s="16"/>
+      <c r="B806" s="15"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B807" s="16"/>
+      <c r="B807" s="15"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B808" s="16"/>
+      <c r="B808" s="15"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B809" s="16"/>
+      <c r="B809" s="15"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B810" s="16"/>
+      <c r="B810" s="15"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B811" s="16"/>
+      <c r="B811" s="15"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B812" s="16"/>
+      <c r="B812" s="15"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B813" s="16"/>
+      <c r="B813" s="15"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B814" s="16"/>
+      <c r="B814" s="15"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B815" s="16"/>
+      <c r="B815" s="15"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B816" s="16"/>
+      <c r="B816" s="15"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B817" s="16"/>
+      <c r="B817" s="15"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B818" s="16"/>
+      <c r="B818" s="15"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B819" s="16"/>
+      <c r="B819" s="15"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B820" s="16"/>
+      <c r="B820" s="15"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B821" s="16"/>
+      <c r="B821" s="15"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B822" s="16"/>
+      <c r="B822" s="15"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B823" s="16"/>
+      <c r="B823" s="15"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B824" s="16"/>
+      <c r="B824" s="15"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B825" s="16"/>
+      <c r="B825" s="15"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B826" s="16"/>
+      <c r="B826" s="15"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B827" s="16"/>
+      <c r="B827" s="15"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B828" s="16"/>
+      <c r="B828" s="15"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B829" s="16"/>
+      <c r="B829" s="15"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B830" s="16"/>
+      <c r="B830" s="15"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B831" s="16"/>
+      <c r="B831" s="15"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B832" s="16"/>
+      <c r="B832" s="15"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B833" s="16"/>
+      <c r="B833" s="15"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B834" s="16"/>
+      <c r="B834" s="15"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B835" s="16"/>
+      <c r="B835" s="15"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B836" s="16"/>
+      <c r="B836" s="15"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B837" s="16"/>
+      <c r="B837" s="15"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B838" s="16"/>
+      <c r="B838" s="15"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B839" s="16"/>
+      <c r="B839" s="15"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B840" s="16"/>
+      <c r="B840" s="15"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B841" s="16"/>
+      <c r="B841" s="15"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B842" s="16"/>
+      <c r="B842" s="15"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B843" s="16"/>
+      <c r="B843" s="15"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B844" s="16"/>
+      <c r="B844" s="15"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B845" s="16"/>
+      <c r="B845" s="15"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B846" s="16"/>
+      <c r="B846" s="15"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B847" s="16"/>
+      <c r="B847" s="15"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B848" s="16"/>
+      <c r="B848" s="15"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B849" s="16"/>
+      <c r="B849" s="15"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B850" s="16"/>
+      <c r="B850" s="15"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B851" s="16"/>
+      <c r="B851" s="15"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B852" s="16"/>
+      <c r="B852" s="15"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B853" s="16"/>
+      <c r="B853" s="15"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B854" s="16"/>
+      <c r="B854" s="15"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B855" s="16"/>
+      <c r="B855" s="15"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B856" s="16"/>
+      <c r="B856" s="15"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B857" s="16"/>
+      <c r="B857" s="15"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B858" s="16"/>
+      <c r="B858" s="15"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B859" s="16"/>
+      <c r="B859" s="15"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B860" s="16"/>
+      <c r="B860" s="15"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B861" s="16"/>
+      <c r="B861" s="15"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B862" s="16"/>
+      <c r="B862" s="15"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B863" s="16"/>
+      <c r="B863" s="15"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B864" s="16"/>
+      <c r="B864" s="15"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B865" s="16"/>
+      <c r="B865" s="15"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B866" s="16"/>
+      <c r="B866" s="15"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B867" s="16"/>
+      <c r="B867" s="15"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B868" s="16"/>
+      <c r="B868" s="15"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B869" s="16"/>
+      <c r="B869" s="15"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B870" s="16"/>
+      <c r="B870" s="15"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B871" s="16"/>
+      <c r="B871" s="15"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B872" s="16"/>
+      <c r="B872" s="15"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B873" s="16"/>
+      <c r="B873" s="15"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B874" s="16"/>
+      <c r="B874" s="15"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B875" s="16"/>
+      <c r="B875" s="15"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B876" s="16"/>
+      <c r="B876" s="15"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B877" s="16"/>
+      <c r="B877" s="15"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B878" s="16"/>
+      <c r="B878" s="15"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B879" s="16"/>
+      <c r="B879" s="15"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B880" s="16"/>
+      <c r="B880" s="15"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B881" s="16"/>
+      <c r="B881" s="15"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B882" s="16"/>
+      <c r="B882" s="15"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B883" s="16"/>
+      <c r="B883" s="15"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B884" s="16"/>
+      <c r="B884" s="15"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B885" s="16"/>
+      <c r="B885" s="15"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B886" s="16"/>
+      <c r="B886" s="15"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="16"/>
+      <c r="B887" s="15"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B888" s="16"/>
+      <c r="B888" s="15"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B889" s="16"/>
+      <c r="B889" s="15"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B890" s="16"/>
+      <c r="B890" s="15"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B891" s="16"/>
+      <c r="B891" s="15"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B892" s="16"/>
+      <c r="B892" s="15"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B893" s="16"/>
+      <c r="B893" s="15"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B894" s="16"/>
+      <c r="B894" s="15"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B895" s="16"/>
+      <c r="B895" s="15"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B896" s="16"/>
+      <c r="B896" s="15"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B897" s="16"/>
+      <c r="B897" s="15"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B898" s="16"/>
+      <c r="B898" s="15"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B899" s="16"/>
+      <c r="B899" s="15"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B900" s="16"/>
+      <c r="B900" s="15"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B901" s="16"/>
+      <c r="B901" s="15"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B902" s="16"/>
+      <c r="B902" s="15"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B903" s="16"/>
+      <c r="B903" s="15"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B904" s="16"/>
+      <c r="B904" s="15"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B905" s="16"/>
+      <c r="B905" s="15"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B906" s="16"/>
+      <c r="B906" s="15"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B907" s="16"/>
+      <c r="B907" s="15"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B908" s="16"/>
+      <c r="B908" s="15"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B909" s="16"/>
+      <c r="B909" s="15"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B910" s="16"/>
+      <c r="B910" s="15"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B911" s="16"/>
+      <c r="B911" s="15"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B912" s="16"/>
+      <c r="B912" s="15"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B913" s="16"/>
+      <c r="B913" s="15"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B914" s="16"/>
+      <c r="B914" s="15"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B915" s="16"/>
+      <c r="B915" s="15"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B916" s="16"/>
+      <c r="B916" s="15"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B917" s="16"/>
+      <c r="B917" s="15"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B918" s="16"/>
+      <c r="B918" s="15"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B919" s="16"/>
+      <c r="B919" s="15"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B920" s="16"/>
+      <c r="B920" s="15"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B921" s="16"/>
+      <c r="B921" s="15"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B922" s="16"/>
+      <c r="B922" s="15"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B923" s="16"/>
+      <c r="B923" s="15"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B924" s="16"/>
+      <c r="B924" s="15"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B925" s="16"/>
+      <c r="B925" s="15"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B926" s="16"/>
+      <c r="B926" s="15"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B927" s="16"/>
+      <c r="B927" s="15"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B928" s="16"/>
+      <c r="B928" s="15"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B929" s="16"/>
+      <c r="B929" s="15"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B930" s="16"/>
+      <c r="B930" s="15"/>
     </row>
     <row r="931" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B931" s="16"/>
+      <c r="B931" s="15"/>
     </row>
     <row r="932" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B932" s="16"/>
+      <c r="B932" s="15"/>
     </row>
     <row r="933" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B933" s="16"/>
+      <c r="B933" s="15"/>
     </row>
     <row r="934" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B934" s="16"/>
+      <c r="B934" s="15"/>
     </row>
     <row r="935" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B935" s="16"/>
+      <c r="B935" s="15"/>
     </row>
     <row r="936" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B936" s="16"/>
+      <c r="B936" s="15"/>
     </row>
     <row r="937" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B937" s="16"/>
+      <c r="B937" s="15"/>
     </row>
     <row r="938" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B938" s="16"/>
+      <c r="B938" s="15"/>
     </row>
     <row r="939" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B939" s="16"/>
+      <c r="B939" s="15"/>
     </row>
     <row r="940" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B940" s="16"/>
+      <c r="B940" s="15"/>
     </row>
     <row r="941" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B941" s="16"/>
+      <c r="B941" s="15"/>
     </row>
     <row r="942" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B942" s="16"/>
+      <c r="B942" s="15"/>
     </row>
     <row r="943" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B943" s="16"/>
+      <c r="B943" s="15"/>
     </row>
     <row r="944" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B944" s="16"/>
+      <c r="B944" s="15"/>
     </row>
     <row r="945" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B945" s="16"/>
+      <c r="B945" s="15"/>
     </row>
     <row r="946" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B946" s="16"/>
+      <c r="B946" s="15"/>
     </row>
     <row r="947" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B947" s="16"/>
+      <c r="B947" s="15"/>
     </row>
     <row r="948" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B948" s="16"/>
+      <c r="B948" s="15"/>
     </row>
     <row r="949" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B949" s="16"/>
+      <c r="B949" s="15"/>
     </row>
     <row r="950" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B950" s="16"/>
+      <c r="B950" s="15"/>
     </row>
     <row r="951" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B951" s="16"/>
+      <c r="B951" s="15"/>
     </row>
     <row r="952" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B952" s="16"/>
+      <c r="B952" s="15"/>
     </row>
     <row r="953" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B953" s="16"/>
+      <c r="B953" s="15"/>
     </row>
     <row r="954" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B954" s="16"/>
+      <c r="B954" s="15"/>
     </row>
     <row r="955" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B955" s="16"/>
+      <c r="B955" s="15"/>
     </row>
     <row r="956" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B956" s="16"/>
+      <c r="B956" s="15"/>
     </row>
     <row r="957" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B957" s="16"/>
+      <c r="B957" s="15"/>
     </row>
     <row r="958" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B958" s="16"/>
+      <c r="B958" s="15"/>
     </row>
     <row r="959" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B959" s="16"/>
+      <c r="B959" s="15"/>
     </row>
     <row r="960" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B960" s="16"/>
+      <c r="B960" s="15"/>
     </row>
     <row r="961" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B961" s="16"/>
+      <c r="B961" s="15"/>
     </row>
     <row r="962" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B962" s="16"/>
+      <c r="B962" s="15"/>
     </row>
     <row r="963" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B963" s="16"/>
+      <c r="B963" s="15"/>
     </row>
     <row r="964" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B964" s="16"/>
+      <c r="B964" s="15"/>
     </row>
     <row r="965" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B965" s="16"/>
+      <c r="B965" s="15"/>
     </row>
     <row r="966" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B966" s="16"/>
+      <c r="B966" s="15"/>
     </row>
     <row r="967" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B967" s="16"/>
+      <c r="B967" s="15"/>
     </row>
     <row r="968" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B968" s="16"/>
+      <c r="B968" s="15"/>
     </row>
     <row r="969" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B969" s="16"/>
+      <c r="B969" s="15"/>
     </row>
     <row r="970" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B970" s="16"/>
+      <c r="B970" s="15"/>
     </row>
     <row r="971" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B971" s="16"/>
+      <c r="B971" s="15"/>
     </row>
     <row r="972" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B972" s="16"/>
+      <c r="B972" s="15"/>
     </row>
     <row r="973" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B973" s="16"/>
+      <c r="B973" s="15"/>
     </row>
     <row r="974" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B974" s="16"/>
+      <c r="B974" s="15"/>
     </row>
     <row r="975" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B975" s="16"/>
+      <c r="B975" s="15"/>
     </row>
     <row r="976" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B976" s="16"/>
+      <c r="B976" s="15"/>
     </row>
     <row r="977" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B977" s="16"/>
+      <c r="B977" s="15"/>
     </row>
     <row r="978" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B978" s="16"/>
+      <c r="B978" s="15"/>
     </row>
     <row r="979" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B979" s="16"/>
+      <c r="B979" s="15"/>
     </row>
     <row r="980" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B980" s="16"/>
+      <c r="B980" s="15"/>
     </row>
     <row r="981" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B981" s="16"/>
+      <c r="B981" s="15"/>
     </row>
     <row r="982" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B982" s="16"/>
+      <c r="B982" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:L27">
@@ -8742,7 +8820,7 @@
   <dimension ref="A1:E973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8752,19 +8830,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="4">
         <v>7.25</v>
@@ -8775,7 +8853,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4">
         <v>7.23</v>
@@ -8786,7 +8864,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4">
         <v>6.97</v>
@@ -8796,2953 +8874,2953 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
+      <c r="B25" s="15"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="16"/>
+      <c r="B40" s="15"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="16"/>
+      <c r="B44" s="15"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="16"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="16"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="16"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="16"/>
+      <c r="B48" s="15"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="16"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="16"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="16"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="16"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="16"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="16"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="16"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="16"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="16"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="16"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="16"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="16"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="16"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="16"/>
+      <c r="B63" s="15"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="16"/>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="16"/>
+      <c r="B65" s="15"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="16"/>
+      <c r="B66" s="15"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="16"/>
+      <c r="B67" s="15"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="16"/>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="16"/>
+      <c r="B69" s="15"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="16"/>
+      <c r="B70" s="15"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="16"/>
+      <c r="B71" s="15"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="16"/>
+      <c r="B72" s="15"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="16"/>
+      <c r="B73" s="15"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="16"/>
+      <c r="B74" s="15"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="16"/>
+      <c r="B75" s="15"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="16"/>
+      <c r="B76" s="15"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="16"/>
+      <c r="B77" s="15"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="16"/>
+      <c r="B78" s="15"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="16"/>
+      <c r="B79" s="15"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="16"/>
+      <c r="B80" s="15"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="16"/>
+      <c r="B81" s="15"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="16"/>
+      <c r="B83" s="15"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="16"/>
+      <c r="B84" s="15"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="16"/>
+      <c r="B85" s="15"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="16"/>
+      <c r="B86" s="15"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="16"/>
+      <c r="B87" s="15"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="16"/>
+      <c r="B88" s="15"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="16"/>
+      <c r="B89" s="15"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="16"/>
+      <c r="B90" s="15"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="16"/>
+      <c r="B91" s="15"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="16"/>
+      <c r="B92" s="15"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="16"/>
+      <c r="B93" s="15"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="16"/>
+      <c r="B94" s="15"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="16"/>
+      <c r="B95" s="15"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="16"/>
+      <c r="B96" s="15"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="16"/>
+      <c r="B97" s="15"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="16"/>
+      <c r="B98" s="15"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="16"/>
+      <c r="B99" s="15"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="16"/>
+      <c r="B100" s="15"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="16"/>
+      <c r="B101" s="15"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="16"/>
+      <c r="B102" s="15"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="16"/>
+      <c r="B103" s="15"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="16"/>
+      <c r="B104" s="15"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="16"/>
+      <c r="B105" s="15"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="16"/>
+      <c r="B106" s="15"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="16"/>
+      <c r="B107" s="15"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="16"/>
+      <c r="B108" s="15"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="16"/>
+      <c r="B109" s="15"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="16"/>
+      <c r="B110" s="15"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="16"/>
+      <c r="B111" s="15"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="16"/>
+      <c r="B112" s="15"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="16"/>
+      <c r="B113" s="15"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="16"/>
+      <c r="B114" s="15"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="16"/>
+      <c r="B115" s="15"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="16"/>
+      <c r="B116" s="15"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="16"/>
+      <c r="B117" s="15"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="16"/>
+      <c r="B118" s="15"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="16"/>
+      <c r="B119" s="15"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="16"/>
+      <c r="B120" s="15"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="16"/>
+      <c r="B121" s="15"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="16"/>
+      <c r="B122" s="15"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="16"/>
+      <c r="B123" s="15"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="16"/>
+      <c r="B124" s="15"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="16"/>
+      <c r="B125" s="15"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="16"/>
+      <c r="B126" s="15"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="16"/>
+      <c r="B127" s="15"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="16"/>
+      <c r="B128" s="15"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="16"/>
+      <c r="B129" s="15"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="16"/>
+      <c r="B130" s="15"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="16"/>
+      <c r="B131" s="15"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="16"/>
+      <c r="B132" s="15"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="16"/>
+      <c r="B133" s="15"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="16"/>
+      <c r="B134" s="15"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="16"/>
+      <c r="B135" s="15"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="16"/>
+      <c r="B136" s="15"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="16"/>
+      <c r="B137" s="15"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="16"/>
+      <c r="B138" s="15"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="16"/>
+      <c r="B139" s="15"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="16"/>
+      <c r="B140" s="15"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="16"/>
+      <c r="B141" s="15"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="16"/>
+      <c r="B142" s="15"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="16"/>
+      <c r="B143" s="15"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="16"/>
+      <c r="B144" s="15"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="16"/>
+      <c r="B145" s="15"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="16"/>
+      <c r="B146" s="15"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="16"/>
+      <c r="B147" s="15"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="16"/>
+      <c r="B148" s="15"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="16"/>
+      <c r="B150" s="15"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="16"/>
+      <c r="B151" s="15"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="16"/>
+      <c r="B152" s="15"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="16"/>
+      <c r="B153" s="15"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="16"/>
+      <c r="B154" s="15"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="16"/>
+      <c r="B155" s="15"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="16"/>
+      <c r="B156" s="15"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="16"/>
+      <c r="B157" s="15"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="16"/>
+      <c r="B158" s="15"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="16"/>
+      <c r="B159" s="15"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="16"/>
+      <c r="B160" s="15"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="16"/>
+      <c r="B161" s="15"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="16"/>
+      <c r="B162" s="15"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="16"/>
+      <c r="B163" s="15"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="16"/>
+      <c r="B164" s="15"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="16"/>
+      <c r="B165" s="15"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="16"/>
+      <c r="B166" s="15"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="16"/>
+      <c r="B167" s="15"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="16"/>
+      <c r="B168" s="15"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="16"/>
+      <c r="B169" s="15"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="16"/>
+      <c r="B170" s="15"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="16"/>
+      <c r="B171" s="15"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="16"/>
+      <c r="B172" s="15"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="16"/>
+      <c r="B173" s="15"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="16"/>
+      <c r="B174" s="15"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="16"/>
+      <c r="B175" s="15"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="16"/>
+      <c r="B176" s="15"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="16"/>
+      <c r="B177" s="15"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="16"/>
+      <c r="B178" s="15"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="16"/>
+      <c r="B179" s="15"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="16"/>
+      <c r="B180" s="15"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="16"/>
+      <c r="B181" s="15"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="16"/>
+      <c r="B182" s="15"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="16"/>
+      <c r="B183" s="15"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="16"/>
+      <c r="B184" s="15"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="16"/>
+      <c r="B185" s="15"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="16"/>
+      <c r="B186" s="15"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="16"/>
+      <c r="B187" s="15"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="16"/>
+      <c r="B188" s="15"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="16"/>
+      <c r="B189" s="15"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="16"/>
+      <c r="B190" s="15"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="16"/>
+      <c r="B191" s="15"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="16"/>
+      <c r="B192" s="15"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="16"/>
+      <c r="B193" s="15"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="16"/>
+      <c r="B194" s="15"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="16"/>
+      <c r="B195" s="15"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="16"/>
+      <c r="B196" s="15"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="16"/>
+      <c r="B197" s="15"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="16"/>
+      <c r="B198" s="15"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="16"/>
+      <c r="B199" s="15"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="16"/>
+      <c r="B200" s="15"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="16"/>
+      <c r="B201" s="15"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="16"/>
+      <c r="B202" s="15"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="16"/>
+      <c r="B203" s="15"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="16"/>
+      <c r="B204" s="15"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="16"/>
+      <c r="B205" s="15"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="16"/>
+      <c r="B206" s="15"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="16"/>
+      <c r="B207" s="15"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="16"/>
+      <c r="B208" s="15"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="16"/>
+      <c r="B209" s="15"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="16"/>
+      <c r="B210" s="15"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="16"/>
+      <c r="B211" s="15"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="16"/>
+      <c r="B212" s="15"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="16"/>
+      <c r="B213" s="15"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="16"/>
+      <c r="B214" s="15"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="16"/>
+      <c r="B215" s="15"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="16"/>
+      <c r="B216" s="15"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="16"/>
+      <c r="B217" s="15"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="16"/>
+      <c r="B218" s="15"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="16"/>
+      <c r="B219" s="15"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="16"/>
+      <c r="B220" s="15"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="16"/>
+      <c r="B221" s="15"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="16"/>
+      <c r="B222" s="15"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="16"/>
+      <c r="B223" s="15"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="16"/>
+      <c r="B224" s="15"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="16"/>
+      <c r="B225" s="15"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="16"/>
+      <c r="B226" s="15"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="16"/>
+      <c r="B227" s="15"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="16"/>
+      <c r="B228" s="15"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="16"/>
+      <c r="B229" s="15"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="16"/>
+      <c r="B230" s="15"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="16"/>
+      <c r="B231" s="15"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="16"/>
+      <c r="B232" s="15"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="16"/>
+      <c r="B233" s="15"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="16"/>
+      <c r="B234" s="15"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="16"/>
+      <c r="B235" s="15"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="16"/>
+      <c r="B236" s="15"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="16"/>
+      <c r="B237" s="15"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="16"/>
+      <c r="B238" s="15"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="16"/>
+      <c r="B239" s="15"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="16"/>
+      <c r="B240" s="15"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="16"/>
+      <c r="B241" s="15"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="16"/>
+      <c r="B242" s="15"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="16"/>
+      <c r="B243" s="15"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="16"/>
+      <c r="B244" s="15"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="16"/>
+      <c r="B245" s="15"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="16"/>
+      <c r="B246" s="15"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="16"/>
+      <c r="B247" s="15"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="16"/>
+      <c r="B248" s="15"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B249" s="16"/>
+      <c r="B249" s="15"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="16"/>
+      <c r="B250" s="15"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B252" s="16"/>
+      <c r="B252" s="15"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="16"/>
+      <c r="B253" s="15"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="16"/>
+      <c r="B254" s="15"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B255" s="16"/>
+      <c r="B255" s="15"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="16"/>
+      <c r="B256" s="15"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B257" s="16"/>
+      <c r="B257" s="15"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B258" s="16"/>
+      <c r="B258" s="15"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B259" s="16"/>
+      <c r="B259" s="15"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="16"/>
+      <c r="B260" s="15"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="16"/>
+      <c r="B261" s="15"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B262" s="16"/>
+      <c r="B262" s="15"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B263" s="16"/>
+      <c r="B263" s="15"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B264" s="16"/>
+      <c r="B264" s="15"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="16"/>
+      <c r="B265" s="15"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="16"/>
+      <c r="B266" s="15"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="16"/>
+      <c r="B267" s="15"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B268" s="16"/>
+      <c r="B268" s="15"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B269" s="16"/>
+      <c r="B269" s="15"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="16"/>
+      <c r="B270" s="15"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="16"/>
+      <c r="B271" s="15"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="16"/>
+      <c r="B272" s="15"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="16"/>
+      <c r="B273" s="15"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="16"/>
+      <c r="B274" s="15"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="16"/>
+      <c r="B275" s="15"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="16"/>
+      <c r="B276" s="15"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="16"/>
+      <c r="B277" s="15"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="16"/>
+      <c r="B278" s="15"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="16"/>
+      <c r="B279" s="15"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="16"/>
+      <c r="B280" s="15"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="16"/>
+      <c r="B281" s="15"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="16"/>
+      <c r="B282" s="15"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="16"/>
+      <c r="B283" s="15"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="16"/>
+      <c r="B284" s="15"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="16"/>
+      <c r="B285" s="15"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="16"/>
+      <c r="B286" s="15"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="16"/>
+      <c r="B287" s="15"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="16"/>
+      <c r="B288" s="15"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="16"/>
+      <c r="B289" s="15"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="16"/>
+      <c r="B290" s="15"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="16"/>
+      <c r="B291" s="15"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="16"/>
+      <c r="B292" s="15"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="16"/>
+      <c r="B293" s="15"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="16"/>
+      <c r="B294" s="15"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="16"/>
+      <c r="B295" s="15"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="16"/>
+      <c r="B296" s="15"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="16"/>
+      <c r="B297" s="15"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="16"/>
+      <c r="B298" s="15"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="16"/>
+      <c r="B299" s="15"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="16"/>
+      <c r="B300" s="15"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="16"/>
+      <c r="B301" s="15"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="16"/>
+      <c r="B302" s="15"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="16"/>
+      <c r="B303" s="15"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="16"/>
+      <c r="B304" s="15"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="16"/>
+      <c r="B305" s="15"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="16"/>
+      <c r="B306" s="15"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="16"/>
+      <c r="B307" s="15"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="16"/>
+      <c r="B308" s="15"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="16"/>
+      <c r="B309" s="15"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="16"/>
+      <c r="B310" s="15"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="16"/>
+      <c r="B311" s="15"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="16"/>
+      <c r="B312" s="15"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B313" s="16"/>
+      <c r="B313" s="15"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="16"/>
+      <c r="B314" s="15"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="16"/>
+      <c r="B315" s="15"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="16"/>
+      <c r="B316" s="15"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="16"/>
+      <c r="B317" s="15"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B318" s="16"/>
+      <c r="B318" s="15"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B319" s="16"/>
+      <c r="B319" s="15"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B320" s="16"/>
+      <c r="B320" s="15"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B321" s="16"/>
+      <c r="B321" s="15"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B322" s="16"/>
+      <c r="B322" s="15"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B323" s="16"/>
+      <c r="B323" s="15"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B324" s="16"/>
+      <c r="B324" s="15"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B325" s="16"/>
+      <c r="B325" s="15"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B326" s="16"/>
+      <c r="B326" s="15"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B327" s="16"/>
+      <c r="B327" s="15"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B328" s="16"/>
+      <c r="B328" s="15"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B329" s="16"/>
+      <c r="B329" s="15"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B330" s="16"/>
+      <c r="B330" s="15"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B331" s="16"/>
+      <c r="B331" s="15"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B332" s="16"/>
+      <c r="B332" s="15"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B333" s="16"/>
+      <c r="B333" s="15"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="16"/>
+      <c r="B334" s="15"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="16"/>
+      <c r="B335" s="15"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="16"/>
+      <c r="B336" s="15"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B337" s="16"/>
+      <c r="B337" s="15"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B338" s="16"/>
+      <c r="B338" s="15"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B339" s="16"/>
+      <c r="B339" s="15"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B340" s="16"/>
+      <c r="B340" s="15"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B341" s="16"/>
+      <c r="B341" s="15"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B342" s="16"/>
+      <c r="B342" s="15"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B343" s="16"/>
+      <c r="B343" s="15"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B344" s="16"/>
+      <c r="B344" s="15"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B345" s="16"/>
+      <c r="B345" s="15"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B346" s="16"/>
+      <c r="B346" s="15"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B347" s="16"/>
+      <c r="B347" s="15"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B348" s="16"/>
+      <c r="B348" s="15"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B349" s="16"/>
+      <c r="B349" s="15"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B350" s="16"/>
+      <c r="B350" s="15"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B351" s="16"/>
+      <c r="B351" s="15"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="16"/>
+      <c r="B352" s="15"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="16"/>
+      <c r="B353" s="15"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B354" s="16"/>
+      <c r="B354" s="15"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B355" s="16"/>
+      <c r="B355" s="15"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B356" s="16"/>
+      <c r="B356" s="15"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B357" s="16"/>
+      <c r="B357" s="15"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B358" s="16"/>
+      <c r="B358" s="15"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B359" s="16"/>
+      <c r="B359" s="15"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B360" s="16"/>
+      <c r="B360" s="15"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B361" s="16"/>
+      <c r="B361" s="15"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B362" s="16"/>
+      <c r="B362" s="15"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B363" s="16"/>
+      <c r="B363" s="15"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B364" s="16"/>
+      <c r="B364" s="15"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B365" s="16"/>
+      <c r="B365" s="15"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B366" s="16"/>
+      <c r="B366" s="15"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B367" s="16"/>
+      <c r="B367" s="15"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B368" s="16"/>
+      <c r="B368" s="15"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B369" s="16"/>
+      <c r="B369" s="15"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B370" s="16"/>
+      <c r="B370" s="15"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B371" s="16"/>
+      <c r="B371" s="15"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B372" s="16"/>
+      <c r="B372" s="15"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B373" s="16"/>
+      <c r="B373" s="15"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B374" s="16"/>
+      <c r="B374" s="15"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B375" s="16"/>
+      <c r="B375" s="15"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B376" s="16"/>
+      <c r="B376" s="15"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B377" s="16"/>
+      <c r="B377" s="15"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B378" s="16"/>
+      <c r="B378" s="15"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B379" s="16"/>
+      <c r="B379" s="15"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B380" s="16"/>
+      <c r="B380" s="15"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="16"/>
+      <c r="B381" s="15"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="16"/>
+      <c r="B382" s="15"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B383" s="16"/>
+      <c r="B383" s="15"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B384" s="16"/>
+      <c r="B384" s="15"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B385" s="16"/>
+      <c r="B385" s="15"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B386" s="16"/>
+      <c r="B386" s="15"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B387" s="16"/>
+      <c r="B387" s="15"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B388" s="16"/>
+      <c r="B388" s="15"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="16"/>
+      <c r="B389" s="15"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="16"/>
+      <c r="B390" s="15"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="16"/>
+      <c r="B391" s="15"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="16"/>
+      <c r="B392" s="15"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="16"/>
+      <c r="B393" s="15"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="16"/>
+      <c r="B394" s="15"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="16"/>
+      <c r="B395" s="15"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="16"/>
+      <c r="B396" s="15"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="16"/>
+      <c r="B397" s="15"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="16"/>
+      <c r="B398" s="15"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="16"/>
+      <c r="B399" s="15"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="16"/>
+      <c r="B400" s="15"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="16"/>
+      <c r="B401" s="15"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="16"/>
+      <c r="B402" s="15"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="16"/>
+      <c r="B403" s="15"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="16"/>
+      <c r="B404" s="15"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="16"/>
+      <c r="B405" s="15"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="16"/>
+      <c r="B406" s="15"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="16"/>
+      <c r="B407" s="15"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="16"/>
+      <c r="B408" s="15"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="16"/>
+      <c r="B409" s="15"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="16"/>
+      <c r="B410" s="15"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="16"/>
+      <c r="B411" s="15"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="16"/>
+      <c r="B412" s="15"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="16"/>
+      <c r="B413" s="15"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="16"/>
+      <c r="B414" s="15"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="16"/>
+      <c r="B415" s="15"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="16"/>
+      <c r="B416" s="15"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="16"/>
+      <c r="B417" s="15"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="16"/>
+      <c r="B418" s="15"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="16"/>
+      <c r="B419" s="15"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="16"/>
+      <c r="B420" s="15"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="16"/>
+      <c r="B421" s="15"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="16"/>
+      <c r="B422" s="15"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="16"/>
+      <c r="B423" s="15"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="16"/>
+      <c r="B424" s="15"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="16"/>
+      <c r="B425" s="15"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="16"/>
+      <c r="B426" s="15"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="16"/>
+      <c r="B427" s="15"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="16"/>
+      <c r="B428" s="15"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="16"/>
+      <c r="B429" s="15"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="16"/>
+      <c r="B430" s="15"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="16"/>
+      <c r="B431" s="15"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="16"/>
+      <c r="B432" s="15"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="16"/>
+      <c r="B433" s="15"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="16"/>
+      <c r="B434" s="15"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="16"/>
+      <c r="B435" s="15"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="16"/>
+      <c r="B436" s="15"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="16"/>
+      <c r="B437" s="15"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="16"/>
+      <c r="B438" s="15"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="16"/>
+      <c r="B439" s="15"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="16"/>
+      <c r="B440" s="15"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="16"/>
+      <c r="B441" s="15"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B442" s="16"/>
+      <c r="B442" s="15"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B443" s="16"/>
+      <c r="B443" s="15"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="16"/>
+      <c r="B444" s="15"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="16"/>
+      <c r="B445" s="15"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="16"/>
+      <c r="B446" s="15"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="16"/>
+      <c r="B447" s="15"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="16"/>
+      <c r="B448" s="15"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="16"/>
+      <c r="B449" s="15"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="16"/>
+      <c r="B450" s="15"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="16"/>
+      <c r="B451" s="15"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="16"/>
+      <c r="B452" s="15"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B453" s="16"/>
+      <c r="B453" s="15"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="16"/>
+      <c r="B454" s="15"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B455" s="16"/>
+      <c r="B455" s="15"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B456" s="16"/>
+      <c r="B456" s="15"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B457" s="16"/>
+      <c r="B457" s="15"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B458" s="16"/>
+      <c r="B458" s="15"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B459" s="16"/>
+      <c r="B459" s="15"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B460" s="16"/>
+      <c r="B460" s="15"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B461" s="16"/>
+      <c r="B461" s="15"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B462" s="16"/>
+      <c r="B462" s="15"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B463" s="16"/>
+      <c r="B463" s="15"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B464" s="16"/>
+      <c r="B464" s="15"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B465" s="16"/>
+      <c r="B465" s="15"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B466" s="16"/>
+      <c r="B466" s="15"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B467" s="16"/>
+      <c r="B467" s="15"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B468" s="16"/>
+      <c r="B468" s="15"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B469" s="16"/>
+      <c r="B469" s="15"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B470" s="16"/>
+      <c r="B470" s="15"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B471" s="16"/>
+      <c r="B471" s="15"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B472" s="16"/>
+      <c r="B472" s="15"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="16"/>
+      <c r="B473" s="15"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B474" s="16"/>
+      <c r="B474" s="15"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="16"/>
+      <c r="B475" s="15"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B476" s="16"/>
+      <c r="B476" s="15"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B477" s="16"/>
+      <c r="B477" s="15"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B478" s="16"/>
+      <c r="B478" s="15"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B479" s="16"/>
+      <c r="B479" s="15"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B480" s="16"/>
+      <c r="B480" s="15"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B481" s="16"/>
+      <c r="B481" s="15"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B482" s="16"/>
+      <c r="B482" s="15"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B483" s="16"/>
+      <c r="B483" s="15"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B484" s="16"/>
+      <c r="B484" s="15"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B485" s="16"/>
+      <c r="B485" s="15"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B486" s="16"/>
+      <c r="B486" s="15"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B487" s="16"/>
+      <c r="B487" s="15"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B488" s="16"/>
+      <c r="B488" s="15"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B489" s="16"/>
+      <c r="B489" s="15"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B490" s="16"/>
+      <c r="B490" s="15"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B491" s="16"/>
+      <c r="B491" s="15"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B492" s="16"/>
+      <c r="B492" s="15"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B493" s="16"/>
+      <c r="B493" s="15"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B494" s="16"/>
+      <c r="B494" s="15"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B495" s="16"/>
+      <c r="B495" s="15"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B496" s="16"/>
+      <c r="B496" s="15"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B497" s="16"/>
+      <c r="B497" s="15"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B498" s="16"/>
+      <c r="B498" s="15"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B499" s="16"/>
+      <c r="B499" s="15"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B500" s="16"/>
+      <c r="B500" s="15"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B501" s="16"/>
+      <c r="B501" s="15"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B502" s="16"/>
+      <c r="B502" s="15"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B503" s="16"/>
+      <c r="B503" s="15"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B504" s="16"/>
+      <c r="B504" s="15"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B505" s="16"/>
+      <c r="B505" s="15"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B506" s="16"/>
+      <c r="B506" s="15"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B507" s="16"/>
+      <c r="B507" s="15"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B508" s="16"/>
+      <c r="B508" s="15"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B509" s="16"/>
+      <c r="B509" s="15"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B510" s="16"/>
+      <c r="B510" s="15"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B511" s="16"/>
+      <c r="B511" s="15"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B512" s="16"/>
+      <c r="B512" s="15"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B513" s="16"/>
+      <c r="B513" s="15"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B514" s="16"/>
+      <c r="B514" s="15"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B515" s="16"/>
+      <c r="B515" s="15"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B516" s="16"/>
+      <c r="B516" s="15"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B517" s="16"/>
+      <c r="B517" s="15"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B518" s="16"/>
+      <c r="B518" s="15"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B519" s="16"/>
+      <c r="B519" s="15"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B520" s="16"/>
+      <c r="B520" s="15"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B521" s="16"/>
+      <c r="B521" s="15"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B522" s="16"/>
+      <c r="B522" s="15"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B523" s="16"/>
+      <c r="B523" s="15"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B524" s="16"/>
+      <c r="B524" s="15"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B525" s="16"/>
+      <c r="B525" s="15"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B526" s="16"/>
+      <c r="B526" s="15"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B527" s="16"/>
+      <c r="B527" s="15"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B528" s="16"/>
+      <c r="B528" s="15"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B529" s="16"/>
+      <c r="B529" s="15"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B530" s="16"/>
+      <c r="B530" s="15"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B531" s="16"/>
+      <c r="B531" s="15"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B532" s="16"/>
+      <c r="B532" s="15"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B533" s="16"/>
+      <c r="B533" s="15"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B534" s="16"/>
+      <c r="B534" s="15"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B535" s="16"/>
+      <c r="B535" s="15"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B536" s="16"/>
+      <c r="B536" s="15"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B537" s="16"/>
+      <c r="B537" s="15"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B538" s="16"/>
+      <c r="B538" s="15"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B539" s="16"/>
+      <c r="B539" s="15"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B540" s="16"/>
+      <c r="B540" s="15"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B541" s="16"/>
+      <c r="B541" s="15"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B542" s="16"/>
+      <c r="B542" s="15"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B543" s="16"/>
+      <c r="B543" s="15"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B544" s="16"/>
+      <c r="B544" s="15"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B545" s="16"/>
+      <c r="B545" s="15"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B546" s="16"/>
+      <c r="B546" s="15"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B547" s="16"/>
+      <c r="B547" s="15"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B548" s="16"/>
+      <c r="B548" s="15"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B549" s="16"/>
+      <c r="B549" s="15"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B550" s="16"/>
+      <c r="B550" s="15"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B551" s="16"/>
+      <c r="B551" s="15"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B552" s="16"/>
+      <c r="B552" s="15"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B553" s="16"/>
+      <c r="B553" s="15"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B554" s="16"/>
+      <c r="B554" s="15"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B555" s="16"/>
+      <c r="B555" s="15"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B556" s="16"/>
+      <c r="B556" s="15"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B557" s="16"/>
+      <c r="B557" s="15"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B558" s="16"/>
+      <c r="B558" s="15"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B559" s="16"/>
+      <c r="B559" s="15"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B560" s="16"/>
+      <c r="B560" s="15"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B561" s="16"/>
+      <c r="B561" s="15"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B562" s="16"/>
+      <c r="B562" s="15"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B563" s="16"/>
+      <c r="B563" s="15"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B564" s="16"/>
+      <c r="B564" s="15"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B565" s="16"/>
+      <c r="B565" s="15"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B566" s="16"/>
+      <c r="B566" s="15"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B567" s="16"/>
+      <c r="B567" s="15"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B568" s="16"/>
+      <c r="B568" s="15"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B569" s="16"/>
+      <c r="B569" s="15"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B570" s="16"/>
+      <c r="B570" s="15"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B571" s="16"/>
+      <c r="B571" s="15"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B572" s="16"/>
+      <c r="B572" s="15"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B573" s="16"/>
+      <c r="B573" s="15"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B574" s="16"/>
+      <c r="B574" s="15"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B575" s="16"/>
+      <c r="B575" s="15"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B576" s="16"/>
+      <c r="B576" s="15"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B577" s="16"/>
+      <c r="B577" s="15"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B578" s="16"/>
+      <c r="B578" s="15"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B579" s="16"/>
+      <c r="B579" s="15"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B580" s="16"/>
+      <c r="B580" s="15"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B581" s="16"/>
+      <c r="B581" s="15"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B582" s="16"/>
+      <c r="B582" s="15"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B583" s="16"/>
+      <c r="B583" s="15"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B584" s="16"/>
+      <c r="B584" s="15"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B585" s="16"/>
+      <c r="B585" s="15"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B586" s="16"/>
+      <c r="B586" s="15"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B587" s="16"/>
+      <c r="B587" s="15"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B588" s="16"/>
+      <c r="B588" s="15"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B589" s="16"/>
+      <c r="B589" s="15"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B590" s="16"/>
+      <c r="B590" s="15"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B591" s="16"/>
+      <c r="B591" s="15"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B592" s="16"/>
+      <c r="B592" s="15"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B593" s="16"/>
+      <c r="B593" s="15"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B594" s="16"/>
+      <c r="B594" s="15"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B595" s="16"/>
+      <c r="B595" s="15"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B596" s="16"/>
+      <c r="B596" s="15"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B597" s="16"/>
+      <c r="B597" s="15"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B598" s="16"/>
+      <c r="B598" s="15"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B599" s="16"/>
+      <c r="B599" s="15"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B600" s="16"/>
+      <c r="B600" s="15"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B601" s="16"/>
+      <c r="B601" s="15"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B602" s="16"/>
+      <c r="B602" s="15"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B603" s="16"/>
+      <c r="B603" s="15"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B604" s="16"/>
+      <c r="B604" s="15"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B605" s="16"/>
+      <c r="B605" s="15"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B606" s="16"/>
+      <c r="B606" s="15"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B607" s="16"/>
+      <c r="B607" s="15"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B608" s="16"/>
+      <c r="B608" s="15"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B609" s="16"/>
+      <c r="B609" s="15"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B610" s="16"/>
+      <c r="B610" s="15"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B611" s="16"/>
+      <c r="B611" s="15"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B612" s="16"/>
+      <c r="B612" s="15"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B613" s="16"/>
+      <c r="B613" s="15"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B614" s="16"/>
+      <c r="B614" s="15"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B615" s="16"/>
+      <c r="B615" s="15"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B616" s="16"/>
+      <c r="B616" s="15"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B617" s="16"/>
+      <c r="B617" s="15"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B618" s="16"/>
+      <c r="B618" s="15"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B619" s="16"/>
+      <c r="B619" s="15"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B620" s="16"/>
+      <c r="B620" s="15"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B621" s="16"/>
+      <c r="B621" s="15"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B622" s="16"/>
+      <c r="B622" s="15"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B623" s="16"/>
+      <c r="B623" s="15"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B624" s="16"/>
+      <c r="B624" s="15"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B625" s="16"/>
+      <c r="B625" s="15"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B626" s="16"/>
+      <c r="B626" s="15"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B627" s="16"/>
+      <c r="B627" s="15"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B628" s="16"/>
+      <c r="B628" s="15"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B629" s="16"/>
+      <c r="B629" s="15"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B630" s="16"/>
+      <c r="B630" s="15"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B631" s="16"/>
+      <c r="B631" s="15"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B632" s="16"/>
+      <c r="B632" s="15"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B633" s="16"/>
+      <c r="B633" s="15"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B634" s="16"/>
+      <c r="B634" s="15"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B635" s="16"/>
+      <c r="B635" s="15"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B636" s="16"/>
+      <c r="B636" s="15"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B637" s="16"/>
+      <c r="B637" s="15"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B638" s="16"/>
+      <c r="B638" s="15"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B639" s="16"/>
+      <c r="B639" s="15"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B640" s="16"/>
+      <c r="B640" s="15"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B641" s="16"/>
+      <c r="B641" s="15"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B642" s="16"/>
+      <c r="B642" s="15"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B643" s="16"/>
+      <c r="B643" s="15"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B644" s="16"/>
+      <c r="B644" s="15"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B645" s="16"/>
+      <c r="B645" s="15"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B646" s="16"/>
+      <c r="B646" s="15"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B647" s="16"/>
+      <c r="B647" s="15"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B648" s="16"/>
+      <c r="B648" s="15"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B649" s="16"/>
+      <c r="B649" s="15"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B650" s="16"/>
+      <c r="B650" s="15"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B651" s="16"/>
+      <c r="B651" s="15"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B652" s="16"/>
+      <c r="B652" s="15"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B653" s="16"/>
+      <c r="B653" s="15"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B654" s="16"/>
+      <c r="B654" s="15"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B655" s="16"/>
+      <c r="B655" s="15"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B656" s="16"/>
+      <c r="B656" s="15"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B657" s="16"/>
+      <c r="B657" s="15"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B658" s="16"/>
+      <c r="B658" s="15"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B659" s="16"/>
+      <c r="B659" s="15"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B660" s="16"/>
+      <c r="B660" s="15"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B661" s="16"/>
+      <c r="B661" s="15"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B662" s="16"/>
+      <c r="B662" s="15"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B663" s="16"/>
+      <c r="B663" s="15"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B664" s="16"/>
+      <c r="B664" s="15"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B665" s="16"/>
+      <c r="B665" s="15"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B666" s="16"/>
+      <c r="B666" s="15"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B667" s="16"/>
+      <c r="B667" s="15"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B668" s="16"/>
+      <c r="B668" s="15"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B669" s="16"/>
+      <c r="B669" s="15"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B670" s="16"/>
+      <c r="B670" s="15"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B671" s="16"/>
+      <c r="B671" s="15"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B672" s="16"/>
+      <c r="B672" s="15"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B673" s="16"/>
+      <c r="B673" s="15"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B674" s="16"/>
+      <c r="B674" s="15"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B675" s="16"/>
+      <c r="B675" s="15"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B676" s="16"/>
+      <c r="B676" s="15"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B677" s="16"/>
+      <c r="B677" s="15"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B678" s="16"/>
+      <c r="B678" s="15"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B679" s="16"/>
+      <c r="B679" s="15"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B680" s="16"/>
+      <c r="B680" s="15"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B681" s="16"/>
+      <c r="B681" s="15"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B682" s="16"/>
+      <c r="B682" s="15"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B683" s="16"/>
+      <c r="B683" s="15"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B684" s="16"/>
+      <c r="B684" s="15"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B685" s="16"/>
+      <c r="B685" s="15"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B686" s="16"/>
+      <c r="B686" s="15"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B687" s="16"/>
+      <c r="B687" s="15"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B688" s="16"/>
+      <c r="B688" s="15"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B689" s="16"/>
+      <c r="B689" s="15"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B690" s="16"/>
+      <c r="B690" s="15"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B691" s="16"/>
+      <c r="B691" s="15"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B692" s="16"/>
+      <c r="B692" s="15"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B693" s="16"/>
+      <c r="B693" s="15"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B694" s="16"/>
+      <c r="B694" s="15"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B695" s="16"/>
+      <c r="B695" s="15"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B696" s="16"/>
+      <c r="B696" s="15"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B697" s="16"/>
+      <c r="B697" s="15"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B698" s="16"/>
+      <c r="B698" s="15"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B699" s="16"/>
+      <c r="B699" s="15"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B700" s="16"/>
+      <c r="B700" s="15"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B701" s="16"/>
+      <c r="B701" s="15"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B702" s="16"/>
+      <c r="B702" s="15"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B703" s="16"/>
+      <c r="B703" s="15"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B704" s="16"/>
+      <c r="B704" s="15"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B705" s="16"/>
+      <c r="B705" s="15"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B706" s="16"/>
+      <c r="B706" s="15"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B707" s="16"/>
+      <c r="B707" s="15"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B708" s="16"/>
+      <c r="B708" s="15"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B709" s="16"/>
+      <c r="B709" s="15"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B710" s="16"/>
+      <c r="B710" s="15"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B711" s="16"/>
+      <c r="B711" s="15"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B712" s="16"/>
+      <c r="B712" s="15"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B713" s="16"/>
+      <c r="B713" s="15"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B714" s="16"/>
+      <c r="B714" s="15"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B715" s="16"/>
+      <c r="B715" s="15"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B716" s="16"/>
+      <c r="B716" s="15"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B717" s="16"/>
+      <c r="B717" s="15"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B718" s="16"/>
+      <c r="B718" s="15"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B719" s="16"/>
+      <c r="B719" s="15"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B720" s="16"/>
+      <c r="B720" s="15"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B721" s="16"/>
+      <c r="B721" s="15"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B722" s="16"/>
+      <c r="B722" s="15"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B723" s="16"/>
+      <c r="B723" s="15"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B724" s="16"/>
+      <c r="B724" s="15"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B725" s="16"/>
+      <c r="B725" s="15"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B726" s="16"/>
+      <c r="B726" s="15"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B727" s="16"/>
+      <c r="B727" s="15"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B728" s="16"/>
+      <c r="B728" s="15"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B729" s="16"/>
+      <c r="B729" s="15"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B730" s="16"/>
+      <c r="B730" s="15"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B731" s="16"/>
+      <c r="B731" s="15"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B732" s="16"/>
+      <c r="B732" s="15"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B733" s="16"/>
+      <c r="B733" s="15"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B734" s="16"/>
+      <c r="B734" s="15"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B735" s="16"/>
+      <c r="B735" s="15"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B736" s="16"/>
+      <c r="B736" s="15"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B737" s="16"/>
+      <c r="B737" s="15"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B738" s="16"/>
+      <c r="B738" s="15"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B739" s="16"/>
+      <c r="B739" s="15"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B740" s="16"/>
+      <c r="B740" s="15"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B741" s="16"/>
+      <c r="B741" s="15"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B742" s="16"/>
+      <c r="B742" s="15"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B743" s="16"/>
+      <c r="B743" s="15"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B744" s="16"/>
+      <c r="B744" s="15"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B745" s="16"/>
+      <c r="B745" s="15"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B746" s="16"/>
+      <c r="B746" s="15"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B747" s="16"/>
+      <c r="B747" s="15"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B748" s="16"/>
+      <c r="B748" s="15"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B749" s="16"/>
+      <c r="B749" s="15"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B750" s="16"/>
+      <c r="B750" s="15"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B751" s="16"/>
+      <c r="B751" s="15"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B752" s="16"/>
+      <c r="B752" s="15"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B753" s="16"/>
+      <c r="B753" s="15"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B754" s="16"/>
+      <c r="B754" s="15"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B755" s="16"/>
+      <c r="B755" s="15"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B756" s="16"/>
+      <c r="B756" s="15"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B757" s="16"/>
+      <c r="B757" s="15"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B758" s="16"/>
+      <c r="B758" s="15"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B759" s="16"/>
+      <c r="B759" s="15"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B760" s="16"/>
+      <c r="B760" s="15"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B761" s="16"/>
+      <c r="B761" s="15"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B762" s="16"/>
+      <c r="B762" s="15"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B763" s="16"/>
+      <c r="B763" s="15"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B764" s="16"/>
+      <c r="B764" s="15"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B765" s="16"/>
+      <c r="B765" s="15"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B766" s="16"/>
+      <c r="B766" s="15"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B767" s="16"/>
+      <c r="B767" s="15"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B768" s="16"/>
+      <c r="B768" s="15"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B769" s="16"/>
+      <c r="B769" s="15"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B770" s="16"/>
+      <c r="B770" s="15"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B771" s="16"/>
+      <c r="B771" s="15"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B772" s="16"/>
+      <c r="B772" s="15"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B773" s="16"/>
+      <c r="B773" s="15"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B774" s="16"/>
+      <c r="B774" s="15"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B775" s="16"/>
+      <c r="B775" s="15"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B776" s="16"/>
+      <c r="B776" s="15"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B777" s="16"/>
+      <c r="B777" s="15"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B778" s="16"/>
+      <c r="B778" s="15"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B779" s="16"/>
+      <c r="B779" s="15"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B780" s="16"/>
+      <c r="B780" s="15"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B781" s="16"/>
+      <c r="B781" s="15"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B782" s="16"/>
+      <c r="B782" s="15"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B783" s="16"/>
+      <c r="B783" s="15"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B784" s="16"/>
+      <c r="B784" s="15"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B785" s="16"/>
+      <c r="B785" s="15"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B786" s="16"/>
+      <c r="B786" s="15"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B787" s="16"/>
+      <c r="B787" s="15"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B788" s="16"/>
+      <c r="B788" s="15"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B789" s="16"/>
+      <c r="B789" s="15"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B790" s="16"/>
+      <c r="B790" s="15"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B791" s="16"/>
+      <c r="B791" s="15"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B792" s="16"/>
+      <c r="B792" s="15"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B793" s="16"/>
+      <c r="B793" s="15"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B794" s="16"/>
+      <c r="B794" s="15"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B795" s="16"/>
+      <c r="B795" s="15"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B796" s="16"/>
+      <c r="B796" s="15"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B797" s="16"/>
+      <c r="B797" s="15"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B798" s="16"/>
+      <c r="B798" s="15"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B799" s="16"/>
+      <c r="B799" s="15"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B800" s="16"/>
+      <c r="B800" s="15"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B801" s="16"/>
+      <c r="B801" s="15"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B802" s="16"/>
+      <c r="B802" s="15"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B803" s="16"/>
+      <c r="B803" s="15"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B804" s="16"/>
+      <c r="B804" s="15"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B805" s="16"/>
+      <c r="B805" s="15"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B806" s="16"/>
+      <c r="B806" s="15"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B807" s="16"/>
+      <c r="B807" s="15"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B808" s="16"/>
+      <c r="B808" s="15"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B809" s="16"/>
+      <c r="B809" s="15"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B810" s="16"/>
+      <c r="B810" s="15"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B811" s="16"/>
+      <c r="B811" s="15"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B812" s="16"/>
+      <c r="B812" s="15"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B813" s="16"/>
+      <c r="B813" s="15"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B814" s="16"/>
+      <c r="B814" s="15"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B815" s="16"/>
+      <c r="B815" s="15"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B816" s="16"/>
+      <c r="B816" s="15"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B817" s="16"/>
+      <c r="B817" s="15"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B818" s="16"/>
+      <c r="B818" s="15"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B819" s="16"/>
+      <c r="B819" s="15"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B820" s="16"/>
+      <c r="B820" s="15"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B821" s="16"/>
+      <c r="B821" s="15"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B822" s="16"/>
+      <c r="B822" s="15"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B823" s="16"/>
+      <c r="B823" s="15"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B824" s="16"/>
+      <c r="B824" s="15"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B825" s="16"/>
+      <c r="B825" s="15"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B826" s="16"/>
+      <c r="B826" s="15"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B827" s="16"/>
+      <c r="B827" s="15"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B828" s="16"/>
+      <c r="B828" s="15"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B829" s="16"/>
+      <c r="B829" s="15"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B830" s="16"/>
+      <c r="B830" s="15"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B831" s="16"/>
+      <c r="B831" s="15"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B832" s="16"/>
+      <c r="B832" s="15"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B833" s="16"/>
+      <c r="B833" s="15"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B834" s="16"/>
+      <c r="B834" s="15"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B835" s="16"/>
+      <c r="B835" s="15"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B836" s="16"/>
+      <c r="B836" s="15"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B837" s="16"/>
+      <c r="B837" s="15"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B838" s="16"/>
+      <c r="B838" s="15"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B839" s="16"/>
+      <c r="B839" s="15"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B840" s="16"/>
+      <c r="B840" s="15"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B841" s="16"/>
+      <c r="B841" s="15"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B842" s="16"/>
+      <c r="B842" s="15"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B843" s="16"/>
+      <c r="B843" s="15"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B844" s="16"/>
+      <c r="B844" s="15"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B845" s="16"/>
+      <c r="B845" s="15"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B846" s="16"/>
+      <c r="B846" s="15"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B847" s="16"/>
+      <c r="B847" s="15"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B848" s="16"/>
+      <c r="B848" s="15"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B849" s="16"/>
+      <c r="B849" s="15"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B850" s="16"/>
+      <c r="B850" s="15"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B851" s="16"/>
+      <c r="B851" s="15"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B852" s="16"/>
+      <c r="B852" s="15"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B853" s="16"/>
+      <c r="B853" s="15"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B854" s="16"/>
+      <c r="B854" s="15"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B855" s="16"/>
+      <c r="B855" s="15"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B856" s="16"/>
+      <c r="B856" s="15"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B857" s="16"/>
+      <c r="B857" s="15"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B858" s="16"/>
+      <c r="B858" s="15"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B859" s="16"/>
+      <c r="B859" s="15"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B860" s="16"/>
+      <c r="B860" s="15"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B861" s="16"/>
+      <c r="B861" s="15"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B862" s="16"/>
+      <c r="B862" s="15"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B863" s="16"/>
+      <c r="B863" s="15"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B864" s="16"/>
+      <c r="B864" s="15"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B865" s="16"/>
+      <c r="B865" s="15"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B866" s="16"/>
+      <c r="B866" s="15"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B867" s="16"/>
+      <c r="B867" s="15"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B868" s="16"/>
+      <c r="B868" s="15"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B869" s="16"/>
+      <c r="B869" s="15"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B870" s="16"/>
+      <c r="B870" s="15"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B871" s="16"/>
+      <c r="B871" s="15"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B872" s="16"/>
+      <c r="B872" s="15"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B873" s="16"/>
+      <c r="B873" s="15"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B874" s="16"/>
+      <c r="B874" s="15"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B875" s="16"/>
+      <c r="B875" s="15"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B876" s="16"/>
+      <c r="B876" s="15"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B877" s="16"/>
+      <c r="B877" s="15"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B878" s="16"/>
+      <c r="B878" s="15"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B879" s="16"/>
+      <c r="B879" s="15"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B880" s="16"/>
+      <c r="B880" s="15"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B881" s="16"/>
+      <c r="B881" s="15"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B882" s="16"/>
+      <c r="B882" s="15"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B883" s="16"/>
+      <c r="B883" s="15"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B884" s="16"/>
+      <c r="B884" s="15"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B885" s="16"/>
+      <c r="B885" s="15"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B886" s="16"/>
+      <c r="B886" s="15"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B887" s="16"/>
+      <c r="B887" s="15"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B888" s="16"/>
+      <c r="B888" s="15"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B889" s="16"/>
+      <c r="B889" s="15"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B890" s="16"/>
+      <c r="B890" s="15"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B891" s="16"/>
+      <c r="B891" s="15"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B892" s="16"/>
+      <c r="B892" s="15"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B893" s="16"/>
+      <c r="B893" s="15"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B894" s="16"/>
+      <c r="B894" s="15"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B895" s="16"/>
+      <c r="B895" s="15"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B896" s="16"/>
+      <c r="B896" s="15"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B897" s="16"/>
+      <c r="B897" s="15"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B898" s="16"/>
+      <c r="B898" s="15"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B899" s="16"/>
+      <c r="B899" s="15"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B900" s="16"/>
+      <c r="B900" s="15"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B901" s="16"/>
+      <c r="B901" s="15"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B902" s="16"/>
+      <c r="B902" s="15"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B903" s="16"/>
+      <c r="B903" s="15"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B904" s="16"/>
+      <c r="B904" s="15"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B905" s="16"/>
+      <c r="B905" s="15"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B906" s="16"/>
+      <c r="B906" s="15"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B907" s="16"/>
+      <c r="B907" s="15"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B908" s="16"/>
+      <c r="B908" s="15"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B909" s="16"/>
+      <c r="B909" s="15"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B910" s="16"/>
+      <c r="B910" s="15"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B911" s="16"/>
+      <c r="B911" s="15"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B912" s="16"/>
+      <c r="B912" s="15"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B913" s="16"/>
+      <c r="B913" s="15"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B914" s="16"/>
+      <c r="B914" s="15"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B915" s="16"/>
+      <c r="B915" s="15"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B916" s="16"/>
+      <c r="B916" s="15"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B917" s="16"/>
+      <c r="B917" s="15"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B918" s="16"/>
+      <c r="B918" s="15"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B919" s="16"/>
+      <c r="B919" s="15"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B920" s="16"/>
+      <c r="B920" s="15"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B921" s="16"/>
+      <c r="B921" s="15"/>
     </row>
     <row r="922" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B922" s="16"/>
+      <c r="B922" s="15"/>
     </row>
     <row r="923" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B923" s="16"/>
+      <c r="B923" s="15"/>
     </row>
     <row r="924" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B924" s="16"/>
+      <c r="B924" s="15"/>
     </row>
     <row r="925" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B925" s="16"/>
+      <c r="B925" s="15"/>
     </row>
     <row r="926" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B926" s="16"/>
+      <c r="B926" s="15"/>
     </row>
     <row r="927" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B927" s="16"/>
+      <c r="B927" s="15"/>
     </row>
     <row r="928" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B928" s="16"/>
+      <c r="B928" s="15"/>
     </row>
     <row r="929" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B929" s="16"/>
+      <c r="B929" s="15"/>
     </row>
     <row r="930" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B930" s="16"/>
+      <c r="B930" s="15"/>
     </row>
     <row r="931" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B931" s="16"/>
+      <c r="B931" s="15"/>
     </row>
     <row r="932" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B932" s="16"/>
+      <c r="B932" s="15"/>
     </row>
     <row r="933" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B933" s="16"/>
+      <c r="B933" s="15"/>
     </row>
     <row r="934" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B934" s="16"/>
+      <c r="B934" s="15"/>
     </row>
     <row r="935" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B935" s="16"/>
+      <c r="B935" s="15"/>
     </row>
     <row r="936" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B936" s="16"/>
+      <c r="B936" s="15"/>
     </row>
     <row r="937" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B937" s="16"/>
+      <c r="B937" s="15"/>
     </row>
     <row r="938" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B938" s="16"/>
+      <c r="B938" s="15"/>
     </row>
     <row r="939" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B939" s="16"/>
+      <c r="B939" s="15"/>
     </row>
     <row r="940" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B940" s="16"/>
+      <c r="B940" s="15"/>
     </row>
     <row r="941" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B941" s="16"/>
+      <c r="B941" s="15"/>
     </row>
     <row r="942" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B942" s="16"/>
+      <c r="B942" s="15"/>
     </row>
     <row r="943" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B943" s="16"/>
+      <c r="B943" s="15"/>
     </row>
     <row r="944" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B944" s="16"/>
+      <c r="B944" s="15"/>
     </row>
     <row r="945" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B945" s="16"/>
+      <c r="B945" s="15"/>
     </row>
     <row r="946" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B946" s="16"/>
+      <c r="B946" s="15"/>
     </row>
     <row r="947" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B947" s="16"/>
+      <c r="B947" s="15"/>
     </row>
     <row r="948" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B948" s="16"/>
+      <c r="B948" s="15"/>
     </row>
     <row r="949" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B949" s="16"/>
+      <c r="B949" s="15"/>
     </row>
     <row r="950" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B950" s="16"/>
+      <c r="B950" s="15"/>
     </row>
     <row r="951" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B951" s="16"/>
+      <c r="B951" s="15"/>
     </row>
     <row r="952" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B952" s="16"/>
+      <c r="B952" s="15"/>
     </row>
     <row r="953" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B953" s="16"/>
+      <c r="B953" s="15"/>
     </row>
     <row r="954" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B954" s="16"/>
+      <c r="B954" s="15"/>
     </row>
     <row r="955" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B955" s="16"/>
+      <c r="B955" s="15"/>
     </row>
     <row r="956" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B956" s="16"/>
+      <c r="B956" s="15"/>
     </row>
     <row r="957" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B957" s="16"/>
+      <c r="B957" s="15"/>
     </row>
     <row r="958" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B958" s="16"/>
+      <c r="B958" s="15"/>
     </row>
     <row r="959" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B959" s="16"/>
+      <c r="B959" s="15"/>
     </row>
     <row r="960" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B960" s="16"/>
+      <c r="B960" s="15"/>
     </row>
     <row r="961" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B961" s="16"/>
+      <c r="B961" s="15"/>
     </row>
     <row r="962" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B962" s="16"/>
+      <c r="B962" s="15"/>
     </row>
     <row r="963" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B963" s="16"/>
+      <c r="B963" s="15"/>
     </row>
     <row r="964" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B964" s="16"/>
+      <c r="B964" s="15"/>
     </row>
     <row r="965" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B965" s="16"/>
+      <c r="B965" s="15"/>
     </row>
     <row r="966" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B966" s="16"/>
+      <c r="B966" s="15"/>
     </row>
     <row r="967" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B967" s="16"/>
+      <c r="B967" s="15"/>
     </row>
     <row r="968" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B968" s="16"/>
+      <c r="B968" s="15"/>
     </row>
     <row r="969" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B969" s="16"/>
+      <c r="B969" s="15"/>
     </row>
     <row r="970" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B970" s="16"/>
+      <c r="B970" s="15"/>
     </row>
     <row r="971" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B971" s="16"/>
+      <c r="B971" s="15"/>
     </row>
     <row r="972" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B972" s="16"/>
+      <c r="B972" s="15"/>
     </row>
     <row r="973" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B973" s="16"/>
+      <c r="B973" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -11770,72 +11848,72 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" s="4">
         <v>2235</v>
@@ -11849,28 +11927,28 @@
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="L3" s="4">
         <v>1033</v>
@@ -11884,22 +11962,22 @@
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="L4" s="4">
         <v>795</v>
@@ -11913,28 +11991,28 @@
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="L5" s="4">
         <v>134</v>
@@ -11948,28 +12026,28 @@
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="L6" s="4">
         <v>572</v>
@@ -11983,28 +12061,28 @@
     </row>
     <row r="7" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="L7" s="4">
         <v>47</v>
@@ -12018,31 +12096,31 @@
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="L8" s="4">
         <v>40</v>
@@ -12056,28 +12134,28 @@
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="L9" s="4">
         <v>99</v>
@@ -12091,25 +12169,25 @@
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="L10" s="4">
         <v>312</v>
@@ -12123,28 +12201,28 @@
     </row>
     <row r="11" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="L11" s="4">
         <v>147</v>

--- a/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
+++ b/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/processing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A47B6-38E5-5A4A-A8DC-43CF61BF89DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624BE20-AD75-E649-9DA5-DE34379329C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="9960" windowWidth="40640" windowHeight="9440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="11900" windowWidth="40640" windowHeight="9440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="152">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -455,6 +455,36 @@
   </si>
   <si>
     <t>https://doi.org/10.3389/fmicb.2016.00679</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X1</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X2</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X3</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X4</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X5</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X6</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X7</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X8</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X9</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/0000X0</t>
   </si>
 </sst>
 </file>
@@ -464,7 +494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -510,6 +540,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -547,12 +587,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -577,8 +618,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{0713BF38-484B-6D40-93B4-5D3280F138BB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F6AA98EB-20D7-1142-8A41-FCF2AA51F98B}"/>
@@ -11830,23 +11873,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="12" width="12.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="11.28515625" style="5"/>
+    <col min="3" max="3" width="34.85546875" style="5" customWidth="1"/>
+    <col min="4" max="13" width="12.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -11854,391 +11898,424 @@
         <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="4">
+      <c r="I2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="4">
         <v>2235</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>16165</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>12855</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>1033</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>6836</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>12742</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>795</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>4941</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>3666</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>134</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>1187</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>572</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>2827</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>1513</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>47</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>464</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>40</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>494</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>839</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>99</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>1641</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>2961</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>312</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>1685</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>1689</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>147</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>1436</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>2784</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12696,6 +12773,11 @@
     <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="/sequence/view/0000X0" xr:uid="{D6434A52-B972-A14E-AA97-7FDC09B215EF}"/>
+    <hyperlink ref="C3:C11" r:id="rId2" location="/sequence/view/0000X0" display="https://plutof.ut.ee/#/sequence/view/0000X0" xr:uid="{598C6354-B3C7-864C-A217-A607DBA4D510}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>

--- a/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
+++ b/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/processing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624BE20-AD75-E649-9DA5-DE34379329C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FF7AED-E94A-6444-96C1-C839CC1CD08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="11900" windowWidth="40640" windowHeight="9440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="2580" windowWidth="24580" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>fieldNumber</t>
   </si>
   <si>
-    <t>catalogueNumber</t>
-  </si>
-  <si>
     <t>references</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>https://plutof.ut.ee/#/sequence/view/0000X0</t>
+  </si>
+  <si>
+    <t>catalogNumber</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -893,10 +893,10 @@
         <v>130</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -949,13 +949,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>123</v>
@@ -964,7 +964,7 @@
         <v>124</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>59</v>
@@ -996,22 +996,22 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="F3" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>58</v>
@@ -1043,22 +1043,22 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="F4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>57</v>
@@ -4472,7 +4472,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
@@ -4516,7 +4516,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>61</v>
@@ -4560,7 +4560,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>61</v>
@@ -11875,7 +11875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -11945,7 +11945,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>78</v>
@@ -11983,7 +11983,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>78</v>
@@ -12021,7 +12021,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>78</v>
@@ -12053,7 +12053,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>78</v>
@@ -12091,7 +12091,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>78</v>
@@ -12129,7 +12129,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>78</v>
@@ -12167,7 +12167,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>78</v>
@@ -12208,7 +12208,7 @@
         <v>112</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>78</v>
@@ -12246,7 +12246,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>78</v>
@@ -12281,7 +12281,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>78</v>

--- a/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
+++ b/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/processing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38138205-3395-5847-B623-99B5FFF5B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B214F42-3213-DE41-97EA-D3F457B8611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18020" yWindow="1020" windowWidth="24580" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="500" windowWidth="27000" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="156">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -427,9 +427,6 @@
     <t>references</t>
   </si>
   <si>
-    <t>SBDI-ASV-KTH-2013-Baltic-16S</t>
-  </si>
-  <si>
     <t>KTH</t>
   </si>
   <si>
@@ -485,6 +482,21 @@
   </si>
   <si>
     <t>catalogNumber</t>
+  </si>
+  <si>
+    <t>datasetName</t>
+  </si>
+  <si>
+    <t>16S data from: Diversity of Pico- to Mesoplankton along the 2000 km Salinity Gradient of the Baltic Sea (Hu et al. 2016)</t>
+  </si>
+  <si>
+    <t>dataGeneralizations</t>
+  </si>
+  <si>
+    <t>Coordinates generalized from original GPS coordinates to three decimals</t>
+  </si>
+  <si>
+    <t>KTH-2013-Baltic-16S</t>
   </si>
 </sst>
 </file>
@@ -836,37 +848,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y991"/>
+  <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="11.28515625" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="11.28515625" style="4"/>
+    <col min="3" max="3" width="23" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.5703125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="11.28515625" style="4" customWidth="1"/>
+    <col min="29" max="16384" width="11.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>125</v>
       </c>
@@ -874,3254 +887,3280 @@
         <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>55.185000000000002</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>13.791</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="S2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Z2" s="4">
         <v>3</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="AA2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>55.433999999999997</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>14.813000000000001</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="S3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>3</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AA3" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="G4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>56.031999999999996</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>16.649999999999999</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="S4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>3</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AA4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="7"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="7"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="7"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="7"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="10"/>
+    </row>
+    <row r="26" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="7"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="10"/>
-    </row>
-    <row r="29" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="7"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="10"/>
-    </row>
-    <row r="31" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="5:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="6:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="7"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="7"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="7"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="7"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="4:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D81" s="5"/>
-    </row>
-    <row r="82" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D82" s="5"/>
-    </row>
-    <row r="83" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D83" s="5"/>
-    </row>
-    <row r="84" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D84" s="5"/>
-    </row>
-    <row r="85" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D85" s="5"/>
-    </row>
-    <row r="86" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D86" s="5"/>
-    </row>
-    <row r="87" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D88" s="5"/>
-    </row>
-    <row r="89" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D89" s="5"/>
-    </row>
-    <row r="90" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D92" s="5"/>
-    </row>
-    <row r="93" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D93" s="5"/>
-    </row>
-    <row r="94" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D94" s="5"/>
-    </row>
-    <row r="95" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D95" s="5"/>
-    </row>
-    <row r="96" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D97" s="5"/>
-    </row>
-    <row r="98" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="5"/>
-    </row>
-    <row r="99" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="5"/>
-    </row>
-    <row r="100" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D100" s="5"/>
-    </row>
-    <row r="101" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D101" s="5"/>
-    </row>
-    <row r="102" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D102" s="5"/>
-    </row>
-    <row r="103" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D103" s="5"/>
-    </row>
-    <row r="104" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="5"/>
-    </row>
-    <row r="105" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D105" s="5"/>
-    </row>
-    <row r="106" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D106" s="5"/>
-    </row>
-    <row r="107" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D107" s="5"/>
-    </row>
-    <row r="108" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D109" s="5"/>
-    </row>
-    <row r="110" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D110" s="5"/>
-    </row>
-    <row r="111" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D113" s="5"/>
-    </row>
-    <row r="114" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="5"/>
-    </row>
-    <row r="115" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D115" s="5"/>
-    </row>
-    <row r="116" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D118" s="5"/>
-    </row>
-    <row r="119" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D119" s="5"/>
-    </row>
-    <row r="120" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D120" s="5"/>
-    </row>
-    <row r="121" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D121" s="5"/>
-    </row>
-    <row r="122" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D122" s="5"/>
-    </row>
-    <row r="123" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D123" s="5"/>
-    </row>
-    <row r="124" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D125" s="5"/>
-    </row>
-    <row r="126" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D126" s="5"/>
-    </row>
-    <row r="127" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D127" s="5"/>
-    </row>
-    <row r="128" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D128" s="5"/>
-    </row>
-    <row r="129" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D129" s="5"/>
-    </row>
-    <row r="130" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D130" s="5"/>
-    </row>
-    <row r="131" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D131" s="5"/>
-    </row>
-    <row r="132" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D134" s="5"/>
-    </row>
-    <row r="135" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D135" s="5"/>
-    </row>
-    <row r="136" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D140" s="5"/>
-    </row>
-    <row r="141" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D141" s="5"/>
-    </row>
-    <row r="142" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D142" s="5"/>
-    </row>
-    <row r="143" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D143" s="5"/>
-    </row>
-    <row r="144" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D144" s="5"/>
-    </row>
-    <row r="145" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D145" s="5"/>
-    </row>
-    <row r="146" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D146" s="5"/>
-    </row>
-    <row r="147" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D147" s="5"/>
-    </row>
-    <row r="148" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D149" s="5"/>
-    </row>
-    <row r="150" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D150" s="5"/>
-    </row>
-    <row r="151" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D151" s="5"/>
-    </row>
-    <row r="152" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D152" s="5"/>
-    </row>
-    <row r="153" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D153" s="5"/>
-    </row>
-    <row r="154" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D154" s="5"/>
-    </row>
-    <row r="155" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D155" s="5"/>
-    </row>
-    <row r="156" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D156" s="5"/>
-    </row>
-    <row r="157" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D157" s="5"/>
-    </row>
-    <row r="158" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D158" s="5"/>
-    </row>
-    <row r="159" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D159" s="5"/>
-    </row>
-    <row r="160" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D160" s="5"/>
-    </row>
-    <row r="161" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D162" s="5"/>
-    </row>
-    <row r="163" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D163" s="5"/>
-    </row>
-    <row r="164" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D164" s="5"/>
-    </row>
-    <row r="165" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D165" s="5"/>
-    </row>
-    <row r="166" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D166" s="5"/>
-    </row>
-    <row r="167" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D167" s="5"/>
-    </row>
-    <row r="168" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D168" s="5"/>
-    </row>
-    <row r="169" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D169" s="5"/>
-    </row>
-    <row r="170" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D170" s="5"/>
-    </row>
-    <row r="171" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D173" s="5"/>
-    </row>
-    <row r="174" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D174" s="5"/>
-    </row>
-    <row r="175" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D175" s="5"/>
-    </row>
-    <row r="176" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D176" s="5"/>
-    </row>
-    <row r="177" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D177" s="5"/>
-    </row>
-    <row r="178" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D179" s="5"/>
-    </row>
-    <row r="180" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D190" s="5"/>
-    </row>
-    <row r="191" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D191" s="5"/>
-    </row>
-    <row r="192" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D192" s="5"/>
-    </row>
-    <row r="193" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D193" s="5"/>
-    </row>
-    <row r="194" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D194" s="5"/>
-    </row>
-    <row r="195" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D195" s="5"/>
-    </row>
-    <row r="196" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D196" s="5"/>
-    </row>
-    <row r="197" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D197" s="5"/>
-    </row>
-    <row r="198" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D198" s="5"/>
-    </row>
-    <row r="199" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D199" s="5"/>
-    </row>
-    <row r="200" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D200" s="5"/>
-    </row>
-    <row r="201" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D201" s="5"/>
-    </row>
-    <row r="202" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D202" s="5"/>
-    </row>
-    <row r="203" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D203" s="5"/>
-    </row>
-    <row r="204" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D204" s="5"/>
-    </row>
-    <row r="205" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D205" s="5"/>
-    </row>
-    <row r="206" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D206" s="5"/>
-    </row>
-    <row r="207" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D208" s="5"/>
-    </row>
-    <row r="209" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D209" s="5"/>
-    </row>
-    <row r="210" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D210" s="5"/>
-    </row>
-    <row r="211" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D211" s="5"/>
-    </row>
-    <row r="212" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D212" s="5"/>
-    </row>
-    <row r="213" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D213" s="5"/>
-    </row>
-    <row r="214" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D214" s="5"/>
-    </row>
-    <row r="215" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D215" s="5"/>
-    </row>
-    <row r="216" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D216" s="5"/>
-    </row>
-    <row r="217" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D217" s="5"/>
-    </row>
-    <row r="218" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D219" s="5"/>
-    </row>
-    <row r="220" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D220" s="5"/>
-    </row>
-    <row r="221" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D221" s="5"/>
-    </row>
-    <row r="222" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D222" s="5"/>
-    </row>
-    <row r="223" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D223" s="5"/>
-    </row>
-    <row r="224" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D224" s="5"/>
-    </row>
-    <row r="225" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D225" s="5"/>
-    </row>
-    <row r="226" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D226" s="5"/>
-    </row>
-    <row r="227" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D228" s="5"/>
-    </row>
-    <row r="229" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D229" s="5"/>
-    </row>
-    <row r="230" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D231" s="5"/>
-    </row>
-    <row r="232" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D232" s="5"/>
-    </row>
-    <row r="233" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D233" s="5"/>
-    </row>
-    <row r="234" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D234" s="5"/>
-    </row>
-    <row r="235" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D235" s="5"/>
-    </row>
-    <row r="236" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D236" s="5"/>
-    </row>
-    <row r="237" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D237" s="5"/>
-    </row>
-    <row r="238" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D238" s="5"/>
-    </row>
-    <row r="239" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D239" s="5"/>
-    </row>
-    <row r="240" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D240" s="5"/>
-    </row>
-    <row r="241" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D241" s="5"/>
-    </row>
-    <row r="242" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D242" s="5"/>
-    </row>
-    <row r="243" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D243" s="5"/>
-    </row>
-    <row r="244" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D244" s="5"/>
-    </row>
-    <row r="245" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D245" s="5"/>
-    </row>
-    <row r="246" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D246" s="5"/>
-    </row>
-    <row r="247" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D247" s="5"/>
-    </row>
-    <row r="248" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D248" s="5"/>
-    </row>
-    <row r="249" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D249" s="5"/>
-    </row>
-    <row r="250" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D250" s="5"/>
-    </row>
-    <row r="251" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D251" s="5"/>
-    </row>
-    <row r="252" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D252" s="5"/>
-    </row>
-    <row r="253" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D253" s="5"/>
-    </row>
-    <row r="254" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D254" s="5"/>
-    </row>
-    <row r="255" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D255" s="5"/>
-    </row>
-    <row r="256" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D256" s="5"/>
-    </row>
-    <row r="257" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D257" s="5"/>
-    </row>
-    <row r="258" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D258" s="5"/>
-    </row>
-    <row r="259" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D259" s="5"/>
-    </row>
-    <row r="260" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D260" s="5"/>
-    </row>
-    <row r="261" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D261" s="5"/>
-    </row>
-    <row r="262" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D262" s="5"/>
-    </row>
-    <row r="263" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D263" s="5"/>
-    </row>
-    <row r="264" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D264" s="5"/>
-    </row>
-    <row r="265" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D265" s="5"/>
-    </row>
-    <row r="266" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D266" s="5"/>
-    </row>
-    <row r="267" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D267" s="5"/>
-    </row>
-    <row r="268" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D268" s="5"/>
-    </row>
-    <row r="269" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D269" s="5"/>
-    </row>
-    <row r="270" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D270" s="5"/>
-    </row>
-    <row r="271" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D271" s="5"/>
-    </row>
-    <row r="272" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D272" s="5"/>
-    </row>
-    <row r="273" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D273" s="5"/>
-    </row>
-    <row r="274" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D274" s="5"/>
-    </row>
-    <row r="275" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D275" s="5"/>
-    </row>
-    <row r="276" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D276" s="5"/>
-    </row>
-    <row r="277" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D277" s="5"/>
-    </row>
-    <row r="278" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D278" s="5"/>
-    </row>
-    <row r="279" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D279" s="5"/>
-    </row>
-    <row r="280" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D280" s="5"/>
-    </row>
-    <row r="281" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D281" s="5"/>
-    </row>
-    <row r="282" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D282" s="5"/>
-    </row>
-    <row r="283" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D283" s="5"/>
-    </row>
-    <row r="284" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D284" s="5"/>
-    </row>
-    <row r="285" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D285" s="5"/>
-    </row>
-    <row r="286" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D286" s="5"/>
-    </row>
-    <row r="287" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D287" s="5"/>
-    </row>
-    <row r="288" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D288" s="5"/>
-    </row>
-    <row r="289" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D289" s="5"/>
-    </row>
-    <row r="290" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D290" s="5"/>
-    </row>
-    <row r="291" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D291" s="5"/>
-    </row>
-    <row r="292" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D292" s="5"/>
-    </row>
-    <row r="293" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D293" s="5"/>
-    </row>
-    <row r="294" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D294" s="5"/>
-    </row>
-    <row r="295" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D295" s="5"/>
-    </row>
-    <row r="296" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D296" s="5"/>
-    </row>
-    <row r="297" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D297" s="5"/>
-    </row>
-    <row r="298" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D298" s="5"/>
-    </row>
-    <row r="299" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D299" s="5"/>
-    </row>
-    <row r="300" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D300" s="5"/>
-    </row>
-    <row r="301" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D301" s="5"/>
-    </row>
-    <row r="302" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D302" s="5"/>
-    </row>
-    <row r="303" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D303" s="5"/>
-    </row>
-    <row r="304" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D304" s="5"/>
-    </row>
-    <row r="305" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D305" s="5"/>
-    </row>
-    <row r="306" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D306" s="5"/>
-    </row>
-    <row r="307" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D307" s="5"/>
-    </row>
-    <row r="308" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D308" s="5"/>
-    </row>
-    <row r="309" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D309" s="5"/>
-    </row>
-    <row r="310" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D310" s="5"/>
-    </row>
-    <row r="311" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D311" s="5"/>
-    </row>
-    <row r="312" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D312" s="5"/>
-    </row>
-    <row r="313" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D313" s="5"/>
-    </row>
-    <row r="314" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D314" s="5"/>
-    </row>
-    <row r="315" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D315" s="5"/>
-    </row>
-    <row r="316" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D316" s="5"/>
-    </row>
-    <row r="317" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D317" s="5"/>
-    </row>
-    <row r="318" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D318" s="5"/>
-    </row>
-    <row r="319" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D319" s="5"/>
-    </row>
-    <row r="320" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D320" s="5"/>
-    </row>
-    <row r="321" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D321" s="5"/>
-    </row>
-    <row r="322" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D322" s="5"/>
-    </row>
-    <row r="323" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D323" s="5"/>
-    </row>
-    <row r="324" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D324" s="5"/>
-    </row>
-    <row r="325" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D325" s="5"/>
-    </row>
-    <row r="326" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D326" s="5"/>
-    </row>
-    <row r="327" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D327" s="5"/>
-    </row>
-    <row r="328" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D328" s="5"/>
-    </row>
-    <row r="329" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D329" s="5"/>
-    </row>
-    <row r="330" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D330" s="5"/>
-    </row>
-    <row r="331" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D331" s="5"/>
-    </row>
-    <row r="332" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D332" s="5"/>
-    </row>
-    <row r="333" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D333" s="5"/>
-    </row>
-    <row r="334" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D334" s="5"/>
-    </row>
-    <row r="335" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D335" s="5"/>
-    </row>
-    <row r="336" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D336" s="5"/>
-    </row>
-    <row r="337" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D337" s="5"/>
-    </row>
-    <row r="338" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D338" s="5"/>
-    </row>
-    <row r="339" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D339" s="5"/>
-    </row>
-    <row r="340" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D340" s="5"/>
-    </row>
-    <row r="341" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D341" s="5"/>
-    </row>
-    <row r="342" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D342" s="5"/>
-    </row>
-    <row r="343" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D343" s="5"/>
-    </row>
-    <row r="344" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D344" s="5"/>
-    </row>
-    <row r="345" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D345" s="5"/>
-    </row>
-    <row r="346" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D346" s="5"/>
-    </row>
-    <row r="347" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D347" s="5"/>
-    </row>
-    <row r="348" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D348" s="5"/>
-    </row>
-    <row r="349" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D349" s="5"/>
-    </row>
-    <row r="350" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D350" s="5"/>
-    </row>
-    <row r="351" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D351" s="5"/>
-    </row>
-    <row r="352" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D352" s="5"/>
-    </row>
-    <row r="353" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D353" s="5"/>
-    </row>
-    <row r="354" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D354" s="5"/>
-    </row>
-    <row r="355" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D355" s="5"/>
-    </row>
-    <row r="356" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D356" s="5"/>
-    </row>
-    <row r="357" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D357" s="5"/>
-    </row>
-    <row r="358" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D358" s="5"/>
-    </row>
-    <row r="359" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D359" s="5"/>
-    </row>
-    <row r="360" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D360" s="5"/>
-    </row>
-    <row r="361" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D361" s="5"/>
-    </row>
-    <row r="362" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D362" s="5"/>
-    </row>
-    <row r="363" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D363" s="5"/>
-    </row>
-    <row r="364" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D364" s="5"/>
-    </row>
-    <row r="365" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D365" s="5"/>
-    </row>
-    <row r="366" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D366" s="5"/>
-    </row>
-    <row r="367" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D367" s="5"/>
-    </row>
-    <row r="368" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D368" s="5"/>
-    </row>
-    <row r="369" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D369" s="5"/>
-    </row>
-    <row r="370" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D370" s="5"/>
-    </row>
-    <row r="371" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D371" s="5"/>
-    </row>
-    <row r="372" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D372" s="5"/>
-    </row>
-    <row r="373" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D373" s="5"/>
-    </row>
-    <row r="374" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D374" s="5"/>
-    </row>
-    <row r="375" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D375" s="5"/>
-    </row>
-    <row r="376" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D376" s="5"/>
-    </row>
-    <row r="377" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D377" s="5"/>
-    </row>
-    <row r="378" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D378" s="5"/>
-    </row>
-    <row r="379" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D379" s="5"/>
-    </row>
-    <row r="380" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D380" s="5"/>
-    </row>
-    <row r="381" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D381" s="5"/>
-    </row>
-    <row r="382" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D382" s="5"/>
-    </row>
-    <row r="383" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D383" s="5"/>
-    </row>
-    <row r="384" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D384" s="5"/>
-    </row>
-    <row r="385" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D385" s="5"/>
-    </row>
-    <row r="386" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D386" s="5"/>
-    </row>
-    <row r="387" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D387" s="5"/>
-    </row>
-    <row r="388" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D388" s="5"/>
-    </row>
-    <row r="389" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D389" s="5"/>
-    </row>
-    <row r="390" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D390" s="5"/>
-    </row>
-    <row r="391" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D391" s="5"/>
-    </row>
-    <row r="392" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D392" s="5"/>
-    </row>
-    <row r="393" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D393" s="5"/>
-    </row>
-    <row r="394" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D394" s="5"/>
-    </row>
-    <row r="395" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D395" s="5"/>
-    </row>
-    <row r="396" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D396" s="5"/>
-    </row>
-    <row r="397" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D397" s="5"/>
-    </row>
-    <row r="398" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D398" s="5"/>
-    </row>
-    <row r="399" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D399" s="5"/>
-    </row>
-    <row r="400" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D400" s="5"/>
-    </row>
-    <row r="401" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D401" s="5"/>
-    </row>
-    <row r="402" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D402" s="5"/>
-    </row>
-    <row r="403" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D403" s="5"/>
-    </row>
-    <row r="404" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D404" s="5"/>
-    </row>
-    <row r="405" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D405" s="5"/>
-    </row>
-    <row r="406" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D406" s="5"/>
-    </row>
-    <row r="407" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D407" s="5"/>
-    </row>
-    <row r="408" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D408" s="5"/>
-    </row>
-    <row r="409" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D409" s="5"/>
-    </row>
-    <row r="410" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D410" s="5"/>
-    </row>
-    <row r="411" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D411" s="5"/>
-    </row>
-    <row r="412" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D412" s="5"/>
-    </row>
-    <row r="413" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D413" s="5"/>
-    </row>
-    <row r="414" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D414" s="5"/>
-    </row>
-    <row r="415" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D415" s="5"/>
-    </row>
-    <row r="416" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D416" s="5"/>
-    </row>
-    <row r="417" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D417" s="5"/>
-    </row>
-    <row r="418" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D418" s="5"/>
-    </row>
-    <row r="419" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D419" s="5"/>
-    </row>
-    <row r="420" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D420" s="5"/>
-    </row>
-    <row r="421" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D421" s="5"/>
-    </row>
-    <row r="422" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D422" s="5"/>
-    </row>
-    <row r="423" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D423" s="5"/>
-    </row>
-    <row r="424" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D424" s="5"/>
-    </row>
-    <row r="425" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D425" s="5"/>
-    </row>
-    <row r="426" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D426" s="5"/>
-    </row>
-    <row r="427" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D427" s="5"/>
-    </row>
-    <row r="428" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D428" s="5"/>
-    </row>
-    <row r="429" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D429" s="5"/>
-    </row>
-    <row r="430" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D430" s="5"/>
-    </row>
-    <row r="431" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D431" s="5"/>
-    </row>
-    <row r="432" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D432" s="5"/>
-    </row>
-    <row r="433" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D433" s="5"/>
-    </row>
-    <row r="434" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D434" s="5"/>
-    </row>
-    <row r="435" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D435" s="5"/>
-    </row>
-    <row r="436" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D436" s="5"/>
-    </row>
-    <row r="437" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D437" s="5"/>
-    </row>
-    <row r="438" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D438" s="5"/>
-    </row>
-    <row r="439" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D439" s="5"/>
-    </row>
-    <row r="440" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D440" s="5"/>
-    </row>
-    <row r="441" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D441" s="5"/>
-    </row>
-    <row r="442" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D442" s="5"/>
-    </row>
-    <row r="443" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D443" s="5"/>
-    </row>
-    <row r="444" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D444" s="5"/>
-    </row>
-    <row r="445" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D445" s="5"/>
-    </row>
-    <row r="446" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D446" s="5"/>
-    </row>
-    <row r="447" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D447" s="5"/>
-    </row>
-    <row r="448" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D448" s="5"/>
-    </row>
-    <row r="449" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D449" s="5"/>
-    </row>
-    <row r="450" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D450" s="5"/>
-    </row>
-    <row r="451" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D451" s="5"/>
-    </row>
-    <row r="452" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D452" s="5"/>
-    </row>
-    <row r="453" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D453" s="5"/>
-    </row>
-    <row r="454" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D454" s="5"/>
-    </row>
-    <row r="455" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D455" s="5"/>
-    </row>
-    <row r="456" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D456" s="5"/>
-    </row>
-    <row r="457" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D457" s="5"/>
-    </row>
-    <row r="458" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D458" s="5"/>
-    </row>
-    <row r="459" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D459" s="5"/>
-    </row>
-    <row r="460" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D460" s="5"/>
-    </row>
-    <row r="461" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D461" s="5"/>
-    </row>
-    <row r="462" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D462" s="5"/>
-    </row>
-    <row r="463" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D463" s="5"/>
-    </row>
-    <row r="464" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D464" s="5"/>
-    </row>
-    <row r="465" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D465" s="5"/>
-    </row>
-    <row r="466" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D466" s="5"/>
-    </row>
-    <row r="467" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D467" s="5"/>
-    </row>
-    <row r="468" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D468" s="5"/>
-    </row>
-    <row r="469" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D469" s="5"/>
-    </row>
-    <row r="470" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D470" s="5"/>
-    </row>
-    <row r="471" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D471" s="5"/>
-    </row>
-    <row r="472" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D472" s="5"/>
-    </row>
-    <row r="473" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D473" s="5"/>
-    </row>
-    <row r="474" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D474" s="5"/>
-    </row>
-    <row r="475" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D475" s="5"/>
-    </row>
-    <row r="476" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D476" s="5"/>
-    </row>
-    <row r="477" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D477" s="5"/>
-    </row>
-    <row r="478" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D478" s="5"/>
-    </row>
-    <row r="479" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D479" s="5"/>
-    </row>
-    <row r="480" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D480" s="5"/>
-    </row>
-    <row r="481" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D481" s="5"/>
-    </row>
-    <row r="482" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D482" s="5"/>
-    </row>
-    <row r="483" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D483" s="5"/>
-    </row>
-    <row r="484" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D484" s="5"/>
-    </row>
-    <row r="485" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D485" s="5"/>
-    </row>
-    <row r="486" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D486" s="5"/>
-    </row>
-    <row r="487" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D487" s="5"/>
-    </row>
-    <row r="488" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D488" s="5"/>
-    </row>
-    <row r="489" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D489" s="5"/>
-    </row>
-    <row r="490" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D490" s="5"/>
-    </row>
-    <row r="491" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D491" s="5"/>
-    </row>
-    <row r="492" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D492" s="5"/>
-    </row>
-    <row r="493" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D493" s="5"/>
-    </row>
-    <row r="494" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D494" s="5"/>
-    </row>
-    <row r="495" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D495" s="5"/>
-    </row>
-    <row r="496" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D496" s="5"/>
-    </row>
-    <row r="497" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D497" s="5"/>
-    </row>
-    <row r="498" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D498" s="5"/>
-    </row>
-    <row r="499" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D499" s="5"/>
-    </row>
-    <row r="500" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D500" s="5"/>
-    </row>
-    <row r="501" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D501" s="5"/>
-    </row>
-    <row r="502" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D502" s="5"/>
-    </row>
-    <row r="503" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D503" s="5"/>
-    </row>
-    <row r="504" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D504" s="5"/>
-    </row>
-    <row r="505" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D505" s="5"/>
-    </row>
-    <row r="506" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D506" s="5"/>
-    </row>
-    <row r="507" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D507" s="5"/>
-    </row>
-    <row r="508" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D508" s="5"/>
-    </row>
-    <row r="509" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D509" s="5"/>
-    </row>
-    <row r="510" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D510" s="5"/>
-    </row>
-    <row r="511" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D511" s="5"/>
-    </row>
-    <row r="512" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D512" s="5"/>
-    </row>
-    <row r="513" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D513" s="5"/>
-    </row>
-    <row r="514" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D514" s="5"/>
-    </row>
-    <row r="515" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D515" s="5"/>
-    </row>
-    <row r="516" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D516" s="5"/>
-    </row>
-    <row r="517" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D517" s="5"/>
-    </row>
-    <row r="518" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D518" s="5"/>
-    </row>
-    <row r="519" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D519" s="5"/>
-    </row>
-    <row r="520" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D520" s="5"/>
-    </row>
-    <row r="521" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D521" s="5"/>
-    </row>
-    <row r="522" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D522" s="5"/>
-    </row>
-    <row r="523" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D523" s="5"/>
-    </row>
-    <row r="524" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D524" s="5"/>
-    </row>
-    <row r="525" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D525" s="5"/>
-    </row>
-    <row r="526" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D526" s="5"/>
-    </row>
-    <row r="527" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D527" s="5"/>
-    </row>
-    <row r="528" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D528" s="5"/>
-    </row>
-    <row r="529" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D529" s="5"/>
-    </row>
-    <row r="530" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D530" s="5"/>
-    </row>
-    <row r="531" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D531" s="5"/>
-    </row>
-    <row r="532" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D532" s="5"/>
-    </row>
-    <row r="533" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D533" s="5"/>
-    </row>
-    <row r="534" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D534" s="5"/>
-    </row>
-    <row r="535" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D535" s="5"/>
-    </row>
-    <row r="536" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D536" s="5"/>
-    </row>
-    <row r="537" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D537" s="5"/>
-    </row>
-    <row r="538" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D538" s="5"/>
-    </row>
-    <row r="539" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D539" s="5"/>
-    </row>
-    <row r="540" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D540" s="5"/>
-    </row>
-    <row r="541" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D541" s="5"/>
-    </row>
-    <row r="542" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D542" s="5"/>
-    </row>
-    <row r="543" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D543" s="5"/>
-    </row>
-    <row r="544" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D544" s="5"/>
-    </row>
-    <row r="545" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D545" s="5"/>
-    </row>
-    <row r="546" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D546" s="5"/>
-    </row>
-    <row r="547" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D547" s="5"/>
-    </row>
-    <row r="548" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D548" s="5"/>
-    </row>
-    <row r="549" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D549" s="5"/>
-    </row>
-    <row r="550" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D550" s="5"/>
-    </row>
-    <row r="551" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D551" s="5"/>
-    </row>
-    <row r="552" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D552" s="5"/>
-    </row>
-    <row r="553" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D553" s="5"/>
-    </row>
-    <row r="554" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D554" s="5"/>
-    </row>
-    <row r="555" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D555" s="5"/>
-    </row>
-    <row r="556" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D556" s="5"/>
-    </row>
-    <row r="557" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D557" s="5"/>
-    </row>
-    <row r="558" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D558" s="5"/>
-    </row>
-    <row r="559" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D559" s="5"/>
-    </row>
-    <row r="560" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D560" s="5"/>
-    </row>
-    <row r="561" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D561" s="5"/>
-    </row>
-    <row r="562" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D562" s="5"/>
-    </row>
-    <row r="563" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D563" s="5"/>
-    </row>
-    <row r="564" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D564" s="5"/>
-    </row>
-    <row r="565" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D565" s="5"/>
-    </row>
-    <row r="566" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D566" s="5"/>
-    </row>
-    <row r="567" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D567" s="5"/>
-    </row>
-    <row r="568" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D568" s="5"/>
-    </row>
-    <row r="569" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D569" s="5"/>
-    </row>
-    <row r="570" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D570" s="5"/>
-    </row>
-    <row r="571" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D571" s="5"/>
-    </row>
-    <row r="572" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D572" s="5"/>
-    </row>
-    <row r="573" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D573" s="5"/>
-    </row>
-    <row r="574" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D574" s="5"/>
-    </row>
-    <row r="575" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D575" s="5"/>
-    </row>
-    <row r="576" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D576" s="5"/>
-    </row>
-    <row r="577" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D577" s="5"/>
-    </row>
-    <row r="578" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D578" s="5"/>
-    </row>
-    <row r="579" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D579" s="5"/>
-    </row>
-    <row r="580" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D580" s="5"/>
-    </row>
-    <row r="581" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D581" s="5"/>
-    </row>
-    <row r="582" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D582" s="5"/>
-    </row>
-    <row r="583" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D583" s="5"/>
-    </row>
-    <row r="584" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D584" s="5"/>
-    </row>
-    <row r="585" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D585" s="5"/>
-    </row>
-    <row r="586" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D586" s="5"/>
-    </row>
-    <row r="587" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D587" s="5"/>
-    </row>
-    <row r="588" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D588" s="5"/>
-    </row>
-    <row r="589" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D589" s="5"/>
-    </row>
-    <row r="590" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D590" s="5"/>
-    </row>
-    <row r="591" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D591" s="5"/>
-    </row>
-    <row r="592" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D592" s="5"/>
-    </row>
-    <row r="593" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D593" s="5"/>
-    </row>
-    <row r="594" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D594" s="5"/>
-    </row>
-    <row r="595" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D595" s="5"/>
-    </row>
-    <row r="596" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D596" s="5"/>
-    </row>
-    <row r="597" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D597" s="5"/>
-    </row>
-    <row r="598" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D598" s="5"/>
-    </row>
-    <row r="599" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D599" s="5"/>
-    </row>
-    <row r="600" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D600" s="5"/>
-    </row>
-    <row r="601" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D601" s="5"/>
-    </row>
-    <row r="602" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D602" s="5"/>
-    </row>
-    <row r="603" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D603" s="5"/>
-    </row>
-    <row r="604" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D604" s="5"/>
-    </row>
-    <row r="605" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D605" s="5"/>
-    </row>
-    <row r="606" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D606" s="5"/>
-    </row>
-    <row r="607" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D607" s="5"/>
-    </row>
-    <row r="608" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D608" s="5"/>
-    </row>
-    <row r="609" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D609" s="5"/>
-    </row>
-    <row r="610" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D610" s="5"/>
-    </row>
-    <row r="611" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D611" s="5"/>
-    </row>
-    <row r="612" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D612" s="5"/>
-    </row>
-    <row r="613" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D613" s="5"/>
-    </row>
-    <row r="614" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D614" s="5"/>
-    </row>
-    <row r="615" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D615" s="5"/>
-    </row>
-    <row r="616" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D616" s="5"/>
-    </row>
-    <row r="617" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D617" s="5"/>
-    </row>
-    <row r="618" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D618" s="5"/>
-    </row>
-    <row r="619" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D619" s="5"/>
-    </row>
-    <row r="620" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D620" s="5"/>
-    </row>
-    <row r="621" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D621" s="5"/>
-    </row>
-    <row r="622" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D622" s="5"/>
-    </row>
-    <row r="623" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D623" s="5"/>
-    </row>
-    <row r="624" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D624" s="5"/>
-    </row>
-    <row r="625" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D625" s="5"/>
-    </row>
-    <row r="626" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D626" s="5"/>
-    </row>
-    <row r="627" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D627" s="5"/>
-    </row>
-    <row r="628" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D628" s="5"/>
-    </row>
-    <row r="629" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D629" s="5"/>
-    </row>
-    <row r="630" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D630" s="5"/>
-    </row>
-    <row r="631" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D631" s="5"/>
-    </row>
-    <row r="632" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D632" s="5"/>
-    </row>
-    <row r="633" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D633" s="5"/>
-    </row>
-    <row r="634" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D634" s="5"/>
-    </row>
-    <row r="635" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D635" s="5"/>
-    </row>
-    <row r="636" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D636" s="5"/>
-    </row>
-    <row r="637" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D637" s="5"/>
-    </row>
-    <row r="638" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D638" s="5"/>
-    </row>
-    <row r="639" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D639" s="5"/>
-    </row>
-    <row r="640" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D640" s="5"/>
-    </row>
-    <row r="641" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D641" s="5"/>
-    </row>
-    <row r="642" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D642" s="5"/>
-    </row>
-    <row r="643" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D643" s="5"/>
-    </row>
-    <row r="644" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D644" s="5"/>
-    </row>
-    <row r="645" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D645" s="5"/>
-    </row>
-    <row r="646" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D646" s="5"/>
-    </row>
-    <row r="647" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D647" s="5"/>
-    </row>
-    <row r="648" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D648" s="5"/>
-    </row>
-    <row r="649" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D649" s="5"/>
-    </row>
-    <row r="650" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D650" s="5"/>
-    </row>
-    <row r="651" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D651" s="5"/>
-    </row>
-    <row r="652" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D652" s="5"/>
-    </row>
-    <row r="653" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D653" s="5"/>
-    </row>
-    <row r="654" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D654" s="5"/>
-    </row>
-    <row r="655" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D655" s="5"/>
-    </row>
-    <row r="656" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D656" s="5"/>
-    </row>
-    <row r="657" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D657" s="5"/>
-    </row>
-    <row r="658" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D658" s="5"/>
-    </row>
-    <row r="659" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D659" s="5"/>
-    </row>
-    <row r="660" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D660" s="5"/>
-    </row>
-    <row r="661" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D661" s="5"/>
-    </row>
-    <row r="662" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D662" s="5"/>
-    </row>
-    <row r="663" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D663" s="5"/>
-    </row>
-    <row r="664" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D664" s="5"/>
-    </row>
-    <row r="665" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D665" s="5"/>
-    </row>
-    <row r="666" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D666" s="5"/>
-    </row>
-    <row r="667" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D667" s="5"/>
-    </row>
-    <row r="668" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D668" s="5"/>
-    </row>
-    <row r="669" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D669" s="5"/>
-    </row>
-    <row r="670" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D670" s="5"/>
-    </row>
-    <row r="671" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D671" s="5"/>
-    </row>
-    <row r="672" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D672" s="5"/>
-    </row>
-    <row r="673" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D673" s="5"/>
-    </row>
-    <row r="674" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D674" s="5"/>
-    </row>
-    <row r="675" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D675" s="5"/>
-    </row>
-    <row r="676" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D676" s="5"/>
-    </row>
-    <row r="677" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D677" s="5"/>
-    </row>
-    <row r="678" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D678" s="5"/>
-    </row>
-    <row r="679" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D679" s="5"/>
-    </row>
-    <row r="680" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D680" s="5"/>
-    </row>
-    <row r="681" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D681" s="5"/>
-    </row>
-    <row r="682" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D682" s="5"/>
-    </row>
-    <row r="683" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D683" s="5"/>
-    </row>
-    <row r="684" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D684" s="5"/>
-    </row>
-    <row r="685" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D685" s="5"/>
-    </row>
-    <row r="686" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D686" s="5"/>
-    </row>
-    <row r="687" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D687" s="5"/>
-    </row>
-    <row r="688" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D688" s="5"/>
-    </row>
-    <row r="689" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D689" s="5"/>
-    </row>
-    <row r="690" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D690" s="5"/>
-    </row>
-    <row r="691" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D691" s="5"/>
-    </row>
-    <row r="692" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D692" s="5"/>
-    </row>
-    <row r="693" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D693" s="5"/>
-    </row>
-    <row r="694" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D694" s="5"/>
-    </row>
-    <row r="695" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D695" s="5"/>
-    </row>
-    <row r="696" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D696" s="5"/>
-    </row>
-    <row r="697" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D697" s="5"/>
-    </row>
-    <row r="698" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D698" s="5"/>
-    </row>
-    <row r="699" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D699" s="5"/>
-    </row>
-    <row r="700" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D700" s="5"/>
-    </row>
-    <row r="701" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D701" s="5"/>
-    </row>
-    <row r="702" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D702" s="5"/>
-    </row>
-    <row r="703" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D703" s="5"/>
-    </row>
-    <row r="704" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D704" s="5"/>
-    </row>
-    <row r="705" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D705" s="5"/>
-    </row>
-    <row r="706" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D706" s="5"/>
-    </row>
-    <row r="707" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D707" s="5"/>
-    </row>
-    <row r="708" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D708" s="5"/>
-    </row>
-    <row r="709" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D709" s="5"/>
-    </row>
-    <row r="710" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D710" s="5"/>
-    </row>
-    <row r="711" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D711" s="5"/>
-    </row>
-    <row r="712" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D712" s="5"/>
-    </row>
-    <row r="713" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D713" s="5"/>
-    </row>
-    <row r="714" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D714" s="5"/>
-    </row>
-    <row r="715" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D715" s="5"/>
-    </row>
-    <row r="716" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D716" s="5"/>
-    </row>
-    <row r="717" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D717" s="5"/>
-    </row>
-    <row r="718" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D718" s="5"/>
-    </row>
-    <row r="719" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D719" s="5"/>
-    </row>
-    <row r="720" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D720" s="5"/>
-    </row>
-    <row r="721" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D721" s="5"/>
-    </row>
-    <row r="722" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D722" s="5"/>
-    </row>
-    <row r="723" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D723" s="5"/>
-    </row>
-    <row r="724" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D724" s="5"/>
-    </row>
-    <row r="725" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D725" s="5"/>
-    </row>
-    <row r="726" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D726" s="5"/>
-    </row>
-    <row r="727" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D727" s="5"/>
-    </row>
-    <row r="728" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D728" s="5"/>
-    </row>
-    <row r="729" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D729" s="5"/>
-    </row>
-    <row r="730" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D730" s="5"/>
-    </row>
-    <row r="731" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D731" s="5"/>
-    </row>
-    <row r="732" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D732" s="5"/>
-    </row>
-    <row r="733" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D733" s="5"/>
-    </row>
-    <row r="734" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D734" s="5"/>
-    </row>
-    <row r="735" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D735" s="5"/>
-    </row>
-    <row r="736" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D736" s="5"/>
-    </row>
-    <row r="737" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D737" s="5"/>
-    </row>
-    <row r="738" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D738" s="5"/>
-    </row>
-    <row r="739" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D739" s="5"/>
-    </row>
-    <row r="740" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D740" s="5"/>
-    </row>
-    <row r="741" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D741" s="5"/>
-    </row>
-    <row r="742" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D742" s="5"/>
-    </row>
-    <row r="743" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D743" s="5"/>
-    </row>
-    <row r="744" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D744" s="5"/>
-    </row>
-    <row r="745" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D745" s="5"/>
-    </row>
-    <row r="746" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D746" s="5"/>
-    </row>
-    <row r="747" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D747" s="5"/>
-    </row>
-    <row r="748" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D748" s="5"/>
-    </row>
-    <row r="749" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D749" s="5"/>
-    </row>
-    <row r="750" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D750" s="5"/>
-    </row>
-    <row r="751" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D751" s="5"/>
-    </row>
-    <row r="752" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D752" s="5"/>
-    </row>
-    <row r="753" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D753" s="5"/>
-    </row>
-    <row r="754" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D754" s="5"/>
-    </row>
-    <row r="755" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D755" s="5"/>
-    </row>
-    <row r="756" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D756" s="5"/>
-    </row>
-    <row r="757" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D757" s="5"/>
-    </row>
-    <row r="758" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D758" s="5"/>
-    </row>
-    <row r="759" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D759" s="5"/>
-    </row>
-    <row r="760" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D760" s="5"/>
-    </row>
-    <row r="761" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D761" s="5"/>
-    </row>
-    <row r="762" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D762" s="5"/>
-    </row>
-    <row r="763" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D763" s="5"/>
-    </row>
-    <row r="764" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D764" s="5"/>
-    </row>
-    <row r="765" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D765" s="5"/>
-    </row>
-    <row r="766" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D766" s="5"/>
-    </row>
-    <row r="767" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D767" s="5"/>
-    </row>
-    <row r="768" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D768" s="5"/>
-    </row>
-    <row r="769" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D769" s="5"/>
-    </row>
-    <row r="770" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D770" s="5"/>
-    </row>
-    <row r="771" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D771" s="5"/>
-    </row>
-    <row r="772" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D772" s="5"/>
-    </row>
-    <row r="773" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D773" s="5"/>
-    </row>
-    <row r="774" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D774" s="5"/>
-    </row>
-    <row r="775" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D775" s="5"/>
-    </row>
-    <row r="776" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D776" s="5"/>
-    </row>
-    <row r="777" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D777" s="5"/>
-    </row>
-    <row r="778" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D778" s="5"/>
-    </row>
-    <row r="779" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D779" s="5"/>
-    </row>
-    <row r="780" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D780" s="5"/>
-    </row>
-    <row r="781" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D781" s="5"/>
-    </row>
-    <row r="782" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D782" s="5"/>
-    </row>
-    <row r="783" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D783" s="5"/>
-    </row>
-    <row r="784" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D784" s="5"/>
-    </row>
-    <row r="785" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D785" s="5"/>
-    </row>
-    <row r="786" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D786" s="5"/>
-    </row>
-    <row r="787" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D787" s="5"/>
-    </row>
-    <row r="788" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D788" s="5"/>
-    </row>
-    <row r="789" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D789" s="5"/>
-    </row>
-    <row r="790" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D790" s="5"/>
-    </row>
-    <row r="791" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D791" s="5"/>
-    </row>
-    <row r="792" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D792" s="5"/>
-    </row>
-    <row r="793" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D793" s="5"/>
-    </row>
-    <row r="794" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D794" s="5"/>
-    </row>
-    <row r="795" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D795" s="5"/>
-    </row>
-    <row r="796" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D796" s="5"/>
-    </row>
-    <row r="797" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D797" s="5"/>
-    </row>
-    <row r="798" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D798" s="5"/>
-    </row>
-    <row r="799" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D799" s="5"/>
-    </row>
-    <row r="800" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D800" s="5"/>
-    </row>
-    <row r="801" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D801" s="5"/>
-    </row>
-    <row r="802" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D802" s="5"/>
-    </row>
-    <row r="803" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D803" s="5"/>
-    </row>
-    <row r="804" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D804" s="5"/>
-    </row>
-    <row r="805" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D805" s="5"/>
-    </row>
-    <row r="806" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D806" s="5"/>
-    </row>
-    <row r="807" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D807" s="5"/>
-    </row>
-    <row r="808" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D808" s="5"/>
-    </row>
-    <row r="809" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D809" s="5"/>
-    </row>
-    <row r="810" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D810" s="5"/>
-    </row>
-    <row r="811" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D811" s="5"/>
-    </row>
-    <row r="812" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D812" s="5"/>
-    </row>
-    <row r="813" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D813" s="5"/>
-    </row>
-    <row r="814" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D814" s="5"/>
-    </row>
-    <row r="815" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D815" s="5"/>
-    </row>
-    <row r="816" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D816" s="5"/>
-    </row>
-    <row r="817" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D817" s="5"/>
-    </row>
-    <row r="818" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D818" s="5"/>
-    </row>
-    <row r="819" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D819" s="5"/>
-    </row>
-    <row r="820" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D820" s="5"/>
-    </row>
-    <row r="821" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D821" s="5"/>
-    </row>
-    <row r="822" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D822" s="5"/>
-    </row>
-    <row r="823" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D823" s="5"/>
-    </row>
-    <row r="824" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D824" s="5"/>
-    </row>
-    <row r="825" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D825" s="5"/>
-    </row>
-    <row r="826" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D826" s="5"/>
-    </row>
-    <row r="827" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D827" s="5"/>
-    </row>
-    <row r="828" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D828" s="5"/>
-    </row>
-    <row r="829" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D829" s="5"/>
-    </row>
-    <row r="830" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D830" s="5"/>
-    </row>
-    <row r="831" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D831" s="5"/>
-    </row>
-    <row r="832" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D832" s="5"/>
-    </row>
-    <row r="833" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D833" s="5"/>
-    </row>
-    <row r="834" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D834" s="5"/>
-    </row>
-    <row r="835" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D835" s="5"/>
-    </row>
-    <row r="836" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D836" s="5"/>
-    </row>
-    <row r="837" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D837" s="5"/>
-    </row>
-    <row r="838" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D838" s="5"/>
-    </row>
-    <row r="839" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D839" s="5"/>
-    </row>
-    <row r="840" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D840" s="5"/>
-    </row>
-    <row r="841" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D841" s="5"/>
-    </row>
-    <row r="842" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D842" s="5"/>
-    </row>
-    <row r="843" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D843" s="5"/>
-    </row>
-    <row r="844" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D844" s="5"/>
-    </row>
-    <row r="845" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D845" s="5"/>
-    </row>
-    <row r="846" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D846" s="5"/>
-    </row>
-    <row r="847" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D847" s="5"/>
-    </row>
-    <row r="848" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D848" s="5"/>
-    </row>
-    <row r="849" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D849" s="5"/>
-    </row>
-    <row r="850" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D850" s="5"/>
-    </row>
-    <row r="851" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D851" s="5"/>
-    </row>
-    <row r="852" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D852" s="5"/>
-    </row>
-    <row r="853" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D853" s="5"/>
-    </row>
-    <row r="854" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D854" s="5"/>
-    </row>
-    <row r="855" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D855" s="5"/>
-    </row>
-    <row r="856" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D856" s="5"/>
-    </row>
-    <row r="857" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D857" s="5"/>
-    </row>
-    <row r="858" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D858" s="5"/>
-    </row>
-    <row r="859" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D859" s="5"/>
-    </row>
-    <row r="860" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D860" s="5"/>
-    </row>
-    <row r="861" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D861" s="5"/>
-    </row>
-    <row r="862" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D862" s="5"/>
-    </row>
-    <row r="863" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D863" s="5"/>
-    </row>
-    <row r="864" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D864" s="5"/>
-    </row>
-    <row r="865" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D865" s="5"/>
-    </row>
-    <row r="866" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D866" s="5"/>
-    </row>
-    <row r="867" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D867" s="5"/>
-    </row>
-    <row r="868" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D868" s="5"/>
-    </row>
-    <row r="869" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D869" s="5"/>
-    </row>
-    <row r="870" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D870" s="5"/>
-    </row>
-    <row r="871" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D871" s="5"/>
-    </row>
-    <row r="872" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D872" s="5"/>
-    </row>
-    <row r="873" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D873" s="5"/>
-    </row>
-    <row r="874" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D874" s="5"/>
-    </row>
-    <row r="875" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D875" s="5"/>
-    </row>
-    <row r="876" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D876" s="5"/>
-    </row>
-    <row r="877" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D877" s="5"/>
-    </row>
-    <row r="878" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D878" s="5"/>
-    </row>
-    <row r="879" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D879" s="5"/>
-    </row>
-    <row r="880" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D880" s="5"/>
-    </row>
-    <row r="881" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D881" s="5"/>
-    </row>
-    <row r="882" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D882" s="5"/>
-    </row>
-    <row r="883" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D883" s="5"/>
-    </row>
-    <row r="884" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D884" s="5"/>
-    </row>
-    <row r="885" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D885" s="5"/>
-    </row>
-    <row r="886" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D886" s="5"/>
-    </row>
-    <row r="887" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D887" s="5"/>
-    </row>
-    <row r="888" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D888" s="5"/>
-    </row>
-    <row r="889" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D889" s="5"/>
-    </row>
-    <row r="890" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D890" s="5"/>
-    </row>
-    <row r="891" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D891" s="5"/>
-    </row>
-    <row r="892" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D892" s="5"/>
-    </row>
-    <row r="893" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D893" s="5"/>
-    </row>
-    <row r="894" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D894" s="5"/>
-    </row>
-    <row r="895" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D895" s="5"/>
-    </row>
-    <row r="896" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D896" s="5"/>
-    </row>
-    <row r="897" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D897" s="5"/>
-    </row>
-    <row r="898" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D898" s="5"/>
-    </row>
-    <row r="899" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D899" s="5"/>
-    </row>
-    <row r="900" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D900" s="5"/>
-    </row>
-    <row r="901" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D901" s="5"/>
-    </row>
-    <row r="902" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D902" s="5"/>
-    </row>
-    <row r="903" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D903" s="5"/>
-    </row>
-    <row r="904" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D904" s="5"/>
-    </row>
-    <row r="905" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D905" s="5"/>
-    </row>
-    <row r="906" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D906" s="5"/>
-    </row>
-    <row r="907" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D907" s="5"/>
-    </row>
-    <row r="908" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D908" s="5"/>
-    </row>
-    <row r="909" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D909" s="5"/>
-    </row>
-    <row r="910" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D910" s="5"/>
-    </row>
-    <row r="911" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D911" s="5"/>
-    </row>
-    <row r="912" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D912" s="5"/>
-    </row>
-    <row r="913" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D913" s="5"/>
-    </row>
-    <row r="914" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D914" s="5"/>
-    </row>
-    <row r="915" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D915" s="5"/>
-    </row>
-    <row r="916" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D916" s="5"/>
-    </row>
-    <row r="917" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D917" s="5"/>
-    </row>
-    <row r="918" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D918" s="5"/>
-    </row>
-    <row r="919" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D919" s="5"/>
-    </row>
-    <row r="920" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D920" s="5"/>
-    </row>
-    <row r="921" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D921" s="5"/>
-    </row>
-    <row r="922" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D922" s="5"/>
-    </row>
-    <row r="923" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D923" s="5"/>
-    </row>
-    <row r="924" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D924" s="5"/>
-    </row>
-    <row r="925" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D925" s="5"/>
-    </row>
-    <row r="926" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D926" s="5"/>
-    </row>
-    <row r="927" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D927" s="5"/>
-    </row>
-    <row r="928" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D928" s="5"/>
-    </row>
-    <row r="929" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D929" s="5"/>
-    </row>
-    <row r="930" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D930" s="5"/>
-    </row>
-    <row r="931" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D931" s="5"/>
-    </row>
-    <row r="932" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D932" s="5"/>
-    </row>
-    <row r="933" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D933" s="5"/>
-    </row>
-    <row r="934" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D934" s="5"/>
-    </row>
-    <row r="935" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D935" s="5"/>
-    </row>
-    <row r="936" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D936" s="5"/>
-    </row>
-    <row r="937" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D937" s="5"/>
-    </row>
-    <row r="938" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D938" s="5"/>
-    </row>
-    <row r="939" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D939" s="5"/>
-    </row>
-    <row r="940" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D940" s="5"/>
-    </row>
-    <row r="941" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D941" s="5"/>
-    </row>
-    <row r="942" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D942" s="5"/>
-    </row>
-    <row r="943" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D943" s="5"/>
-    </row>
-    <row r="944" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D944" s="5"/>
-    </row>
-    <row r="945" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D945" s="5"/>
-    </row>
-    <row r="946" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D946" s="5"/>
-    </row>
-    <row r="947" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D947" s="5"/>
-    </row>
-    <row r="948" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D948" s="5"/>
-    </row>
-    <row r="949" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D949" s="5"/>
-    </row>
-    <row r="950" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D950" s="5"/>
-    </row>
-    <row r="951" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D951" s="5"/>
-    </row>
-    <row r="952" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D952" s="5"/>
-    </row>
-    <row r="953" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D953" s="5"/>
-    </row>
-    <row r="954" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D954" s="5"/>
-    </row>
-    <row r="955" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D955" s="5"/>
-    </row>
-    <row r="956" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D956" s="5"/>
-    </row>
-    <row r="957" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D957" s="5"/>
-    </row>
-    <row r="958" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D958" s="5"/>
-    </row>
-    <row r="959" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D959" s="5"/>
-    </row>
-    <row r="960" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D960" s="5"/>
-    </row>
-    <row r="961" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D961" s="5"/>
-    </row>
-    <row r="962" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D962" s="5"/>
-    </row>
-    <row r="963" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D963" s="5"/>
-    </row>
-    <row r="964" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D964" s="5"/>
-    </row>
-    <row r="965" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D965" s="5"/>
-    </row>
-    <row r="966" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D966" s="5"/>
-    </row>
-    <row r="967" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D967" s="5"/>
-    </row>
-    <row r="968" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D968" s="5"/>
-    </row>
-    <row r="969" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D969" s="5"/>
-    </row>
-    <row r="970" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D970" s="5"/>
-    </row>
-    <row r="971" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D971" s="5"/>
-    </row>
-    <row r="972" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D972" s="5"/>
-    </row>
-    <row r="973" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D973" s="5"/>
-    </row>
-    <row r="974" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D974" s="5"/>
-    </row>
-    <row r="975" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D975" s="5"/>
-    </row>
-    <row r="976" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D976" s="5"/>
-    </row>
-    <row r="977" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D977" s="5"/>
-    </row>
-    <row r="978" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D978" s="5"/>
-    </row>
-    <row r="979" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D979" s="5"/>
-    </row>
-    <row r="980" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D980" s="5"/>
-    </row>
-    <row r="981" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D981" s="5"/>
-    </row>
-    <row r="982" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D982" s="5"/>
-    </row>
-    <row r="983" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D983" s="5"/>
-    </row>
-    <row r="984" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D984" s="5"/>
-    </row>
-    <row r="985" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D985" s="5"/>
-    </row>
-    <row r="986" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D986" s="5"/>
-    </row>
-    <row r="987" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D987" s="5"/>
-    </row>
-    <row r="988" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D988" s="5"/>
-    </row>
-    <row r="989" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D989" s="5"/>
-    </row>
-    <row r="990" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D990" s="5"/>
-    </row>
-    <row r="991" spans="4:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="D991" s="5"/>
+      <c r="G35" s="7"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="5"/>
+    </row>
+    <row r="104" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="5"/>
+    </row>
+    <row r="114" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="5"/>
+    </row>
+    <row r="115" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E118" s="5"/>
+    </row>
+    <row r="119" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E119" s="5"/>
+    </row>
+    <row r="120" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="5"/>
+    </row>
+    <row r="122" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" s="5"/>
+    </row>
+    <row r="123" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E123" s="5"/>
+    </row>
+    <row r="124" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E124" s="5"/>
+    </row>
+    <row r="125" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="5"/>
+    </row>
+    <row r="126" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="5"/>
+    </row>
+    <row r="127" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="5"/>
+    </row>
+    <row r="128" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E133" s="5"/>
+    </row>
+    <row r="134" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E134" s="5"/>
+    </row>
+    <row r="135" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="5"/>
+    </row>
+    <row r="136" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="5"/>
+    </row>
+    <row r="137" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E137" s="5"/>
+    </row>
+    <row r="138" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E140" s="5"/>
+    </row>
+    <row r="141" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E141" s="5"/>
+    </row>
+    <row r="142" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E144" s="5"/>
+    </row>
+    <row r="145" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="5"/>
+    </row>
+    <row r="146" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E146" s="5"/>
+    </row>
+    <row r="147" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="5"/>
+    </row>
+    <row r="149" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="5"/>
+    </row>
+    <row r="150" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="5"/>
+    </row>
+    <row r="151" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E152" s="5"/>
+    </row>
+    <row r="153" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="5"/>
+    </row>
+    <row r="154" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E154" s="5"/>
+    </row>
+    <row r="155" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="5"/>
+    </row>
+    <row r="159" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E161" s="5"/>
+    </row>
+    <row r="162" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E162" s="5"/>
+    </row>
+    <row r="163" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E165" s="5"/>
+    </row>
+    <row r="166" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E166" s="5"/>
+    </row>
+    <row r="167" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E167" s="5"/>
+    </row>
+    <row r="168" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="5"/>
+    </row>
+    <row r="169" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="5"/>
+    </row>
+    <row r="170" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="5"/>
+    </row>
+    <row r="171" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="5"/>
+    </row>
+    <row r="173" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E173" s="5"/>
+    </row>
+    <row r="174" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E174" s="5"/>
+    </row>
+    <row r="175" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="5"/>
+    </row>
+    <row r="176" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E176" s="5"/>
+    </row>
+    <row r="177" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="5"/>
+    </row>
+    <row r="178" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="5"/>
+    </row>
+    <row r="179" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E179" s="5"/>
+    </row>
+    <row r="180" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E180" s="5"/>
+    </row>
+    <row r="181" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="5"/>
+    </row>
+    <row r="182" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="5"/>
+    </row>
+    <row r="183" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E183" s="5"/>
+    </row>
+    <row r="184" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E184" s="5"/>
+    </row>
+    <row r="185" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E185" s="5"/>
+    </row>
+    <row r="186" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="5"/>
+    </row>
+    <row r="187" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E187" s="5"/>
+    </row>
+    <row r="188" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E188" s="5"/>
+    </row>
+    <row r="189" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E189" s="5"/>
+    </row>
+    <row r="190" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="5"/>
+    </row>
+    <row r="191" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="5"/>
+    </row>
+    <row r="192" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E192" s="5"/>
+    </row>
+    <row r="193" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E193" s="5"/>
+    </row>
+    <row r="194" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E194" s="5"/>
+    </row>
+    <row r="195" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E195" s="5"/>
+    </row>
+    <row r="196" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E196" s="5"/>
+    </row>
+    <row r="197" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E197" s="5"/>
+    </row>
+    <row r="198" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E198" s="5"/>
+    </row>
+    <row r="199" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E199" s="5"/>
+    </row>
+    <row r="200" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E200" s="5"/>
+    </row>
+    <row r="201" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E201" s="5"/>
+    </row>
+    <row r="202" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E202" s="5"/>
+    </row>
+    <row r="203" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E203" s="5"/>
+    </row>
+    <row r="204" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E204" s="5"/>
+    </row>
+    <row r="205" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="5"/>
+    </row>
+    <row r="206" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E206" s="5"/>
+    </row>
+    <row r="207" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E207" s="5"/>
+    </row>
+    <row r="208" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="5"/>
+    </row>
+    <row r="209" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E209" s="5"/>
+    </row>
+    <row r="210" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E210" s="5"/>
+    </row>
+    <row r="211" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E211" s="5"/>
+    </row>
+    <row r="212" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E212" s="5"/>
+    </row>
+    <row r="213" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E213" s="5"/>
+    </row>
+    <row r="214" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E214" s="5"/>
+    </row>
+    <row r="215" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="5"/>
+    </row>
+    <row r="216" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E216" s="5"/>
+    </row>
+    <row r="217" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="5"/>
+    </row>
+    <row r="222" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="5"/>
+    </row>
+    <row r="223" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="5"/>
+    </row>
+    <row r="225" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E225" s="5"/>
+    </row>
+    <row r="226" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E226" s="5"/>
+    </row>
+    <row r="227" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E227" s="5"/>
+    </row>
+    <row r="228" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E228" s="5"/>
+    </row>
+    <row r="229" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E229" s="5"/>
+    </row>
+    <row r="230" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E230" s="5"/>
+    </row>
+    <row r="231" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E231" s="5"/>
+    </row>
+    <row r="232" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E232" s="5"/>
+    </row>
+    <row r="233" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E233" s="5"/>
+    </row>
+    <row r="234" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E234" s="5"/>
+    </row>
+    <row r="235" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E235" s="5"/>
+    </row>
+    <row r="236" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="5"/>
+    </row>
+    <row r="238" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E238" s="5"/>
+    </row>
+    <row r="239" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E239" s="5"/>
+    </row>
+    <row r="240" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="5"/>
+    </row>
+    <row r="241" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="5"/>
+    </row>
+    <row r="243" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="5"/>
+    </row>
+    <row r="244" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="5"/>
+    </row>
+    <row r="245" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="5"/>
+    </row>
+    <row r="246" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="5"/>
+    </row>
+    <row r="247" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E247" s="5"/>
+    </row>
+    <row r="248" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E248" s="5"/>
+    </row>
+    <row r="249" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="5"/>
+    </row>
+    <row r="250" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E250" s="5"/>
+    </row>
+    <row r="251" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="5"/>
+    </row>
+    <row r="252" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E252" s="5"/>
+    </row>
+    <row r="253" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E253" s="5"/>
+    </row>
+    <row r="254" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E254" s="5"/>
+    </row>
+    <row r="255" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E255" s="5"/>
+    </row>
+    <row r="256" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="5"/>
+    </row>
+    <row r="257" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E257" s="5"/>
+    </row>
+    <row r="258" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E258" s="5"/>
+    </row>
+    <row r="259" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="5"/>
+    </row>
+    <row r="260" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E260" s="5"/>
+    </row>
+    <row r="261" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E261" s="5"/>
+    </row>
+    <row r="262" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E262" s="5"/>
+    </row>
+    <row r="263" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E263" s="5"/>
+    </row>
+    <row r="264" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E264" s="5"/>
+    </row>
+    <row r="265" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E265" s="5"/>
+    </row>
+    <row r="266" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E266" s="5"/>
+    </row>
+    <row r="267" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E267" s="5"/>
+    </row>
+    <row r="268" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E268" s="5"/>
+    </row>
+    <row r="269" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E269" s="5"/>
+    </row>
+    <row r="270" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E270" s="5"/>
+    </row>
+    <row r="271" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E271" s="5"/>
+    </row>
+    <row r="272" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E272" s="5"/>
+    </row>
+    <row r="273" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E273" s="5"/>
+    </row>
+    <row r="274" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E274" s="5"/>
+    </row>
+    <row r="275" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E275" s="5"/>
+    </row>
+    <row r="276" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E278" s="5"/>
+    </row>
+    <row r="279" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E279" s="5"/>
+    </row>
+    <row r="280" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E281" s="5"/>
+    </row>
+    <row r="282" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E282" s="5"/>
+    </row>
+    <row r="283" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E283" s="5"/>
+    </row>
+    <row r="284" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E284" s="5"/>
+    </row>
+    <row r="285" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E285" s="5"/>
+    </row>
+    <row r="286" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E286" s="5"/>
+    </row>
+    <row r="287" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E287" s="5"/>
+    </row>
+    <row r="288" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E288" s="5"/>
+    </row>
+    <row r="289" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E289" s="5"/>
+    </row>
+    <row r="290" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E290" s="5"/>
+    </row>
+    <row r="291" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E291" s="5"/>
+    </row>
+    <row r="292" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="5"/>
+    </row>
+    <row r="293" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E293" s="5"/>
+    </row>
+    <row r="294" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E294" s="5"/>
+    </row>
+    <row r="295" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E295" s="5"/>
+    </row>
+    <row r="296" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E296" s="5"/>
+    </row>
+    <row r="297" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E297" s="5"/>
+    </row>
+    <row r="298" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E298" s="5"/>
+    </row>
+    <row r="299" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E299" s="5"/>
+    </row>
+    <row r="300" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E300" s="5"/>
+    </row>
+    <row r="301" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E301" s="5"/>
+    </row>
+    <row r="302" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E302" s="5"/>
+    </row>
+    <row r="303" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E303" s="5"/>
+    </row>
+    <row r="304" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="5"/>
+    </row>
+    <row r="305" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="5"/>
+    </row>
+    <row r="306" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E306" s="5"/>
+    </row>
+    <row r="307" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E307" s="5"/>
+    </row>
+    <row r="308" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E308" s="5"/>
+    </row>
+    <row r="309" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E309" s="5"/>
+    </row>
+    <row r="310" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E310" s="5"/>
+    </row>
+    <row r="311" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="5"/>
+    </row>
+    <row r="312" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="5"/>
+    </row>
+    <row r="313" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="5"/>
+    </row>
+    <row r="314" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E314" s="5"/>
+    </row>
+    <row r="315" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E315" s="5"/>
+    </row>
+    <row r="316" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E316" s="5"/>
+    </row>
+    <row r="317" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E317" s="5"/>
+    </row>
+    <row r="318" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E319" s="5"/>
+    </row>
+    <row r="320" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E321" s="5"/>
+    </row>
+    <row r="322" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="5"/>
+    </row>
+    <row r="323" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E323" s="5"/>
+    </row>
+    <row r="324" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E324" s="5"/>
+    </row>
+    <row r="325" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E325" s="5"/>
+    </row>
+    <row r="326" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E326" s="5"/>
+    </row>
+    <row r="327" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E327" s="5"/>
+    </row>
+    <row r="328" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E328" s="5"/>
+    </row>
+    <row r="329" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E329" s="5"/>
+    </row>
+    <row r="330" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E330" s="5"/>
+    </row>
+    <row r="331" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E331" s="5"/>
+    </row>
+    <row r="332" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E332" s="5"/>
+    </row>
+    <row r="333" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E333" s="5"/>
+    </row>
+    <row r="334" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E334" s="5"/>
+    </row>
+    <row r="335" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E335" s="5"/>
+    </row>
+    <row r="336" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E336" s="5"/>
+    </row>
+    <row r="337" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E337" s="5"/>
+    </row>
+    <row r="338" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E338" s="5"/>
+    </row>
+    <row r="339" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E339" s="5"/>
+    </row>
+    <row r="340" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E340" s="5"/>
+    </row>
+    <row r="341" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E341" s="5"/>
+    </row>
+    <row r="342" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E342" s="5"/>
+    </row>
+    <row r="343" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E343" s="5"/>
+    </row>
+    <row r="344" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E344" s="5"/>
+    </row>
+    <row r="345" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E345" s="5"/>
+    </row>
+    <row r="346" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E346" s="5"/>
+    </row>
+    <row r="347" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E347" s="5"/>
+    </row>
+    <row r="348" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E348" s="5"/>
+    </row>
+    <row r="349" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E349" s="5"/>
+    </row>
+    <row r="350" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E350" s="5"/>
+    </row>
+    <row r="351" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E351" s="5"/>
+    </row>
+    <row r="352" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E352" s="5"/>
+    </row>
+    <row r="353" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E353" s="5"/>
+    </row>
+    <row r="354" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E354" s="5"/>
+    </row>
+    <row r="355" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E355" s="5"/>
+    </row>
+    <row r="356" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E356" s="5"/>
+    </row>
+    <row r="357" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="5"/>
+    </row>
+    <row r="358" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E358" s="5"/>
+    </row>
+    <row r="359" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E359" s="5"/>
+    </row>
+    <row r="360" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E360" s="5"/>
+    </row>
+    <row r="361" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E361" s="5"/>
+    </row>
+    <row r="362" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E362" s="5"/>
+    </row>
+    <row r="363" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E363" s="5"/>
+    </row>
+    <row r="364" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="5"/>
+    </row>
+    <row r="365" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E365" s="5"/>
+    </row>
+    <row r="366" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E366" s="5"/>
+    </row>
+    <row r="367" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E367" s="5"/>
+    </row>
+    <row r="368" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E368" s="5"/>
+    </row>
+    <row r="369" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E369" s="5"/>
+    </row>
+    <row r="370" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E370" s="5"/>
+    </row>
+    <row r="371" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E371" s="5"/>
+    </row>
+    <row r="372" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E372" s="5"/>
+    </row>
+    <row r="373" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E373" s="5"/>
+    </row>
+    <row r="374" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E374" s="5"/>
+    </row>
+    <row r="375" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E375" s="5"/>
+    </row>
+    <row r="376" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E376" s="5"/>
+    </row>
+    <row r="377" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E377" s="5"/>
+    </row>
+    <row r="378" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E378" s="5"/>
+    </row>
+    <row r="379" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E379" s="5"/>
+    </row>
+    <row r="380" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E380" s="5"/>
+    </row>
+    <row r="381" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E381" s="5"/>
+    </row>
+    <row r="382" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E382" s="5"/>
+    </row>
+    <row r="383" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E383" s="5"/>
+    </row>
+    <row r="384" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E384" s="5"/>
+    </row>
+    <row r="385" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E385" s="5"/>
+    </row>
+    <row r="386" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E386" s="5"/>
+    </row>
+    <row r="387" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E387" s="5"/>
+    </row>
+    <row r="388" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E388" s="5"/>
+    </row>
+    <row r="389" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E389" s="5"/>
+    </row>
+    <row r="390" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E390" s="5"/>
+    </row>
+    <row r="391" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E391" s="5"/>
+    </row>
+    <row r="392" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E392" s="5"/>
+    </row>
+    <row r="393" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E394" s="5"/>
+    </row>
+    <row r="395" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E395" s="5"/>
+    </row>
+    <row r="396" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E396" s="5"/>
+    </row>
+    <row r="397" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E398" s="5"/>
+    </row>
+    <row r="399" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E399" s="5"/>
+    </row>
+    <row r="400" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E400" s="5"/>
+    </row>
+    <row r="401" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E402" s="5"/>
+    </row>
+    <row r="403" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E403" s="5"/>
+    </row>
+    <row r="404" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E404" s="5"/>
+    </row>
+    <row r="405" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E405" s="5"/>
+    </row>
+    <row r="406" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E408" s="5"/>
+    </row>
+    <row r="409" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E410" s="5"/>
+    </row>
+    <row r="411" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E411" s="5"/>
+    </row>
+    <row r="412" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E414" s="5"/>
+    </row>
+    <row r="415" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E419" s="5"/>
+    </row>
+    <row r="420" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E420" s="5"/>
+    </row>
+    <row r="421" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E421" s="5"/>
+    </row>
+    <row r="422" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E424" s="5"/>
+    </row>
+    <row r="425" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E425" s="5"/>
+    </row>
+    <row r="426" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E426" s="5"/>
+    </row>
+    <row r="427" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E427" s="5"/>
+    </row>
+    <row r="428" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E428" s="5"/>
+    </row>
+    <row r="429" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E429" s="5"/>
+    </row>
+    <row r="430" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E430" s="5"/>
+    </row>
+    <row r="431" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E431" s="5"/>
+    </row>
+    <row r="432" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E432" s="5"/>
+    </row>
+    <row r="433" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E433" s="5"/>
+    </row>
+    <row r="434" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E434" s="5"/>
+    </row>
+    <row r="435" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E435" s="5"/>
+    </row>
+    <row r="436" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E436" s="5"/>
+    </row>
+    <row r="437" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E437" s="5"/>
+    </row>
+    <row r="438" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E438" s="5"/>
+    </row>
+    <row r="439" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E439" s="5"/>
+    </row>
+    <row r="440" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E440" s="5"/>
+    </row>
+    <row r="441" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E441" s="5"/>
+    </row>
+    <row r="442" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E442" s="5"/>
+    </row>
+    <row r="443" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E443" s="5"/>
+    </row>
+    <row r="444" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E444" s="5"/>
+    </row>
+    <row r="445" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E445" s="5"/>
+    </row>
+    <row r="446" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E446" s="5"/>
+    </row>
+    <row r="447" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E447" s="5"/>
+    </row>
+    <row r="448" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E448" s="5"/>
+    </row>
+    <row r="449" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E449" s="5"/>
+    </row>
+    <row r="450" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E450" s="5"/>
+    </row>
+    <row r="451" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E451" s="5"/>
+    </row>
+    <row r="452" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E452" s="5"/>
+    </row>
+    <row r="453" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E453" s="5"/>
+    </row>
+    <row r="454" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E454" s="5"/>
+    </row>
+    <row r="455" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E455" s="5"/>
+    </row>
+    <row r="456" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E456" s="5"/>
+    </row>
+    <row r="457" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E457" s="5"/>
+    </row>
+    <row r="458" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E458" s="5"/>
+    </row>
+    <row r="459" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E459" s="5"/>
+    </row>
+    <row r="460" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E460" s="5"/>
+    </row>
+    <row r="461" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E461" s="5"/>
+    </row>
+    <row r="462" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E462" s="5"/>
+    </row>
+    <row r="463" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E463" s="5"/>
+    </row>
+    <row r="464" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E464" s="5"/>
+    </row>
+    <row r="465" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E465" s="5"/>
+    </row>
+    <row r="466" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E466" s="5"/>
+    </row>
+    <row r="467" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E467" s="5"/>
+    </row>
+    <row r="468" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E468" s="5"/>
+    </row>
+    <row r="469" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E469" s="5"/>
+    </row>
+    <row r="470" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E470" s="5"/>
+    </row>
+    <row r="471" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E471" s="5"/>
+    </row>
+    <row r="472" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E472" s="5"/>
+    </row>
+    <row r="473" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E473" s="5"/>
+    </row>
+    <row r="474" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E474" s="5"/>
+    </row>
+    <row r="475" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E475" s="5"/>
+    </row>
+    <row r="476" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E476" s="5"/>
+    </row>
+    <row r="477" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E477" s="5"/>
+    </row>
+    <row r="478" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E478" s="5"/>
+    </row>
+    <row r="479" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E479" s="5"/>
+    </row>
+    <row r="480" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E480" s="5"/>
+    </row>
+    <row r="481" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E481" s="5"/>
+    </row>
+    <row r="482" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E482" s="5"/>
+    </row>
+    <row r="483" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E483" s="5"/>
+    </row>
+    <row r="484" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E484" s="5"/>
+    </row>
+    <row r="485" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E485" s="5"/>
+    </row>
+    <row r="486" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E486" s="5"/>
+    </row>
+    <row r="487" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E487" s="5"/>
+    </row>
+    <row r="488" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E488" s="5"/>
+    </row>
+    <row r="489" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E489" s="5"/>
+    </row>
+    <row r="490" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E490" s="5"/>
+    </row>
+    <row r="491" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E491" s="5"/>
+    </row>
+    <row r="492" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E492" s="5"/>
+    </row>
+    <row r="493" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E493" s="5"/>
+    </row>
+    <row r="494" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E494" s="5"/>
+    </row>
+    <row r="495" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E495" s="5"/>
+    </row>
+    <row r="496" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E496" s="5"/>
+    </row>
+    <row r="497" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E497" s="5"/>
+    </row>
+    <row r="498" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E498" s="5"/>
+    </row>
+    <row r="499" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E499" s="5"/>
+    </row>
+    <row r="500" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E500" s="5"/>
+    </row>
+    <row r="501" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E501" s="5"/>
+    </row>
+    <row r="502" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E502" s="5"/>
+    </row>
+    <row r="503" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E503" s="5"/>
+    </row>
+    <row r="504" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E504" s="5"/>
+    </row>
+    <row r="505" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E505" s="5"/>
+    </row>
+    <row r="506" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E506" s="5"/>
+    </row>
+    <row r="507" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E507" s="5"/>
+    </row>
+    <row r="508" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E508" s="5"/>
+    </row>
+    <row r="509" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E509" s="5"/>
+    </row>
+    <row r="510" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E510" s="5"/>
+    </row>
+    <row r="511" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E511" s="5"/>
+    </row>
+    <row r="512" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E512" s="5"/>
+    </row>
+    <row r="513" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E513" s="5"/>
+    </row>
+    <row r="514" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E514" s="5"/>
+    </row>
+    <row r="515" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E515" s="5"/>
+    </row>
+    <row r="516" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E516" s="5"/>
+    </row>
+    <row r="517" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E517" s="5"/>
+    </row>
+    <row r="518" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E518" s="5"/>
+    </row>
+    <row r="519" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E519" s="5"/>
+    </row>
+    <row r="520" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E520" s="5"/>
+    </row>
+    <row r="521" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E521" s="5"/>
+    </row>
+    <row r="522" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E522" s="5"/>
+    </row>
+    <row r="523" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E523" s="5"/>
+    </row>
+    <row r="524" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E524" s="5"/>
+    </row>
+    <row r="525" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E525" s="5"/>
+    </row>
+    <row r="526" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E526" s="5"/>
+    </row>
+    <row r="527" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E527" s="5"/>
+    </row>
+    <row r="528" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E528" s="5"/>
+    </row>
+    <row r="529" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E529" s="5"/>
+    </row>
+    <row r="530" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E530" s="5"/>
+    </row>
+    <row r="531" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E531" s="5"/>
+    </row>
+    <row r="532" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E532" s="5"/>
+    </row>
+    <row r="533" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E533" s="5"/>
+    </row>
+    <row r="534" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E534" s="5"/>
+    </row>
+    <row r="535" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E535" s="5"/>
+    </row>
+    <row r="536" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E536" s="5"/>
+    </row>
+    <row r="537" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E537" s="5"/>
+    </row>
+    <row r="538" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E538" s="5"/>
+    </row>
+    <row r="539" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E539" s="5"/>
+    </row>
+    <row r="540" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E540" s="5"/>
+    </row>
+    <row r="541" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E541" s="5"/>
+    </row>
+    <row r="542" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E542" s="5"/>
+    </row>
+    <row r="543" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E543" s="5"/>
+    </row>
+    <row r="544" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E544" s="5"/>
+    </row>
+    <row r="545" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E545" s="5"/>
+    </row>
+    <row r="546" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E546" s="5"/>
+    </row>
+    <row r="547" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E547" s="5"/>
+    </row>
+    <row r="548" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E548" s="5"/>
+    </row>
+    <row r="549" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E549" s="5"/>
+    </row>
+    <row r="550" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E550" s="5"/>
+    </row>
+    <row r="551" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E551" s="5"/>
+    </row>
+    <row r="552" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E552" s="5"/>
+    </row>
+    <row r="553" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E553" s="5"/>
+    </row>
+    <row r="554" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E554" s="5"/>
+    </row>
+    <row r="555" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E555" s="5"/>
+    </row>
+    <row r="556" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E556" s="5"/>
+    </row>
+    <row r="557" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E557" s="5"/>
+    </row>
+    <row r="558" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E558" s="5"/>
+    </row>
+    <row r="559" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E559" s="5"/>
+    </row>
+    <row r="560" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E560" s="5"/>
+    </row>
+    <row r="561" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E561" s="5"/>
+    </row>
+    <row r="562" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E562" s="5"/>
+    </row>
+    <row r="563" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E563" s="5"/>
+    </row>
+    <row r="564" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E564" s="5"/>
+    </row>
+    <row r="565" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E565" s="5"/>
+    </row>
+    <row r="566" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E566" s="5"/>
+    </row>
+    <row r="567" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E567" s="5"/>
+    </row>
+    <row r="568" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E568" s="5"/>
+    </row>
+    <row r="569" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E569" s="5"/>
+    </row>
+    <row r="570" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E570" s="5"/>
+    </row>
+    <row r="571" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E571" s="5"/>
+    </row>
+    <row r="572" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E572" s="5"/>
+    </row>
+    <row r="573" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E573" s="5"/>
+    </row>
+    <row r="574" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E574" s="5"/>
+    </row>
+    <row r="575" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E575" s="5"/>
+    </row>
+    <row r="576" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E576" s="5"/>
+    </row>
+    <row r="577" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E577" s="5"/>
+    </row>
+    <row r="578" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E578" s="5"/>
+    </row>
+    <row r="579" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E579" s="5"/>
+    </row>
+    <row r="580" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E580" s="5"/>
+    </row>
+    <row r="581" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E581" s="5"/>
+    </row>
+    <row r="582" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E582" s="5"/>
+    </row>
+    <row r="583" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E583" s="5"/>
+    </row>
+    <row r="584" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E584" s="5"/>
+    </row>
+    <row r="585" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E585" s="5"/>
+    </row>
+    <row r="586" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E586" s="5"/>
+    </row>
+    <row r="587" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E587" s="5"/>
+    </row>
+    <row r="588" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E588" s="5"/>
+    </row>
+    <row r="589" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E589" s="5"/>
+    </row>
+    <row r="590" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E590" s="5"/>
+    </row>
+    <row r="591" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E591" s="5"/>
+    </row>
+    <row r="592" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E592" s="5"/>
+    </row>
+    <row r="593" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E593" s="5"/>
+    </row>
+    <row r="594" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E594" s="5"/>
+    </row>
+    <row r="595" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E595" s="5"/>
+    </row>
+    <row r="596" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E596" s="5"/>
+    </row>
+    <row r="597" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E597" s="5"/>
+    </row>
+    <row r="598" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E598" s="5"/>
+    </row>
+    <row r="599" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E599" s="5"/>
+    </row>
+    <row r="600" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E600" s="5"/>
+    </row>
+    <row r="601" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E601" s="5"/>
+    </row>
+    <row r="602" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E602" s="5"/>
+    </row>
+    <row r="603" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E603" s="5"/>
+    </row>
+    <row r="604" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E604" s="5"/>
+    </row>
+    <row r="605" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E605" s="5"/>
+    </row>
+    <row r="606" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E606" s="5"/>
+    </row>
+    <row r="607" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E607" s="5"/>
+    </row>
+    <row r="608" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E608" s="5"/>
+    </row>
+    <row r="609" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E609" s="5"/>
+    </row>
+    <row r="610" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E610" s="5"/>
+    </row>
+    <row r="611" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E611" s="5"/>
+    </row>
+    <row r="612" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E612" s="5"/>
+    </row>
+    <row r="613" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E613" s="5"/>
+    </row>
+    <row r="614" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E614" s="5"/>
+    </row>
+    <row r="615" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E615" s="5"/>
+    </row>
+    <row r="616" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E616" s="5"/>
+    </row>
+    <row r="617" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E617" s="5"/>
+    </row>
+    <row r="618" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E618" s="5"/>
+    </row>
+    <row r="619" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E619" s="5"/>
+    </row>
+    <row r="620" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E620" s="5"/>
+    </row>
+    <row r="621" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E621" s="5"/>
+    </row>
+    <row r="622" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E622" s="5"/>
+    </row>
+    <row r="623" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E623" s="5"/>
+    </row>
+    <row r="624" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E624" s="5"/>
+    </row>
+    <row r="625" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E625" s="5"/>
+    </row>
+    <row r="626" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E626" s="5"/>
+    </row>
+    <row r="627" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E627" s="5"/>
+    </row>
+    <row r="628" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E628" s="5"/>
+    </row>
+    <row r="629" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E629" s="5"/>
+    </row>
+    <row r="630" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E630" s="5"/>
+    </row>
+    <row r="631" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E631" s="5"/>
+    </row>
+    <row r="632" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E632" s="5"/>
+    </row>
+    <row r="633" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E633" s="5"/>
+    </row>
+    <row r="634" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E634" s="5"/>
+    </row>
+    <row r="635" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E635" s="5"/>
+    </row>
+    <row r="636" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E636" s="5"/>
+    </row>
+    <row r="637" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E637" s="5"/>
+    </row>
+    <row r="638" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E638" s="5"/>
+    </row>
+    <row r="639" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E639" s="5"/>
+    </row>
+    <row r="640" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E640" s="5"/>
+    </row>
+    <row r="641" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E641" s="5"/>
+    </row>
+    <row r="642" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E642" s="5"/>
+    </row>
+    <row r="643" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E643" s="5"/>
+    </row>
+    <row r="644" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E644" s="5"/>
+    </row>
+    <row r="645" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E645" s="5"/>
+    </row>
+    <row r="646" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E646" s="5"/>
+    </row>
+    <row r="647" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E647" s="5"/>
+    </row>
+    <row r="648" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E648" s="5"/>
+    </row>
+    <row r="649" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E649" s="5"/>
+    </row>
+    <row r="650" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E650" s="5"/>
+    </row>
+    <row r="651" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E651" s="5"/>
+    </row>
+    <row r="652" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E652" s="5"/>
+    </row>
+    <row r="653" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E653" s="5"/>
+    </row>
+    <row r="654" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E654" s="5"/>
+    </row>
+    <row r="655" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E655" s="5"/>
+    </row>
+    <row r="656" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E656" s="5"/>
+    </row>
+    <row r="657" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E657" s="5"/>
+    </row>
+    <row r="658" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E658" s="5"/>
+    </row>
+    <row r="659" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E659" s="5"/>
+    </row>
+    <row r="660" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E660" s="5"/>
+    </row>
+    <row r="661" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E661" s="5"/>
+    </row>
+    <row r="662" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E662" s="5"/>
+    </row>
+    <row r="663" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E663" s="5"/>
+    </row>
+    <row r="664" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E664" s="5"/>
+    </row>
+    <row r="665" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E665" s="5"/>
+    </row>
+    <row r="666" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E666" s="5"/>
+    </row>
+    <row r="667" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E667" s="5"/>
+    </row>
+    <row r="668" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E668" s="5"/>
+    </row>
+    <row r="669" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E669" s="5"/>
+    </row>
+    <row r="670" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E670" s="5"/>
+    </row>
+    <row r="671" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E671" s="5"/>
+    </row>
+    <row r="672" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E672" s="5"/>
+    </row>
+    <row r="673" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E673" s="5"/>
+    </row>
+    <row r="674" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E674" s="5"/>
+    </row>
+    <row r="675" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E675" s="5"/>
+    </row>
+    <row r="676" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E676" s="5"/>
+    </row>
+    <row r="677" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E677" s="5"/>
+    </row>
+    <row r="678" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E678" s="5"/>
+    </row>
+    <row r="679" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E679" s="5"/>
+    </row>
+    <row r="680" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E680" s="5"/>
+    </row>
+    <row r="681" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E681" s="5"/>
+    </row>
+    <row r="682" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E682" s="5"/>
+    </row>
+    <row r="683" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E683" s="5"/>
+    </row>
+    <row r="684" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E684" s="5"/>
+    </row>
+    <row r="685" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E685" s="5"/>
+    </row>
+    <row r="686" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E686" s="5"/>
+    </row>
+    <row r="687" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E687" s="5"/>
+    </row>
+    <row r="688" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E688" s="5"/>
+    </row>
+    <row r="689" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E689" s="5"/>
+    </row>
+    <row r="690" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E690" s="5"/>
+    </row>
+    <row r="691" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E691" s="5"/>
+    </row>
+    <row r="692" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E692" s="5"/>
+    </row>
+    <row r="693" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E693" s="5"/>
+    </row>
+    <row r="694" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E694" s="5"/>
+    </row>
+    <row r="695" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E695" s="5"/>
+    </row>
+    <row r="696" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E696" s="5"/>
+    </row>
+    <row r="697" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E697" s="5"/>
+    </row>
+    <row r="698" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E698" s="5"/>
+    </row>
+    <row r="699" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E699" s="5"/>
+    </row>
+    <row r="700" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E700" s="5"/>
+    </row>
+    <row r="701" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E701" s="5"/>
+    </row>
+    <row r="702" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E702" s="5"/>
+    </row>
+    <row r="703" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E703" s="5"/>
+    </row>
+    <row r="704" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E704" s="5"/>
+    </row>
+    <row r="705" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E705" s="5"/>
+    </row>
+    <row r="706" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E706" s="5"/>
+    </row>
+    <row r="707" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E707" s="5"/>
+    </row>
+    <row r="708" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E708" s="5"/>
+    </row>
+    <row r="709" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E709" s="5"/>
+    </row>
+    <row r="710" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E710" s="5"/>
+    </row>
+    <row r="711" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E711" s="5"/>
+    </row>
+    <row r="712" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E712" s="5"/>
+    </row>
+    <row r="713" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E713" s="5"/>
+    </row>
+    <row r="714" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E714" s="5"/>
+    </row>
+    <row r="715" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E715" s="5"/>
+    </row>
+    <row r="716" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E716" s="5"/>
+    </row>
+    <row r="717" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E717" s="5"/>
+    </row>
+    <row r="718" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E718" s="5"/>
+    </row>
+    <row r="719" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E719" s="5"/>
+    </row>
+    <row r="720" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E720" s="5"/>
+    </row>
+    <row r="721" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E721" s="5"/>
+    </row>
+    <row r="722" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E722" s="5"/>
+    </row>
+    <row r="723" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E723" s="5"/>
+    </row>
+    <row r="724" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E724" s="5"/>
+    </row>
+    <row r="725" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E725" s="5"/>
+    </row>
+    <row r="726" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E726" s="5"/>
+    </row>
+    <row r="727" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E727" s="5"/>
+    </row>
+    <row r="728" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E728" s="5"/>
+    </row>
+    <row r="729" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E729" s="5"/>
+    </row>
+    <row r="730" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E730" s="5"/>
+    </row>
+    <row r="731" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E731" s="5"/>
+    </row>
+    <row r="732" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E732" s="5"/>
+    </row>
+    <row r="733" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E733" s="5"/>
+    </row>
+    <row r="734" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E734" s="5"/>
+    </row>
+    <row r="735" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E735" s="5"/>
+    </row>
+    <row r="736" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E736" s="5"/>
+    </row>
+    <row r="737" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E737" s="5"/>
+    </row>
+    <row r="738" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E738" s="5"/>
+    </row>
+    <row r="739" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E739" s="5"/>
+    </row>
+    <row r="740" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E740" s="5"/>
+    </row>
+    <row r="741" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E741" s="5"/>
+    </row>
+    <row r="742" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E742" s="5"/>
+    </row>
+    <row r="743" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E743" s="5"/>
+    </row>
+    <row r="744" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E744" s="5"/>
+    </row>
+    <row r="745" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E745" s="5"/>
+    </row>
+    <row r="746" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E746" s="5"/>
+    </row>
+    <row r="747" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E747" s="5"/>
+    </row>
+    <row r="748" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E748" s="5"/>
+    </row>
+    <row r="749" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E749" s="5"/>
+    </row>
+    <row r="750" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E750" s="5"/>
+    </row>
+    <row r="751" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E751" s="5"/>
+    </row>
+    <row r="752" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E752" s="5"/>
+    </row>
+    <row r="753" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E753" s="5"/>
+    </row>
+    <row r="754" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E754" s="5"/>
+    </row>
+    <row r="755" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E755" s="5"/>
+    </row>
+    <row r="756" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E756" s="5"/>
+    </row>
+    <row r="757" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E757" s="5"/>
+    </row>
+    <row r="758" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E758" s="5"/>
+    </row>
+    <row r="759" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E759" s="5"/>
+    </row>
+    <row r="760" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E760" s="5"/>
+    </row>
+    <row r="761" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E761" s="5"/>
+    </row>
+    <row r="762" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E762" s="5"/>
+    </row>
+    <row r="763" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E763" s="5"/>
+    </row>
+    <row r="764" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E764" s="5"/>
+    </row>
+    <row r="765" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E765" s="5"/>
+    </row>
+    <row r="766" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E766" s="5"/>
+    </row>
+    <row r="767" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E767" s="5"/>
+    </row>
+    <row r="768" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E768" s="5"/>
+    </row>
+    <row r="769" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E769" s="5"/>
+    </row>
+    <row r="770" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E770" s="5"/>
+    </row>
+    <row r="771" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E771" s="5"/>
+    </row>
+    <row r="772" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E772" s="5"/>
+    </row>
+    <row r="773" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E773" s="5"/>
+    </row>
+    <row r="774" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E774" s="5"/>
+    </row>
+    <row r="775" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E775" s="5"/>
+    </row>
+    <row r="776" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E776" s="5"/>
+    </row>
+    <row r="777" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E777" s="5"/>
+    </row>
+    <row r="778" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E778" s="5"/>
+    </row>
+    <row r="779" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E779" s="5"/>
+    </row>
+    <row r="780" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E780" s="5"/>
+    </row>
+    <row r="781" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E781" s="5"/>
+    </row>
+    <row r="782" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E782" s="5"/>
+    </row>
+    <row r="783" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E783" s="5"/>
+    </row>
+    <row r="784" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E784" s="5"/>
+    </row>
+    <row r="785" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E785" s="5"/>
+    </row>
+    <row r="786" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E786" s="5"/>
+    </row>
+    <row r="787" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E787" s="5"/>
+    </row>
+    <row r="788" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E788" s="5"/>
+    </row>
+    <row r="789" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E789" s="5"/>
+    </row>
+    <row r="790" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E790" s="5"/>
+    </row>
+    <row r="791" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E791" s="5"/>
+    </row>
+    <row r="792" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E792" s="5"/>
+    </row>
+    <row r="793" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E793" s="5"/>
+    </row>
+    <row r="794" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E794" s="5"/>
+    </row>
+    <row r="795" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E795" s="5"/>
+    </row>
+    <row r="796" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E796" s="5"/>
+    </row>
+    <row r="797" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E797" s="5"/>
+    </row>
+    <row r="798" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E798" s="5"/>
+    </row>
+    <row r="799" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E799" s="5"/>
+    </row>
+    <row r="800" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E800" s="5"/>
+    </row>
+    <row r="801" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E801" s="5"/>
+    </row>
+    <row r="802" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E802" s="5"/>
+    </row>
+    <row r="803" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E803" s="5"/>
+    </row>
+    <row r="804" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E804" s="5"/>
+    </row>
+    <row r="805" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E805" s="5"/>
+    </row>
+    <row r="806" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E806" s="5"/>
+    </row>
+    <row r="807" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E807" s="5"/>
+    </row>
+    <row r="808" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E808" s="5"/>
+    </row>
+    <row r="809" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E809" s="5"/>
+    </row>
+    <row r="810" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E810" s="5"/>
+    </row>
+    <row r="811" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E811" s="5"/>
+    </row>
+    <row r="812" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E812" s="5"/>
+    </row>
+    <row r="813" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E813" s="5"/>
+    </row>
+    <row r="814" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E814" s="5"/>
+    </row>
+    <row r="815" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E815" s="5"/>
+    </row>
+    <row r="816" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E816" s="5"/>
+    </row>
+    <row r="817" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E817" s="5"/>
+    </row>
+    <row r="818" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E818" s="5"/>
+    </row>
+    <row r="819" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E819" s="5"/>
+    </row>
+    <row r="820" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E820" s="5"/>
+    </row>
+    <row r="821" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E821" s="5"/>
+    </row>
+    <row r="822" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E822" s="5"/>
+    </row>
+    <row r="823" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E823" s="5"/>
+    </row>
+    <row r="824" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E824" s="5"/>
+    </row>
+    <row r="825" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E825" s="5"/>
+    </row>
+    <row r="826" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E826" s="5"/>
+    </row>
+    <row r="827" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E827" s="5"/>
+    </row>
+    <row r="828" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E828" s="5"/>
+    </row>
+    <row r="829" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E829" s="5"/>
+    </row>
+    <row r="830" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E830" s="5"/>
+    </row>
+    <row r="831" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E831" s="5"/>
+    </row>
+    <row r="832" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E832" s="5"/>
+    </row>
+    <row r="833" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E833" s="5"/>
+    </row>
+    <row r="834" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E834" s="5"/>
+    </row>
+    <row r="835" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E835" s="5"/>
+    </row>
+    <row r="836" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E836" s="5"/>
+    </row>
+    <row r="837" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E837" s="5"/>
+    </row>
+    <row r="838" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E838" s="5"/>
+    </row>
+    <row r="839" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E839" s="5"/>
+    </row>
+    <row r="840" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E840" s="5"/>
+    </row>
+    <row r="841" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E841" s="5"/>
+    </row>
+    <row r="842" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E842" s="5"/>
+    </row>
+    <row r="843" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E843" s="5"/>
+    </row>
+    <row r="844" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E844" s="5"/>
+    </row>
+    <row r="845" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E845" s="5"/>
+    </row>
+    <row r="846" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E846" s="5"/>
+    </row>
+    <row r="847" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E847" s="5"/>
+    </row>
+    <row r="848" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E848" s="5"/>
+    </row>
+    <row r="849" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E849" s="5"/>
+    </row>
+    <row r="850" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E850" s="5"/>
+    </row>
+    <row r="851" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E851" s="5"/>
+    </row>
+    <row r="852" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E852" s="5"/>
+    </row>
+    <row r="853" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E853" s="5"/>
+    </row>
+    <row r="854" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E854" s="5"/>
+    </row>
+    <row r="855" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E855" s="5"/>
+    </row>
+    <row r="856" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E856" s="5"/>
+    </row>
+    <row r="857" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E857" s="5"/>
+    </row>
+    <row r="858" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E858" s="5"/>
+    </row>
+    <row r="859" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E859" s="5"/>
+    </row>
+    <row r="860" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E860" s="5"/>
+    </row>
+    <row r="861" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E861" s="5"/>
+    </row>
+    <row r="862" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E862" s="5"/>
+    </row>
+    <row r="863" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E863" s="5"/>
+    </row>
+    <row r="864" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E864" s="5"/>
+    </row>
+    <row r="865" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E865" s="5"/>
+    </row>
+    <row r="866" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E866" s="5"/>
+    </row>
+    <row r="867" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E867" s="5"/>
+    </row>
+    <row r="868" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E868" s="5"/>
+    </row>
+    <row r="869" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E869" s="5"/>
+    </row>
+    <row r="870" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E870" s="5"/>
+    </row>
+    <row r="871" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E871" s="5"/>
+    </row>
+    <row r="872" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E872" s="5"/>
+    </row>
+    <row r="873" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E873" s="5"/>
+    </row>
+    <row r="874" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E874" s="5"/>
+    </row>
+    <row r="875" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E875" s="5"/>
+    </row>
+    <row r="876" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E876" s="5"/>
+    </row>
+    <row r="877" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E877" s="5"/>
+    </row>
+    <row r="878" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E878" s="5"/>
+    </row>
+    <row r="879" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E879" s="5"/>
+    </row>
+    <row r="880" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E880" s="5"/>
+    </row>
+    <row r="881" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E881" s="5"/>
+    </row>
+    <row r="882" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E882" s="5"/>
+    </row>
+    <row r="883" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E883" s="5"/>
+    </row>
+    <row r="884" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E884" s="5"/>
+    </row>
+    <row r="885" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E885" s="5"/>
+    </row>
+    <row r="886" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E886" s="5"/>
+    </row>
+    <row r="887" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E887" s="5"/>
+    </row>
+    <row r="888" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E888" s="5"/>
+    </row>
+    <row r="889" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E889" s="5"/>
+    </row>
+    <row r="890" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E890" s="5"/>
+    </row>
+    <row r="891" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E891" s="5"/>
+    </row>
+    <row r="892" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E892" s="5"/>
+    </row>
+    <row r="893" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E893" s="5"/>
+    </row>
+    <row r="894" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E894" s="5"/>
+    </row>
+    <row r="895" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E895" s="5"/>
+    </row>
+    <row r="896" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E896" s="5"/>
+    </row>
+    <row r="897" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E897" s="5"/>
+    </row>
+    <row r="898" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E898" s="5"/>
+    </row>
+    <row r="899" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E899" s="5"/>
+    </row>
+    <row r="900" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E900" s="5"/>
+    </row>
+    <row r="901" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E901" s="5"/>
+    </row>
+    <row r="902" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E902" s="5"/>
+    </row>
+    <row r="903" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E903" s="5"/>
+    </row>
+    <row r="904" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E904" s="5"/>
+    </row>
+    <row r="905" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E905" s="5"/>
+    </row>
+    <row r="906" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E906" s="5"/>
+    </row>
+    <row r="907" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E907" s="5"/>
+    </row>
+    <row r="908" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E908" s="5"/>
+    </row>
+    <row r="909" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E909" s="5"/>
+    </row>
+    <row r="910" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E910" s="5"/>
+    </row>
+    <row r="911" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E911" s="5"/>
+    </row>
+    <row r="912" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E912" s="5"/>
+    </row>
+    <row r="913" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E913" s="5"/>
+    </row>
+    <row r="914" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E914" s="5"/>
+    </row>
+    <row r="915" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E915" s="5"/>
+    </row>
+    <row r="916" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E916" s="5"/>
+    </row>
+    <row r="917" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E917" s="5"/>
+    </row>
+    <row r="918" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E918" s="5"/>
+    </row>
+    <row r="919" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E919" s="5"/>
+    </row>
+    <row r="920" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E920" s="5"/>
+    </row>
+    <row r="921" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E921" s="5"/>
+    </row>
+    <row r="922" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E922" s="5"/>
+    </row>
+    <row r="923" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E923" s="5"/>
+    </row>
+    <row r="924" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E924" s="5"/>
+    </row>
+    <row r="925" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E925" s="5"/>
+    </row>
+    <row r="926" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E926" s="5"/>
+    </row>
+    <row r="927" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E927" s="5"/>
+    </row>
+    <row r="928" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E928" s="5"/>
+    </row>
+    <row r="929" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E929" s="5"/>
+    </row>
+    <row r="930" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E930" s="5"/>
+    </row>
+    <row r="931" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E931" s="5"/>
+    </row>
+    <row r="932" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E932" s="5"/>
+    </row>
+    <row r="933" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E933" s="5"/>
+    </row>
+    <row r="934" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E934" s="5"/>
+    </row>
+    <row r="935" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E935" s="5"/>
+    </row>
+    <row r="936" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E936" s="5"/>
+    </row>
+    <row r="937" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E937" s="5"/>
+    </row>
+    <row r="938" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E938" s="5"/>
+    </row>
+    <row r="939" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E939" s="5"/>
+    </row>
+    <row r="940" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E940" s="5"/>
+    </row>
+    <row r="941" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E941" s="5"/>
+    </row>
+    <row r="942" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E942" s="5"/>
+    </row>
+    <row r="943" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E943" s="5"/>
+    </row>
+    <row r="944" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E944" s="5"/>
+    </row>
+    <row r="945" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E945" s="5"/>
+    </row>
+    <row r="946" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E946" s="5"/>
+    </row>
+    <row r="947" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E947" s="5"/>
+    </row>
+    <row r="948" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E948" s="5"/>
+    </row>
+    <row r="949" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E949" s="5"/>
+    </row>
+    <row r="950" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E950" s="5"/>
+    </row>
+    <row r="951" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E951" s="5"/>
+    </row>
+    <row r="952" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E952" s="5"/>
+    </row>
+    <row r="953" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E953" s="5"/>
+    </row>
+    <row r="954" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E954" s="5"/>
+    </row>
+    <row r="955" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E955" s="5"/>
+    </row>
+    <row r="956" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E956" s="5"/>
+    </row>
+    <row r="957" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E957" s="5"/>
+    </row>
+    <row r="958" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E958" s="5"/>
+    </row>
+    <row r="959" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E959" s="5"/>
+    </row>
+    <row r="960" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E960" s="5"/>
+    </row>
+    <row r="961" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E961" s="5"/>
+    </row>
+    <row r="962" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E962" s="5"/>
+    </row>
+    <row r="963" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E963" s="5"/>
+    </row>
+    <row r="964" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E964" s="5"/>
+    </row>
+    <row r="965" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E965" s="5"/>
+    </row>
+    <row r="966" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E966" s="5"/>
+    </row>
+    <row r="967" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E967" s="5"/>
+    </row>
+    <row r="968" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E968" s="5"/>
+    </row>
+    <row r="969" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E969" s="5"/>
+    </row>
+    <row r="970" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E970" s="5"/>
+    </row>
+    <row r="971" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E971" s="5"/>
+    </row>
+    <row r="972" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E972" s="5"/>
+    </row>
+    <row r="973" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E973" s="5"/>
+    </row>
+    <row r="974" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E974" s="5"/>
+    </row>
+    <row r="975" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E975" s="5"/>
+    </row>
+    <row r="976" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E976" s="5"/>
+    </row>
+    <row r="977" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E977" s="5"/>
+    </row>
+    <row r="978" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E978" s="5"/>
+    </row>
+    <row r="979" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E979" s="5"/>
+    </row>
+    <row r="980" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E980" s="5"/>
+    </row>
+    <row r="981" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E981" s="5"/>
+    </row>
+    <row r="982" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E982" s="5"/>
+    </row>
+    <row r="983" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E983" s="5"/>
+    </row>
+    <row r="984" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E984" s="5"/>
+    </row>
+    <row r="985" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E985" s="5"/>
+    </row>
+    <row r="986" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E986" s="5"/>
+    </row>
+    <row r="987" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E987" s="5"/>
+    </row>
+    <row r="988" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E988" s="5"/>
+    </row>
+    <row r="989" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E989" s="5"/>
+    </row>
+    <row r="990" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E990" s="5"/>
+    </row>
+    <row r="991" spans="5:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E991" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X9">
     <sortCondition ref="A3:A9"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{FFFF4A6B-6141-EF4A-A005-C49E89BAFB32}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{583900EC-E5D8-5D4F-8990-983F3A0FDBB0}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{63C3E05A-0F2B-3047-83ED-EB6662AE8536}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{C93DDD53-A427-244F-AFAE-EC2D1D133CB4}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{EF449516-CEFE-D348-A22E-CEAB05BE759C}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{B489066E-4E53-064D-A2EF-B5F017B39947}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{FFFF4A6B-6141-EF4A-A005-C49E89BAFB32}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{583900EC-E5D8-5D4F-8990-983F3A0FDBB0}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{63C3E05A-0F2B-3047-83ED-EB6662AE8536}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{C93DDD53-A427-244F-AFAE-EC2D1D133CB4}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{EF449516-CEFE-D348-A22E-CEAB05BE759C}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{B489066E-4E53-064D-A2EF-B5F017B39947}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -4201,7 +4240,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
@@ -4245,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>61</v>
@@ -4289,7 +4328,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>61</v>
@@ -11452,7 +11491,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>78</v>
@@ -11490,7 +11529,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>78</v>
@@ -11528,7 +11567,7 @@
         <v>91</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>78</v>
@@ -11560,7 +11599,7 @@
         <v>93</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>78</v>
@@ -11598,7 +11637,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>78</v>
@@ -11636,7 +11675,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>78</v>
@@ -11674,7 +11713,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>78</v>
@@ -11715,7 +11754,7 @@
         <v>112</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>78</v>
@@ -11753,7 +11792,7 @@
         <v>115</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>78</v>
@@ -11788,7 +11827,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>78</v>

--- a/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
+++ b/scripts/processing/input/jane.doe@univ.se_210902-212121_ampliseq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/scripts/processing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B214F42-3213-DE41-97EA-D3F457B8611D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973F5E7-C195-4B49-959B-22984D8823BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="500" windowWidth="27000" windowHeight="10760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="500" windowWidth="27000" windowHeight="10760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -226,15 +226,6 @@
     <t>805R</t>
   </si>
   <si>
-    <t>brackish water [ENVO_00002019]</t>
-  </si>
-  <si>
-    <t>marine biome [ENVO_00000447]</t>
-  </si>
-  <si>
-    <t>aquatic biome [ENVO_00002030]</t>
-  </si>
-  <si>
     <t>Baltic Proper</t>
   </si>
   <si>
@@ -497,6 +488,15 @@
   </si>
   <si>
     <t>KTH-2013-Baltic-16S</t>
+  </si>
+  <si>
+    <t>aquatic biome [ENVO:00002030]</t>
+  </si>
+  <si>
+    <t>marine biome [ENVO:00000447]</t>
+  </si>
+  <si>
+    <t>brackish water [ENVO:00002019]</t>
   </si>
 </sst>
 </file>
@@ -850,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -881,22 +881,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>8</v>
@@ -967,25 +967,25 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>59</v>
@@ -1003,10 +1003,10 @@
         <v>51</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z2" s="4">
         <v>3</v>
@@ -1020,25 +1020,25 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>136</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>58</v>
@@ -1056,10 +1056,10 @@
         <v>51</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Z3" s="4">
         <v>3</v>
@@ -1073,25 +1073,25 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>57</v>
@@ -1109,10 +1109,10 @@
         <v>51</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="4">
         <v>3</v>
@@ -4171,8 +4171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4193,7 +4193,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -4208,7 +4208,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
@@ -4223,7 +4223,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>24</v>
@@ -4240,7 +4240,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
@@ -4252,7 +4252,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>63</v>
@@ -4267,16 +4267,16 @@
         <v>53</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>61</v>
@@ -4296,7 +4296,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>63</v>
@@ -4311,16 +4311,16 @@
         <v>53</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4328,7 +4328,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>61</v>
@@ -4340,7 +4340,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>63</v>
@@ -4355,16 +4355,16 @@
         <v>53</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5369,7 +5369,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>28</v>
@@ -5410,13 +5410,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4">
         <v>7.25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -5426,13 +5426,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" s="4">
         <v>7.23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5440,13 +5440,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4">
         <v>6.97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5454,13 +5454,13 @@
         <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5468,13 +5468,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5482,13 +5482,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -8462,13 +8462,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11485,31 +11485,31 @@
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M2" s="4">
         <v>2235</v>
@@ -11523,31 +11523,31 @@
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="M3" s="4">
         <v>1033</v>
@@ -11561,25 +11561,25 @@
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="M4" s="4">
         <v>795</v>
@@ -11593,31 +11593,31 @@
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="M5" s="4">
         <v>134</v>
@@ -11631,31 +11631,31 @@
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M6" s="4">
         <v>572</v>
@@ -11669,31 +11669,31 @@
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="M7" s="4">
         <v>47</v>
@@ -11707,34 +11707,34 @@
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="4">
         <v>40</v>
@@ -11748,31 +11748,31 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M9" s="4">
         <v>99</v>
@@ -11786,28 +11786,28 @@
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="M10" s="4">
         <v>312</v>
@@ -11821,31 +11821,31 @@
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M11" s="4">
         <v>147</v>
